--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.336211</v>
+        <v>0.342215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.270943</v>
+        <v>0.227876</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24749</v>
+        <v>0.252307</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256065</v>
+        <v>0.256464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.273605</v>
+        <v>0.228138</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249149</v>
+        <v>0.25395</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.264343</v>
+        <v>0.26382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278304</v>
+        <v>0.232574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.255162</v>
+        <v>0.25927</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271847</v>
+        <v>0.272232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.284658</v>
+        <v>0.237068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.261479</v>
+        <v>0.264348</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.281217</v>
+        <v>0.28078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.289742</v>
+        <v>0.240974</v>
       </c>
       <c r="D6" t="n">
-        <v>0.265749</v>
+        <v>0.268365</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291244</v>
+        <v>0.291333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.24486</v>
+        <v>0.206853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.225446</v>
+        <v>0.226507</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.297313</v>
+        <v>0.297765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.251253</v>
+        <v>0.209058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231502</v>
+        <v>0.233128</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306162</v>
+        <v>0.306702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255798</v>
+        <v>0.213567</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237676</v>
+        <v>0.238776</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314899</v>
+        <v>0.315417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.262917</v>
+        <v>0.218316</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244656</v>
+        <v>0.246224</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.322848</v>
+        <v>0.322671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.268823</v>
+        <v>0.224091</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251981</v>
+        <v>0.25318</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333327</v>
+        <v>0.332217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.27828</v>
+        <v>0.231087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26152</v>
+        <v>0.261387</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.342207</v>
+        <v>0.339521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.285899</v>
+        <v>0.237748</v>
       </c>
       <c r="D13" t="n">
-        <v>0.267671</v>
+        <v>0.267482</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.351385</v>
+        <v>0.349055</v>
       </c>
       <c r="C14" t="n">
-        <v>0.292493</v>
+        <v>0.242088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.273204</v>
+        <v>0.273263</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.362041</v>
+        <v>0.359487</v>
       </c>
       <c r="C15" t="n">
-        <v>0.299037</v>
+        <v>0.247372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.279268</v>
+        <v>0.278696</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.370089</v>
+        <v>0.367631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.304949</v>
+        <v>0.251545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.284959</v>
+        <v>0.285073</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.380894</v>
+        <v>0.380129</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310639</v>
+        <v>0.257719</v>
       </c>
       <c r="D17" t="n">
-        <v>0.294171</v>
+        <v>0.293404</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.28842</v>
+        <v>0.289151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.31604</v>
+        <v>0.26051</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296687</v>
+        <v>0.297103</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.295892</v>
+        <v>0.295881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.321347</v>
+        <v>0.265617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.303231</v>
+        <v>0.303491</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.305681</v>
+        <v>0.305741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.328814</v>
+        <v>0.273387</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311584</v>
+        <v>0.310893</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315217</v>
+        <v>0.315092</v>
       </c>
       <c r="C21" t="n">
-        <v>0.266052</v>
+        <v>0.22264</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247358</v>
+        <v>0.247799</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.323836</v>
+        <v>0.32501</v>
       </c>
       <c r="C22" t="n">
-        <v>0.272733</v>
+        <v>0.228578</v>
       </c>
       <c r="D22" t="n">
-        <v>0.253938</v>
+        <v>0.255549</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.332643</v>
+        <v>0.332301</v>
       </c>
       <c r="C23" t="n">
-        <v>0.279887</v>
+        <v>0.233486</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261935</v>
+        <v>0.262498</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339987</v>
+        <v>0.341034</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285559</v>
+        <v>0.238133</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267384</v>
+        <v>0.268739</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348219</v>
+        <v>0.347676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.292059</v>
+        <v>0.24345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274355</v>
+        <v>0.275615</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357871</v>
+        <v>0.357028</v>
       </c>
       <c r="C26" t="n">
-        <v>0.299531</v>
+        <v>0.248881</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281343</v>
+        <v>0.282354</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365604</v>
+        <v>0.365082</v>
       </c>
       <c r="C27" t="n">
-        <v>0.305595</v>
+        <v>0.253988</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287754</v>
+        <v>0.288155</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375345</v>
+        <v>0.374671</v>
       </c>
       <c r="C28" t="n">
-        <v>0.312183</v>
+        <v>0.259574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293977</v>
+        <v>0.295016</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384001</v>
+        <v>0.383683</v>
       </c>
       <c r="C29" t="n">
-        <v>0.319498</v>
+        <v>0.264679</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301113</v>
+        <v>0.302204</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391916</v>
+        <v>0.391363</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3259</v>
+        <v>0.269602</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307538</v>
+        <v>0.308043</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400979</v>
+        <v>0.400693</v>
       </c>
       <c r="C31" t="n">
-        <v>0.331617</v>
+        <v>0.274669</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313018</v>
+        <v>0.313795</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297663</v>
+        <v>0.297155</v>
       </c>
       <c r="C32" t="n">
-        <v>0.337703</v>
+        <v>0.279767</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319676</v>
+        <v>0.32068</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306264</v>
+        <v>0.305208</v>
       </c>
       <c r="C33" t="n">
-        <v>0.344212</v>
+        <v>0.285331</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325929</v>
+        <v>0.326914</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313716</v>
+        <v>0.31346</v>
       </c>
       <c r="C34" t="n">
-        <v>0.350024</v>
+        <v>0.290158</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332158</v>
+        <v>0.333131</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322564</v>
+        <v>0.322456</v>
       </c>
       <c r="C35" t="n">
-        <v>0.277652</v>
+        <v>0.231097</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258602</v>
+        <v>0.258419</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.331249</v>
+        <v>0.331059</v>
       </c>
       <c r="C36" t="n">
-        <v>0.28427</v>
+        <v>0.237127</v>
       </c>
       <c r="D36" t="n">
-        <v>0.264599</v>
+        <v>0.264627</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339525</v>
+        <v>0.339391</v>
       </c>
       <c r="C37" t="n">
-        <v>0.290856</v>
+        <v>0.242138</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270773</v>
+        <v>0.270794</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347556</v>
+        <v>0.347534</v>
       </c>
       <c r="C38" t="n">
-        <v>0.297695</v>
+        <v>0.247512</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277088</v>
+        <v>0.277271</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.355946</v>
+        <v>0.355816</v>
       </c>
       <c r="C39" t="n">
-        <v>0.304243</v>
+        <v>0.253247</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284517</v>
+        <v>0.284341</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365446</v>
+        <v>0.364946</v>
       </c>
       <c r="C40" t="n">
-        <v>0.31123</v>
+        <v>0.258544</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290698</v>
+        <v>0.291051</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372753</v>
+        <v>0.3725</v>
       </c>
       <c r="C41" t="n">
-        <v>0.317772</v>
+        <v>0.263474</v>
       </c>
       <c r="D41" t="n">
-        <v>0.297908</v>
+        <v>0.298068</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.381206</v>
+        <v>0.380935</v>
       </c>
       <c r="C42" t="n">
-        <v>0.324243</v>
+        <v>0.2685</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303554</v>
+        <v>0.303848</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.391339</v>
+        <v>0.391068</v>
       </c>
       <c r="C43" t="n">
-        <v>0.331376</v>
+        <v>0.27351</v>
       </c>
       <c r="D43" t="n">
-        <v>0.310761</v>
+        <v>0.310933</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.39981</v>
+        <v>0.399767</v>
       </c>
       <c r="C44" t="n">
-        <v>0.337715</v>
+        <v>0.279025</v>
       </c>
       <c r="D44" t="n">
-        <v>0.317682</v>
+        <v>0.317629</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.407887</v>
+        <v>0.407781</v>
       </c>
       <c r="C45" t="n">
-        <v>0.343968</v>
+        <v>0.283673</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323439</v>
+        <v>0.323614</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418944</v>
+        <v>0.418254</v>
       </c>
       <c r="C46" t="n">
-        <v>0.349658</v>
+        <v>0.288093</v>
       </c>
       <c r="D46" t="n">
-        <v>0.328953</v>
+        <v>0.328909</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306192</v>
+        <v>0.305519</v>
       </c>
       <c r="C47" t="n">
-        <v>0.35568</v>
+        <v>0.293142</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335093</v>
+        <v>0.335218</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.313371</v>
+        <v>0.312981</v>
       </c>
       <c r="C48" t="n">
-        <v>0.361979</v>
+        <v>0.298353</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342884</v>
+        <v>0.342615</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.322553</v>
+        <v>0.321922</v>
       </c>
       <c r="C49" t="n">
-        <v>0.368738</v>
+        <v>0.303355</v>
       </c>
       <c r="D49" t="n">
-        <v>0.352303</v>
+        <v>0.352266</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330984</v>
+        <v>0.330122</v>
       </c>
       <c r="C50" t="n">
-        <v>0.287044</v>
+        <v>0.239884</v>
       </c>
       <c r="D50" t="n">
-        <v>0.263373</v>
+        <v>0.262326</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.33871</v>
+        <v>0.338443</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293833</v>
+        <v>0.245406</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270922</v>
+        <v>0.269847</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347664</v>
+        <v>0.347449</v>
       </c>
       <c r="C52" t="n">
-        <v>0.301292</v>
+        <v>0.251287</v>
       </c>
       <c r="D52" t="n">
-        <v>0.278322</v>
+        <v>0.277242</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355855</v>
+        <v>0.355417</v>
       </c>
       <c r="C53" t="n">
-        <v>0.308503</v>
+        <v>0.256999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.285533</v>
+        <v>0.284573</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364896</v>
+        <v>0.364218</v>
       </c>
       <c r="C54" t="n">
-        <v>0.315589</v>
+        <v>0.262217</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291754</v>
+        <v>0.291339</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.373238</v>
+        <v>0.372563</v>
       </c>
       <c r="C55" t="n">
-        <v>0.322562</v>
+        <v>0.267798</v>
       </c>
       <c r="D55" t="n">
-        <v>0.299122</v>
+        <v>0.298673</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381632</v>
+        <v>0.381305</v>
       </c>
       <c r="C56" t="n">
-        <v>0.329445</v>
+        <v>0.273411</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305444</v>
+        <v>0.305361</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391023</v>
+        <v>0.390294</v>
       </c>
       <c r="C57" t="n">
-        <v>0.336559</v>
+        <v>0.277295</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312885</v>
+        <v>0.312321</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.400873</v>
+        <v>0.399344</v>
       </c>
       <c r="C58" t="n">
-        <v>0.342705</v>
+        <v>0.282897</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319377</v>
+        <v>0.318833</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.409471</v>
+        <v>0.407855</v>
       </c>
       <c r="C59" t="n">
-        <v>0.350388</v>
+        <v>0.287584</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326795</v>
+        <v>0.325411</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.421576</v>
+        <v>0.417996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.357699</v>
+        <v>0.292503</v>
       </c>
       <c r="D60" t="n">
-        <v>0.334906</v>
+        <v>0.33209</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.311215</v>
+        <v>0.310365</v>
       </c>
       <c r="C61" t="n">
-        <v>0.364019</v>
+        <v>0.297543</v>
       </c>
       <c r="D61" t="n">
-        <v>0.34185</v>
+        <v>0.339078</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.322177</v>
+        <v>0.320576</v>
       </c>
       <c r="C62" t="n">
-        <v>0.371379</v>
+        <v>0.302285</v>
       </c>
       <c r="D62" t="n">
-        <v>0.349237</v>
+        <v>0.345655</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.333509</v>
+        <v>0.331808</v>
       </c>
       <c r="C63" t="n">
-        <v>0.379064</v>
+        <v>0.308136</v>
       </c>
       <c r="D63" t="n">
-        <v>0.357851</v>
+        <v>0.353847</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.345687</v>
+        <v>0.342184</v>
       </c>
       <c r="C64" t="n">
-        <v>0.298878</v>
+        <v>0.249175</v>
       </c>
       <c r="D64" t="n">
-        <v>0.276326</v>
+        <v>0.277225</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.357032</v>
+        <v>0.350063</v>
       </c>
       <c r="C65" t="n">
-        <v>0.307358</v>
+        <v>0.25607</v>
       </c>
       <c r="D65" t="n">
-        <v>0.285193</v>
+        <v>0.285557</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.369351</v>
+        <v>0.362708</v>
       </c>
       <c r="C66" t="n">
-        <v>0.320201</v>
+        <v>0.263664</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2954</v>
+        <v>0.291969</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.383397</v>
+        <v>0.374362</v>
       </c>
       <c r="C67" t="n">
-        <v>0.329389</v>
+        <v>0.271654</v>
       </c>
       <c r="D67" t="n">
-        <v>0.306114</v>
+        <v>0.302399</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.396907</v>
+        <v>0.385338</v>
       </c>
       <c r="C68" t="n">
-        <v>0.337711</v>
+        <v>0.279574</v>
       </c>
       <c r="D68" t="n">
-        <v>0.317382</v>
+        <v>0.312728</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.411031</v>
+        <v>0.397654</v>
       </c>
       <c r="C69" t="n">
-        <v>0.346841</v>
+        <v>0.288974</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32893</v>
+        <v>0.322525</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.425489</v>
+        <v>0.412766</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362462</v>
+        <v>0.29509</v>
       </c>
       <c r="D70" t="n">
-        <v>0.340742</v>
+        <v>0.335061</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.442595</v>
+        <v>0.430256</v>
       </c>
       <c r="C71" t="n">
-        <v>0.375856</v>
+        <v>0.306308</v>
       </c>
       <c r="D71" t="n">
-        <v>0.353411</v>
+        <v>0.347212</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.462187</v>
+        <v>0.44975</v>
       </c>
       <c r="C72" t="n">
-        <v>0.389155</v>
+        <v>0.31564</v>
       </c>
       <c r="D72" t="n">
-        <v>0.365978</v>
+        <v>0.360719</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.48333</v>
+        <v>0.468897</v>
       </c>
       <c r="C73" t="n">
-        <v>0.40089</v>
+        <v>0.325741</v>
       </c>
       <c r="D73" t="n">
-        <v>0.379708</v>
+        <v>0.373033</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.500108</v>
+        <v>0.488463</v>
       </c>
       <c r="C74" t="n">
-        <v>0.417719</v>
+        <v>0.338473</v>
       </c>
       <c r="D74" t="n">
-        <v>0.394993</v>
+        <v>0.388518</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5252329999999999</v>
+        <v>0.509703</v>
       </c>
       <c r="C75" t="n">
-        <v>0.435301</v>
+        <v>0.353018</v>
       </c>
       <c r="D75" t="n">
-        <v>0.412466</v>
+        <v>0.406383</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.475366</v>
+        <v>0.480041</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4571</v>
+        <v>0.369952</v>
       </c>
       <c r="D76" t="n">
-        <v>0.436051</v>
+        <v>0.42851</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.505654</v>
+        <v>0.506905</v>
       </c>
       <c r="C77" t="n">
-        <v>0.481751</v>
+        <v>0.391409</v>
       </c>
       <c r="D77" t="n">
-        <v>0.458722</v>
+        <v>0.45405</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.532765</v>
+        <v>0.537866</v>
       </c>
       <c r="C78" t="n">
-        <v>0.414369</v>
+        <v>0.355757</v>
       </c>
       <c r="D78" t="n">
-        <v>0.409528</v>
+        <v>0.413971</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5668</v>
+        <v>0.571749</v>
       </c>
       <c r="C79" t="n">
-        <v>0.437626</v>
+        <v>0.376422</v>
       </c>
       <c r="D79" t="n">
-        <v>0.435461</v>
+        <v>0.441436</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.596876</v>
+        <v>0.603843</v>
       </c>
       <c r="C80" t="n">
-        <v>0.478645</v>
+        <v>0.402224</v>
       </c>
       <c r="D80" t="n">
-        <v>0.462069</v>
+        <v>0.468402</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.631254</v>
+        <v>0.637764</v>
       </c>
       <c r="C81" t="n">
-        <v>0.498225</v>
+        <v>0.421099</v>
       </c>
       <c r="D81" t="n">
-        <v>0.484183</v>
+        <v>0.491579</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.666797</v>
+        <v>0.675176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.520387</v>
+        <v>0.442042</v>
       </c>
       <c r="D82" t="n">
-        <v>0.511022</v>
+        <v>0.5185070000000001</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.703854</v>
+        <v>0.714099</v>
       </c>
       <c r="C83" t="n">
-        <v>0.55009</v>
+        <v>0.464963</v>
       </c>
       <c r="D83" t="n">
-        <v>0.53846</v>
+        <v>0.5444560000000001</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.735084</v>
+        <v>0.746007</v>
       </c>
       <c r="C84" t="n">
-        <v>0.576948</v>
+        <v>0.491576</v>
       </c>
       <c r="D84" t="n">
-        <v>0.565572</v>
+        <v>0.572037</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.774204</v>
+        <v>0.783679</v>
       </c>
       <c r="C85" t="n">
-        <v>0.609413</v>
+        <v>0.518449</v>
       </c>
       <c r="D85" t="n">
-        <v>0.594403</v>
+        <v>0.600523</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.815083</v>
+        <v>0.825147</v>
       </c>
       <c r="C86" t="n">
-        <v>0.643439</v>
+        <v>0.545052</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6234189999999999</v>
+        <v>0.631084</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.856202</v>
+        <v>0.867823</v>
       </c>
       <c r="C87" t="n">
-        <v>0.677405</v>
+        <v>0.57245</v>
       </c>
       <c r="D87" t="n">
-        <v>0.65235</v>
+        <v>0.659631</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.898815</v>
+        <v>0.9106109999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.713264</v>
+        <v>0.600338</v>
       </c>
       <c r="D88" t="n">
-        <v>0.688719</v>
+        <v>0.697242</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.945283</v>
+        <v>0.9577870000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.75039</v>
+        <v>0.629458</v>
       </c>
       <c r="D89" t="n">
-        <v>0.721004</v>
+        <v>0.731172</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829739</v>
+        <v>0.840262</v>
       </c>
       <c r="C90" t="n">
-        <v>0.78953</v>
+        <v>0.65925</v>
       </c>
       <c r="D90" t="n">
-        <v>0.74535</v>
+        <v>0.753714</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.858188</v>
+        <v>0.869301</v>
       </c>
       <c r="C91" t="n">
-        <v>0.83083</v>
+        <v>0.690766</v>
       </c>
       <c r="D91" t="n">
-        <v>0.77829</v>
+        <v>0.786866</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.886957</v>
+        <v>0.898303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.68415</v>
+        <v>0.58335</v>
       </c>
       <c r="D92" t="n">
-        <v>0.675422</v>
+        <v>0.683247</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.915964</v>
+        <v>0.929354</v>
       </c>
       <c r="C93" t="n">
-        <v>0.709469</v>
+        <v>0.602979</v>
       </c>
       <c r="D93" t="n">
-        <v>0.701435</v>
+        <v>0.7108100000000001</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.945651</v>
+        <v>0.959927</v>
       </c>
       <c r="C94" t="n">
-        <v>0.735059</v>
+        <v>0.624309</v>
       </c>
       <c r="D94" t="n">
-        <v>0.718249</v>
+        <v>0.72716</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.976498</v>
+        <v>0.991828</v>
       </c>
       <c r="C95" t="n">
-        <v>0.76207</v>
+        <v>0.646129</v>
       </c>
       <c r="D95" t="n">
-        <v>0.753669</v>
+        <v>0.764315</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00475</v>
+        <v>1.02021</v>
       </c>
       <c r="C96" t="n">
-        <v>0.79158</v>
+        <v>0.670281</v>
       </c>
       <c r="D96" t="n">
-        <v>0.780027</v>
+        <v>0.790672</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03472</v>
+        <v>1.05008</v>
       </c>
       <c r="C97" t="n">
-        <v>0.822485</v>
+        <v>0.69414</v>
       </c>
       <c r="D97" t="n">
-        <v>0.810083</v>
+        <v>0.81871</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.07231</v>
+        <v>1.08898</v>
       </c>
       <c r="C98" t="n">
-        <v>0.853123</v>
+        <v>0.717727</v>
       </c>
       <c r="D98" t="n">
-        <v>0.836937</v>
+        <v>0.848526</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10849</v>
+        <v>1.12643</v>
       </c>
       <c r="C99" t="n">
-        <v>0.885813</v>
+        <v>0.743626</v>
       </c>
       <c r="D99" t="n">
-        <v>0.864325</v>
+        <v>0.876376</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1424</v>
+        <v>1.16239</v>
       </c>
       <c r="C100" t="n">
-        <v>0.920169</v>
+        <v>0.768744</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8928469999999999</v>
+        <v>0.906672</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16867</v>
+        <v>1.18829</v>
       </c>
       <c r="C101" t="n">
-        <v>0.956578</v>
+        <v>0.796174</v>
       </c>
       <c r="D101" t="n">
-        <v>0.922337</v>
+        <v>0.937029</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20473</v>
+        <v>1.22614</v>
       </c>
       <c r="C102" t="n">
-        <v>0.99472</v>
+        <v>0.823646</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9586</v>
+        <v>0.969039</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24428</v>
+        <v>1.26506</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03494</v>
+        <v>0.853913</v>
       </c>
       <c r="D103" t="n">
-        <v>0.989888</v>
+        <v>1.00185</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.28477</v>
+        <v>1.30724</v>
       </c>
       <c r="C104" t="n">
-        <v>1.07606</v>
+        <v>0.883006</v>
       </c>
       <c r="D104" t="n">
-        <v>1.02257</v>
+        <v>1.03578</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.027</v>
+        <v>1.04573</v>
       </c>
       <c r="C105" t="n">
-        <v>1.12189</v>
+        <v>0.91245</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05877</v>
+        <v>1.06858</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05361</v>
+        <v>1.07202</v>
       </c>
       <c r="C106" t="n">
-        <v>1.16567</v>
+        <v>0.946576</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09363</v>
+        <v>1.10727</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.07995</v>
+        <v>1.09898</v>
       </c>
       <c r="C107" t="n">
-        <v>0.872976</v>
+        <v>0.727338</v>
       </c>
       <c r="D107" t="n">
-        <v>0.898129</v>
+        <v>0.911899</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.10199</v>
+        <v>1.11886</v>
       </c>
       <c r="C108" t="n">
-        <v>0.898099</v>
+        <v>0.745661</v>
       </c>
       <c r="D108" t="n">
-        <v>0.921512</v>
+        <v>0.933327</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1316</v>
+        <v>1.14837</v>
       </c>
       <c r="C109" t="n">
-        <v>0.926471</v>
+        <v>0.768976</v>
       </c>
       <c r="D109" t="n">
-        <v>0.949433</v>
+        <v>0.962099</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15933</v>
+        <v>1.1772</v>
       </c>
       <c r="C110" t="n">
-        <v>0.955761</v>
+        <v>0.792129</v>
       </c>
       <c r="D110" t="n">
-        <v>0.975903</v>
+        <v>0.988572</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.18728</v>
+        <v>1.20573</v>
       </c>
       <c r="C111" t="n">
-        <v>0.985827</v>
+        <v>0.816335</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00312</v>
+        <v>1.01549</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22504</v>
+        <v>1.24405</v>
       </c>
       <c r="C112" t="n">
-        <v>1.01909</v>
+        <v>0.840595</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03262</v>
+        <v>1.04552</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.25753</v>
+        <v>1.27605</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05326</v>
+        <v>0.866287</v>
       </c>
       <c r="D113" t="n">
-        <v>1.0603</v>
+        <v>1.07392</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28831</v>
+        <v>1.308</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08868</v>
+        <v>0.892994</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09602</v>
+        <v>1.11159</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.32381</v>
+        <v>1.34414</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12622</v>
+        <v>0.920053</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12859</v>
+        <v>1.14552</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.36163</v>
+        <v>1.38275</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16499</v>
+        <v>0.948558</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15192</v>
+        <v>1.16657</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39877</v>
+        <v>1.42063</v>
       </c>
       <c r="C117" t="n">
-        <v>1.20312</v>
+        <v>0.977405</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1839</v>
+        <v>1.19859</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.44097</v>
+        <v>1.46334</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24389</v>
+        <v>1.00812</v>
       </c>
       <c r="D118" t="n">
-        <v>1.2207</v>
+        <v>1.23728</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.12244</v>
+        <v>1.14253</v>
       </c>
       <c r="C119" t="n">
-        <v>1.28744</v>
+        <v>1.03848</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2518</v>
+        <v>1.27007</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.26891</v>
+        <v>0.267944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210829</v>
+        <v>0.177919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140106</v>
+        <v>0.139669</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194827</v>
+        <v>0.199122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213883</v>
+        <v>0.181636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140575</v>
+        <v>0.140475</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.201246</v>
+        <v>0.205147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.219823</v>
+        <v>0.190953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145117</v>
+        <v>0.145364</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.211465</v>
+        <v>0.21453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.227042</v>
+        <v>0.199432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.149052</v>
+        <v>0.150411</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.217712</v>
+        <v>0.218737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235932</v>
+        <v>0.203896</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153614</v>
+        <v>0.153337</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226001</v>
+        <v>0.226928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200916</v>
+        <v>0.167777</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138653</v>
+        <v>0.140833</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231977</v>
+        <v>0.233579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200429</v>
+        <v>0.169967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140765</v>
+        <v>0.142627</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.239769</v>
+        <v>0.240483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210351</v>
+        <v>0.172017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.144727</v>
+        <v>0.141485</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.24766</v>
+        <v>0.247384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212915</v>
+        <v>0.180453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145283</v>
+        <v>0.14879</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.254113</v>
+        <v>0.255252</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22103</v>
+        <v>0.184679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.150068</v>
+        <v>0.146405</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26615</v>
+        <v>0.2633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225849</v>
+        <v>0.192695</v>
       </c>
       <c r="D12" t="n">
-        <v>0.152266</v>
+        <v>0.152806</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.272245</v>
+        <v>0.26981</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235519</v>
+        <v>0.197323</v>
       </c>
       <c r="D13" t="n">
-        <v>0.156752</v>
+        <v>0.15568</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.282461</v>
+        <v>0.28009</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241325</v>
+        <v>0.204208</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158097</v>
+        <v>0.157651</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.294139</v>
+        <v>0.293909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248005</v>
+        <v>0.209846</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163313</v>
+        <v>0.163222</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30261</v>
+        <v>0.302623</v>
       </c>
       <c r="C16" t="n">
-        <v>0.257855</v>
+        <v>0.218959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166823</v>
+        <v>0.167359</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.316215</v>
+        <v>0.314393</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26531</v>
+        <v>0.226048</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171468</v>
+        <v>0.170077</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.234241</v>
+        <v>0.23229</v>
       </c>
       <c r="C18" t="n">
-        <v>0.272029</v>
+        <v>0.231319</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17324</v>
+        <v>0.172192</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243224</v>
+        <v>0.240252</v>
       </c>
       <c r="C19" t="n">
-        <v>0.280522</v>
+        <v>0.240609</v>
       </c>
       <c r="D19" t="n">
-        <v>0.180377</v>
+        <v>0.178869</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247436</v>
+        <v>0.244812</v>
       </c>
       <c r="C20" t="n">
-        <v>0.291841</v>
+        <v>0.2511</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184047</v>
+        <v>0.182697</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254329</v>
+        <v>0.252541</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240244</v>
+        <v>0.199884</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169244</v>
+        <v>0.168846</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.259687</v>
+        <v>0.257142</v>
       </c>
       <c r="C22" t="n">
-        <v>0.246575</v>
+        <v>0.206962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.171328</v>
+        <v>0.171442</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268012</v>
+        <v>0.267344</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252643</v>
+        <v>0.212991</v>
       </c>
       <c r="D23" t="n">
-        <v>0.175019</v>
+        <v>0.173216</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.27646</v>
+        <v>0.275799</v>
       </c>
       <c r="C24" t="n">
-        <v>0.256765</v>
+        <v>0.218359</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177598</v>
+        <v>0.176356</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.284645</v>
+        <v>0.282955</v>
       </c>
       <c r="C25" t="n">
-        <v>0.263026</v>
+        <v>0.223779</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180337</v>
+        <v>0.178384</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294336</v>
+        <v>0.292715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27052</v>
+        <v>0.231044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.183645</v>
+        <v>0.182173</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.302351</v>
+        <v>0.301952</v>
       </c>
       <c r="C27" t="n">
-        <v>0.27373</v>
+        <v>0.233404</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186095</v>
+        <v>0.184802</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314131</v>
+        <v>0.314208</v>
       </c>
       <c r="C28" t="n">
-        <v>0.28022</v>
+        <v>0.238272</v>
       </c>
       <c r="D28" t="n">
-        <v>0.188894</v>
+        <v>0.188045</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.32401</v>
+        <v>0.324374</v>
       </c>
       <c r="C29" t="n">
-        <v>0.287156</v>
+        <v>0.244396</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192425</v>
+        <v>0.190527</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.33391</v>
+        <v>0.333633</v>
       </c>
       <c r="C30" t="n">
-        <v>0.295894</v>
+        <v>0.253269</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195866</v>
+        <v>0.195117</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.346139</v>
+        <v>0.345215</v>
       </c>
       <c r="C31" t="n">
-        <v>0.300672</v>
+        <v>0.25699</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198983</v>
+        <v>0.197336</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.249271</v>
+        <v>0.250128</v>
       </c>
       <c r="C32" t="n">
-        <v>0.310179</v>
+        <v>0.267354</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203372</v>
+        <v>0.201993</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255663</v>
+        <v>0.256765</v>
       </c>
       <c r="C33" t="n">
-        <v>0.319039</v>
+        <v>0.274492</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206276</v>
+        <v>0.204727</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26186</v>
+        <v>0.262784</v>
       </c>
       <c r="C34" t="n">
-        <v>0.327911</v>
+        <v>0.282248</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209905</v>
+        <v>0.209598</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.268865</v>
+        <v>0.26996</v>
       </c>
       <c r="C35" t="n">
-        <v>0.255034</v>
+        <v>0.214834</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181642</v>
+        <v>0.181798</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.274667</v>
+        <v>0.276065</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26173</v>
+        <v>0.221019</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184323</v>
+        <v>0.184265</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280784</v>
+        <v>0.282828</v>
       </c>
       <c r="C37" t="n">
-        <v>0.26664</v>
+        <v>0.225624</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186578</v>
+        <v>0.18646</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.289248</v>
+        <v>0.290946</v>
       </c>
       <c r="C38" t="n">
-        <v>0.272455</v>
+        <v>0.230481</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1893</v>
+        <v>0.189185</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295665</v>
+        <v>0.29748</v>
       </c>
       <c r="C39" t="n">
-        <v>0.278053</v>
+        <v>0.236489</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191653</v>
+        <v>0.192306</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304768</v>
+        <v>0.306909</v>
       </c>
       <c r="C40" t="n">
-        <v>0.284365</v>
+        <v>0.242443</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195365</v>
+        <v>0.195541</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314615</v>
+        <v>0.317248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.289931</v>
+        <v>0.247235</v>
       </c>
       <c r="D41" t="n">
-        <v>0.197938</v>
+        <v>0.198058</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325085</v>
+        <v>0.327369</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294248</v>
+        <v>0.251506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.199809</v>
+        <v>0.201246</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335966</v>
+        <v>0.338079</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301297</v>
+        <v>0.257931</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204211</v>
+        <v>0.204609</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344737</v>
+        <v>0.34652</v>
       </c>
       <c r="C44" t="n">
-        <v>0.308983</v>
+        <v>0.265619</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207269</v>
+        <v>0.207645</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355796</v>
+        <v>0.358726</v>
       </c>
       <c r="C45" t="n">
-        <v>0.316128</v>
+        <v>0.271957</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210866</v>
+        <v>0.210693</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.367894</v>
+        <v>0.37063</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32438</v>
+        <v>0.279579</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214383</v>
+        <v>0.214764</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259682</v>
+        <v>0.261066</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331498</v>
+        <v>0.286488</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218175</v>
+        <v>0.218258</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265402</v>
+        <v>0.267337</v>
       </c>
       <c r="C48" t="n">
-        <v>0.340289</v>
+        <v>0.29452</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2214</v>
+        <v>0.222405</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.272243</v>
+        <v>0.2739</v>
       </c>
       <c r="C49" t="n">
-        <v>0.349409</v>
+        <v>0.303421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.22496</v>
+        <v>0.225967</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.27864</v>
+        <v>0.280594</v>
       </c>
       <c r="C50" t="n">
-        <v>0.267461</v>
+        <v>0.225919</v>
       </c>
       <c r="D50" t="n">
-        <v>0.184971</v>
+        <v>0.186026</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285597</v>
+        <v>0.287217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.272321</v>
+        <v>0.230557</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18815</v>
+        <v>0.187841</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.291922</v>
+        <v>0.294087</v>
       </c>
       <c r="C52" t="n">
-        <v>0.278139</v>
+        <v>0.235623</v>
       </c>
       <c r="D52" t="n">
-        <v>0.190744</v>
+        <v>0.19102</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301613</v>
+        <v>0.30384</v>
       </c>
       <c r="C53" t="n">
-        <v>0.284755</v>
+        <v>0.242174</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193448</v>
+        <v>0.193908</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.309739</v>
+        <v>0.311697</v>
       </c>
       <c r="C54" t="n">
-        <v>0.290283</v>
+        <v>0.247085</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196293</v>
+        <v>0.196301</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.318595</v>
+        <v>0.321168</v>
       </c>
       <c r="C55" t="n">
-        <v>0.296584</v>
+        <v>0.253683</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199298</v>
+        <v>0.19989</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328826</v>
+        <v>0.331392</v>
       </c>
       <c r="C56" t="n">
-        <v>0.301718</v>
+        <v>0.258646</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202045</v>
+        <v>0.202316</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.337762</v>
+        <v>0.340691</v>
       </c>
       <c r="C57" t="n">
-        <v>0.309147</v>
+        <v>0.265309</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205694</v>
+        <v>0.206007</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.34787</v>
+        <v>0.350763</v>
       </c>
       <c r="C58" t="n">
-        <v>0.317055</v>
+        <v>0.272277</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208778</v>
+        <v>0.209279</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.358658</v>
+        <v>0.361639</v>
       </c>
       <c r="C59" t="n">
-        <v>0.323194</v>
+        <v>0.278515</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212211</v>
+        <v>0.212055</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.369635</v>
+        <v>0.372447</v>
       </c>
       <c r="C60" t="n">
-        <v>0.330756</v>
+        <v>0.285629</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216345</v>
+        <v>0.216643</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.267412</v>
+        <v>0.267314</v>
       </c>
       <c r="C61" t="n">
-        <v>0.33942</v>
+        <v>0.293837</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219641</v>
+        <v>0.219692</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275427</v>
+        <v>0.275878</v>
       </c>
       <c r="C62" t="n">
-        <v>0.348112</v>
+        <v>0.303045</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223176</v>
+        <v>0.224286</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.285642</v>
+        <v>0.286129</v>
       </c>
       <c r="C63" t="n">
-        <v>0.357412</v>
+        <v>0.310581</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22774</v>
+        <v>0.227888</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.29695</v>
+        <v>0.29804</v>
       </c>
       <c r="C64" t="n">
-        <v>0.285673</v>
+        <v>0.241554</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197207</v>
+        <v>0.197215</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.303892</v>
+        <v>0.305861</v>
       </c>
       <c r="C65" t="n">
-        <v>0.29353</v>
+        <v>0.247698</v>
       </c>
       <c r="D65" t="n">
-        <v>0.199761</v>
+        <v>0.198611</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.314081</v>
+        <v>0.317588</v>
       </c>
       <c r="C66" t="n">
-        <v>0.301702</v>
+        <v>0.260737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203898</v>
+        <v>0.2027</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.327891</v>
+        <v>0.330746</v>
       </c>
       <c r="C67" t="n">
-        <v>0.310529</v>
+        <v>0.269605</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208146</v>
+        <v>0.207254</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342873</v>
+        <v>0.344858</v>
       </c>
       <c r="C68" t="n">
-        <v>0.321133</v>
+        <v>0.279072</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212753</v>
+        <v>0.211367</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.357638</v>
+        <v>0.360178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.330327</v>
+        <v>0.291391</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217311</v>
+        <v>0.217509</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.372873</v>
+        <v>0.381488</v>
       </c>
       <c r="C70" t="n">
-        <v>0.343509</v>
+        <v>0.299167</v>
       </c>
       <c r="D70" t="n">
-        <v>0.222634</v>
+        <v>0.226173</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.392263</v>
+        <v>0.403528</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357195</v>
+        <v>0.313358</v>
       </c>
       <c r="D71" t="n">
-        <v>0.228619</v>
+        <v>0.228945</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.414054</v>
+        <v>0.427835</v>
       </c>
       <c r="C72" t="n">
-        <v>0.369828</v>
+        <v>0.329983</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233836</v>
+        <v>0.235504</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.431954</v>
+        <v>0.451372</v>
       </c>
       <c r="C73" t="n">
-        <v>0.384905</v>
+        <v>0.347862</v>
       </c>
       <c r="D73" t="n">
-        <v>0.240443</v>
+        <v>0.244354</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.453675</v>
+        <v>0.479229</v>
       </c>
       <c r="C74" t="n">
-        <v>0.404205</v>
+        <v>0.366501</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24656</v>
+        <v>0.250417</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.482508</v>
+        <v>0.507104</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424081</v>
+        <v>0.388707</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253935</v>
+        <v>0.259414</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.424999</v>
+        <v>0.412058</v>
       </c>
       <c r="C76" t="n">
-        <v>0.452766</v>
+        <v>0.416199</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264583</v>
+        <v>0.267203</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.453919</v>
+        <v>0.444974</v>
       </c>
       <c r="C77" t="n">
-        <v>0.480268</v>
+        <v>0.438796</v>
       </c>
       <c r="D77" t="n">
-        <v>0.276414</v>
+        <v>0.277949</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.483085</v>
+        <v>0.474006</v>
       </c>
       <c r="C78" t="n">
-        <v>0.439515</v>
+        <v>0.384457</v>
       </c>
       <c r="D78" t="n">
-        <v>0.267115</v>
+        <v>0.260935</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.519519</v>
+        <v>0.513831</v>
       </c>
       <c r="C79" t="n">
-        <v>0.465508</v>
+        <v>0.40935</v>
       </c>
       <c r="D79" t="n">
-        <v>0.277203</v>
+        <v>0.272115</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.550777</v>
+        <v>0.549793</v>
       </c>
       <c r="C80" t="n">
-        <v>0.497569</v>
+        <v>0.441439</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29371</v>
+        <v>0.288472</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.597718</v>
+        <v>0.59742</v>
       </c>
       <c r="C81" t="n">
-        <v>0.532097</v>
+        <v>0.475025</v>
       </c>
       <c r="D81" t="n">
-        <v>0.304498</v>
+        <v>0.303815</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.640651</v>
+        <v>0.6419049999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.564179</v>
+        <v>0.506108</v>
       </c>
       <c r="D82" t="n">
-        <v>0.321136</v>
+        <v>0.322757</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.689086</v>
+        <v>0.693103</v>
       </c>
       <c r="C83" t="n">
-        <v>0.601631</v>
+        <v>0.542699</v>
       </c>
       <c r="D83" t="n">
-        <v>0.335511</v>
+        <v>0.339136</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.743148</v>
+        <v>0.745886</v>
       </c>
       <c r="C84" t="n">
-        <v>0.643317</v>
+        <v>0.581205</v>
       </c>
       <c r="D84" t="n">
-        <v>0.355336</v>
+        <v>0.360712</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.796656</v>
+        <v>0.801428</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6847490000000001</v>
+        <v>0.61841</v>
       </c>
       <c r="D85" t="n">
-        <v>0.381911</v>
+        <v>0.378951</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8560489999999999</v>
+        <v>0.860192</v>
       </c>
       <c r="C86" t="n">
-        <v>0.728908</v>
+        <v>0.660288</v>
       </c>
       <c r="D86" t="n">
-        <v>0.401781</v>
+        <v>0.397977</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.917062</v>
+        <v>0.922623</v>
       </c>
       <c r="C87" t="n">
-        <v>0.780419</v>
+        <v>0.710925</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426186</v>
+        <v>0.426122</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.987662</v>
+        <v>0.993348</v>
       </c>
       <c r="C88" t="n">
-        <v>0.828215</v>
+        <v>0.754781</v>
       </c>
       <c r="D88" t="n">
-        <v>0.449493</v>
+        <v>0.452988</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05779</v>
+        <v>1.06352</v>
       </c>
       <c r="C89" t="n">
-        <v>0.882253</v>
+        <v>0.806439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.476498</v>
+        <v>0.475526</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.837066</v>
+        <v>0.843545</v>
       </c>
       <c r="C90" t="n">
-        <v>0.932374</v>
+        <v>0.854665</v>
       </c>
       <c r="D90" t="n">
-        <v>0.503354</v>
+        <v>0.501957</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.870631</v>
+        <v>0.878781</v>
       </c>
       <c r="C91" t="n">
-        <v>0.990776</v>
+        <v>0.908992</v>
       </c>
       <c r="D91" t="n">
-        <v>0.522987</v>
+        <v>0.524436</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.910103</v>
+        <v>0.917901</v>
       </c>
       <c r="C92" t="n">
-        <v>0.819447</v>
+        <v>0.735477</v>
       </c>
       <c r="D92" t="n">
-        <v>0.511035</v>
+        <v>0.5159629999999999</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.949263</v>
+        <v>0.956765</v>
       </c>
       <c r="C93" t="n">
-        <v>0.849428</v>
+        <v>0.764621</v>
       </c>
       <c r="D93" t="n">
-        <v>0.524577</v>
+        <v>0.532339</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.991323</v>
+        <v>0.999758</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8827159999999999</v>
+        <v>0.796508</v>
       </c>
       <c r="D94" t="n">
-        <v>0.542808</v>
+        <v>0.548427</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03798</v>
+        <v>1.04596</v>
       </c>
       <c r="C95" t="n">
-        <v>0.914198</v>
+        <v>0.825852</v>
       </c>
       <c r="D95" t="n">
-        <v>0.564314</v>
+        <v>0.56577</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07785</v>
+        <v>1.08622</v>
       </c>
       <c r="C96" t="n">
-        <v>0.948531</v>
+        <v>0.859834</v>
       </c>
       <c r="D96" t="n">
-        <v>0.583384</v>
+        <v>0.584027</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1231</v>
+        <v>1.12984</v>
       </c>
       <c r="C97" t="n">
-        <v>0.976703</v>
+        <v>0.892799</v>
       </c>
       <c r="D97" t="n">
-        <v>0.599641</v>
+        <v>0.606284</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16779</v>
+        <v>1.17567</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00571</v>
+        <v>0.92589</v>
       </c>
       <c r="D98" t="n">
-        <v>0.622178</v>
+        <v>0.623843</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20958</v>
+        <v>1.2227</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03886</v>
+        <v>0.961175</v>
       </c>
       <c r="D99" t="n">
-        <v>0.643875</v>
+        <v>0.645678</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25684</v>
+        <v>1.27196</v>
       </c>
       <c r="C100" t="n">
-        <v>1.07846</v>
+        <v>0.995735</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6647459999999999</v>
+        <v>0.669242</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30945</v>
+        <v>1.32783</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12044</v>
+        <v>1.03092</v>
       </c>
       <c r="D101" t="n">
-        <v>0.686697</v>
+        <v>0.693903</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.37085</v>
+        <v>1.38539</v>
       </c>
       <c r="C102" t="n">
-        <v>1.16488</v>
+        <v>1.07019</v>
       </c>
       <c r="D102" t="n">
-        <v>0.710153</v>
+        <v>0.716662</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.43309</v>
+        <v>1.44846</v>
       </c>
       <c r="C103" t="n">
-        <v>1.21115</v>
+        <v>1.11194</v>
       </c>
       <c r="D103" t="n">
-        <v>0.734284</v>
+        <v>0.739557</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.50176</v>
+        <v>1.51719</v>
       </c>
       <c r="C104" t="n">
-        <v>1.26118</v>
+        <v>1.15638</v>
       </c>
       <c r="D104" t="n">
-        <v>0.759087</v>
+        <v>0.767267</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.03488</v>
+        <v>1.04941</v>
       </c>
       <c r="C105" t="n">
-        <v>1.31265</v>
+        <v>1.20492</v>
       </c>
       <c r="D105" t="n">
-        <v>0.78285</v>
+        <v>0.792759</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.06831</v>
+        <v>1.0833</v>
       </c>
       <c r="C106" t="n">
-        <v>1.36356</v>
+        <v>1.25398</v>
       </c>
       <c r="D106" t="n">
-        <v>0.811671</v>
+        <v>0.821346</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.10877</v>
+        <v>1.12162</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01074</v>
+        <v>0.905636</v>
       </c>
       <c r="D107" t="n">
-        <v>0.702196</v>
+        <v>0.70858</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.14526</v>
+        <v>1.16136</v>
       </c>
       <c r="C108" t="n">
-        <v>1.04197</v>
+        <v>0.933241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.718894</v>
+        <v>0.725081</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.18969</v>
+        <v>1.20288</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07336</v>
+        <v>0.962054</v>
       </c>
       <c r="D109" t="n">
-        <v>0.736423</v>
+        <v>0.745451</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23333</v>
+        <v>1.25088</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10494</v>
+        <v>0.991899</v>
       </c>
       <c r="D110" t="n">
-        <v>0.755224</v>
+        <v>0.76419</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.28047</v>
+        <v>1.29863</v>
       </c>
       <c r="C111" t="n">
-        <v>1.13978</v>
+        <v>1.02485</v>
       </c>
       <c r="D111" t="n">
-        <v>0.772968</v>
+        <v>0.783813</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32886</v>
+        <v>1.34825</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1785</v>
+        <v>1.06194</v>
       </c>
       <c r="D112" t="n">
-        <v>0.794049</v>
+        <v>0.8010350000000001</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.38556</v>
+        <v>1.4019</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21635</v>
+        <v>1.09652</v>
       </c>
       <c r="D113" t="n">
-        <v>0.812002</v>
+        <v>0.822995</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.438</v>
+        <v>1.45732</v>
       </c>
       <c r="C114" t="n">
-        <v>1.25451</v>
+        <v>1.13289</v>
       </c>
       <c r="D114" t="n">
-        <v>0.832117</v>
+        <v>0.843607</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49405</v>
+        <v>1.51486</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29687</v>
+        <v>1.17392</v>
       </c>
       <c r="D115" t="n">
-        <v>0.854832</v>
+        <v>0.864749</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.55645</v>
+        <v>1.57752</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33967</v>
+        <v>1.21624</v>
       </c>
       <c r="D116" t="n">
-        <v>0.87686</v>
+        <v>0.886512</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.62194</v>
+        <v>1.64307</v>
       </c>
       <c r="C117" t="n">
-        <v>1.3878</v>
+        <v>1.26238</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9006110000000001</v>
+        <v>0.913292</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.69086</v>
+        <v>1.7127</v>
       </c>
       <c r="C118" t="n">
-        <v>1.43848</v>
+        <v>1.31272</v>
       </c>
       <c r="D118" t="n">
-        <v>0.926161</v>
+        <v>0.9389110000000001</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11861</v>
+        <v>1.13254</v>
       </c>
       <c r="C119" t="n">
-        <v>1.49028</v>
+        <v>1.35849</v>
       </c>
       <c r="D119" t="n">
-        <v>0.951309</v>
+        <v>0.960301</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.580212</v>
+        <v>0.583595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45167</v>
+        <v>0.389679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249586</v>
+        <v>0.247005</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592079</v>
+        <v>0.593554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.448069</v>
+        <v>0.391777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254142</v>
+        <v>0.251576</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.618951</v>
+        <v>0.625401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.471335</v>
+        <v>0.411839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260688</v>
+        <v>0.258625</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6452059999999999</v>
+        <v>0.6538079999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.488045</v>
+        <v>0.425276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.270037</v>
+        <v>0.267634</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6680199999999999</v>
+        <v>0.6763670000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.506103</v>
+        <v>0.440877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279203</v>
+        <v>0.276857</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.696678</v>
+        <v>0.698618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.532621</v>
+        <v>0.471831</v>
       </c>
       <c r="D7" t="n">
-        <v>0.283432</v>
+        <v>0.282151</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.724098</v>
+        <v>0.7329290000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.558685</v>
+        <v>0.501752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.289334</v>
+        <v>0.28857</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.748085</v>
+        <v>0.769037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.576365</v>
+        <v>0.52707</v>
       </c>
       <c r="D9" t="n">
-        <v>0.297056</v>
+        <v>0.296454</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.781386</v>
+        <v>0.799961</v>
       </c>
       <c r="C10" t="n">
-        <v>0.608912</v>
+        <v>0.5392439999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309745</v>
+        <v>0.311672</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8207680000000001</v>
+        <v>0.824025</v>
       </c>
       <c r="C11" t="n">
-        <v>0.431336</v>
+        <v>0.379463</v>
       </c>
       <c r="D11" t="n">
-        <v>0.23614</v>
+        <v>0.234204</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.524078</v>
+        <v>0.530495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.441985</v>
+        <v>0.395322</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244732</v>
+        <v>0.245615</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.542891</v>
+        <v>0.554605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.464979</v>
+        <v>0.414488</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251141</v>
+        <v>0.251145</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.570241</v>
+        <v>0.577959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.494181</v>
+        <v>0.442682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2592</v>
+        <v>0.257986</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.603147</v>
+        <v>0.602549</v>
       </c>
       <c r="C15" t="n">
-        <v>0.521774</v>
+        <v>0.464443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270005</v>
+        <v>0.269164</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.628486</v>
+        <v>0.626476</v>
       </c>
       <c r="C16" t="n">
-        <v>0.543869</v>
+        <v>0.482551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.279568</v>
+        <v>0.275813</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.658093</v>
+        <v>0.6605529999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.57483</v>
+        <v>0.511355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287352</v>
+        <v>0.287278</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.692073</v>
+        <v>0.684326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.595844</v>
+        <v>0.536035</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297232</v>
+        <v>0.294105</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.725226</v>
+        <v>0.7219179999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.630473</v>
+        <v>0.558136</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308409</v>
+        <v>0.305286</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.761379</v>
+        <v>0.755402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.66093</v>
+        <v>0.595479</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31824</v>
+        <v>0.312953</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.80146</v>
+        <v>0.799834</v>
       </c>
       <c r="C21" t="n">
-        <v>0.694598</v>
+        <v>0.625042</v>
       </c>
       <c r="D21" t="n">
-        <v>0.333346</v>
+        <v>0.328869</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.843442</v>
+        <v>0.83899</v>
       </c>
       <c r="C22" t="n">
-        <v>0.727369</v>
+        <v>0.6618810000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341975</v>
+        <v>0.340964</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.89371</v>
+        <v>0.887222</v>
       </c>
       <c r="C23" t="n">
-        <v>0.764444</v>
+        <v>0.6969070000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.355754</v>
+        <v>0.348291</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.935162</v>
+        <v>0.9317879999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.799138</v>
+        <v>0.730891</v>
       </c>
       <c r="D24" t="n">
-        <v>0.369393</v>
+        <v>0.361554</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.977723</v>
+        <v>0.9743039999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.834095</v>
+        <v>0.756867</v>
       </c>
       <c r="D25" t="n">
-        <v>0.383179</v>
+        <v>0.377554</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02474</v>
+        <v>1.01601</v>
       </c>
       <c r="C26" t="n">
-        <v>0.546044</v>
+        <v>0.48512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.277917</v>
+        <v>0.275324</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.652057</v>
+        <v>0.645692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5706560000000001</v>
+        <v>0.5038010000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.286619</v>
+        <v>0.284562</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.681084</v>
+        <v>0.674964</v>
       </c>
       <c r="C28" t="n">
-        <v>0.600335</v>
+        <v>0.529381</v>
       </c>
       <c r="D28" t="n">
-        <v>0.29663</v>
+        <v>0.293271</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.714439</v>
+        <v>0.7084819999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.625341</v>
+        <v>0.553489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.307754</v>
+        <v>0.305127</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.752338</v>
+        <v>0.745108</v>
       </c>
       <c r="C30" t="n">
-        <v>0.65612</v>
+        <v>0.5857019999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318017</v>
+        <v>0.315736</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.788079</v>
+        <v>0.781297</v>
       </c>
       <c r="C31" t="n">
-        <v>0.68834</v>
+        <v>0.617814</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327181</v>
+        <v>0.32281</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.82662</v>
+        <v>0.82013</v>
       </c>
       <c r="C32" t="n">
-        <v>0.720015</v>
+        <v>0.645833</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337254</v>
+        <v>0.332231</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8646470000000001</v>
+        <v>0.8609830000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7483109999999999</v>
+        <v>0.6738229999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346071</v>
+        <v>0.343854</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.908303</v>
+        <v>0.904139</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7854139999999999</v>
+        <v>0.7127559999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.35641</v>
+        <v>0.351411</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.948287</v>
+        <v>0.9468760000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.744386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.369725</v>
+        <v>0.363566</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9896509999999999</v>
+        <v>0.9866200000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.845387</v>
+        <v>0.779952</v>
       </c>
       <c r="D36" t="n">
-        <v>0.379039</v>
+        <v>0.378954</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03605</v>
+        <v>1.03556</v>
       </c>
       <c r="C37" t="n">
-        <v>0.887422</v>
+        <v>0.815976</v>
       </c>
       <c r="D37" t="n">
-        <v>0.39118</v>
+        <v>0.387416</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.07944</v>
+        <v>1.07847</v>
       </c>
       <c r="C38" t="n">
-        <v>0.922337</v>
+        <v>0.859282</v>
       </c>
       <c r="D38" t="n">
-        <v>0.401297</v>
+        <v>0.401414</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12735</v>
+        <v>1.12523</v>
       </c>
       <c r="C39" t="n">
-        <v>0.959353</v>
+        <v>0.894133</v>
       </c>
       <c r="D39" t="n">
-        <v>0.418556</v>
+        <v>0.415445</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.17074</v>
+        <v>1.17132</v>
       </c>
       <c r="C40" t="n">
-        <v>0.60499</v>
+        <v>0.547214</v>
       </c>
       <c r="D40" t="n">
-        <v>0.315113</v>
+        <v>0.315426</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.705419</v>
+        <v>0.709599</v>
       </c>
       <c r="C41" t="n">
-        <v>0.625317</v>
+        <v>0.564331</v>
       </c>
       <c r="D41" t="n">
-        <v>0.325042</v>
+        <v>0.325147</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.736594</v>
+        <v>0.738436</v>
       </c>
       <c r="C42" t="n">
-        <v>0.651692</v>
+        <v>0.590243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333453</v>
+        <v>0.333702</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.770896</v>
+        <v>0.774137</v>
       </c>
       <c r="C43" t="n">
-        <v>0.682074</v>
+        <v>0.62114</v>
       </c>
       <c r="D43" t="n">
-        <v>0.34531</v>
+        <v>0.344693</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.806682</v>
+        <v>0.809018</v>
       </c>
       <c r="C44" t="n">
-        <v>0.712271</v>
+        <v>0.65016</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355233</v>
+        <v>0.355814</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.841839</v>
+        <v>0.84519</v>
       </c>
       <c r="C45" t="n">
-        <v>0.744389</v>
+        <v>0.677197</v>
       </c>
       <c r="D45" t="n">
-        <v>0.364963</v>
+        <v>0.363376</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.88417</v>
+        <v>0.887869</v>
       </c>
       <c r="C46" t="n">
-        <v>0.774936</v>
+        <v>0.7107</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375738</v>
+        <v>0.375358</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.925042</v>
+        <v>0.928018</v>
       </c>
       <c r="C47" t="n">
-        <v>0.807211</v>
+        <v>0.739703</v>
       </c>
       <c r="D47" t="n">
-        <v>0.387133</v>
+        <v>0.387314</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.965686</v>
+        <v>0.96974</v>
       </c>
       <c r="C48" t="n">
-        <v>0.842678</v>
+        <v>0.774305</v>
       </c>
       <c r="D48" t="n">
-        <v>0.39903</v>
+        <v>0.399841</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00425</v>
+        <v>1.01088</v>
       </c>
       <c r="C49" t="n">
-        <v>0.877459</v>
+        <v>0.8114170000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.40948</v>
+        <v>0.408129</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04537</v>
+        <v>1.05252</v>
       </c>
       <c r="C50" t="n">
-        <v>0.914913</v>
+        <v>0.8502769999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.420488</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09306</v>
+        <v>1.09894</v>
       </c>
       <c r="C51" t="n">
-        <v>0.946651</v>
+        <v>0.884474</v>
       </c>
       <c r="D51" t="n">
-        <v>0.435629</v>
+        <v>0.434783</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13411</v>
+        <v>1.14256</v>
       </c>
       <c r="C52" t="n">
-        <v>0.987054</v>
+        <v>0.926377</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447612</v>
+        <v>0.447198</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18012</v>
+        <v>1.18786</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02492</v>
+        <v>0.962432</v>
       </c>
       <c r="D53" t="n">
-        <v>0.461193</v>
+        <v>0.458301</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22553</v>
+        <v>1.23316</v>
       </c>
       <c r="C54" t="n">
-        <v>0.633192</v>
+        <v>0.574952</v>
       </c>
       <c r="D54" t="n">
-        <v>0.339481</v>
+        <v>0.340332</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26941</v>
+        <v>1.2766</v>
       </c>
       <c r="C55" t="n">
-        <v>0.657376</v>
+        <v>0.597181</v>
       </c>
       <c r="D55" t="n">
-        <v>0.349028</v>
+        <v>0.348367</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.750261</v>
+        <v>0.754946</v>
       </c>
       <c r="C56" t="n">
-        <v>0.68299</v>
+        <v>0.622022</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359133</v>
+        <v>0.358621</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.784255</v>
+        <v>0.788702</v>
       </c>
       <c r="C57" t="n">
-        <v>0.70886</v>
+        <v>0.646306</v>
       </c>
       <c r="D57" t="n">
-        <v>0.366373</v>
+        <v>0.369311</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.818182</v>
+        <v>0.823057</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7401990000000001</v>
+        <v>0.677712</v>
       </c>
       <c r="D58" t="n">
-        <v>0.379628</v>
+        <v>0.378748</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.850685</v>
+        <v>0.856638</v>
       </c>
       <c r="C59" t="n">
-        <v>0.770721</v>
+        <v>0.708197</v>
       </c>
       <c r="D59" t="n">
-        <v>0.39116</v>
+        <v>0.39191</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.892614</v>
+        <v>0.898635</v>
       </c>
       <c r="C60" t="n">
-        <v>0.803523</v>
+        <v>0.738563</v>
       </c>
       <c r="D60" t="n">
-        <v>0.401627</v>
+        <v>0.402497</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.931871</v>
+        <v>0.937582</v>
       </c>
       <c r="C61" t="n">
-        <v>0.83614</v>
+        <v>0.772713</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412506</v>
+        <v>0.412555</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.971857</v>
+        <v>0.979353</v>
       </c>
       <c r="C62" t="n">
-        <v>0.873534</v>
+        <v>0.8078610000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.421456</v>
+        <v>0.424785</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01789</v>
+        <v>1.02397</v>
       </c>
       <c r="C63" t="n">
-        <v>0.908512</v>
+        <v>0.842485</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434957</v>
+        <v>0.433553</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.06524</v>
+        <v>1.07115</v>
       </c>
       <c r="C64" t="n">
-        <v>0.947165</v>
+        <v>0.88102</v>
       </c>
       <c r="D64" t="n">
-        <v>0.446412</v>
+        <v>0.447044</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.10755</v>
+        <v>1.11476</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9821029999999999</v>
+        <v>0.919104</v>
       </c>
       <c r="D65" t="n">
-        <v>0.458994</v>
+        <v>0.459917</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.15237</v>
+        <v>1.16117</v>
       </c>
       <c r="C66" t="n">
-        <v>1.02215</v>
+        <v>0.959216</v>
       </c>
       <c r="D66" t="n">
-        <v>0.469991</v>
+        <v>0.473004</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20055</v>
+        <v>1.21064</v>
       </c>
       <c r="C67" t="n">
-        <v>1.06094</v>
+        <v>1.00024</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486002</v>
+        <v>0.486608</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.24874</v>
+        <v>1.27037</v>
       </c>
       <c r="C68" t="n">
-        <v>0.652374</v>
+        <v>0.591329</v>
       </c>
       <c r="D68" t="n">
-        <v>0.352247</v>
+        <v>0.349331</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.31865</v>
+        <v>1.34157</v>
       </c>
       <c r="C69" t="n">
-        <v>0.690845</v>
+        <v>0.629889</v>
       </c>
       <c r="D69" t="n">
-        <v>0.362773</v>
+        <v>0.363423</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.801821</v>
+        <v>0.807161</v>
       </c>
       <c r="C70" t="n">
-        <v>0.731394</v>
+        <v>0.665558</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379474</v>
+        <v>0.378027</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.858535</v>
+        <v>0.858647</v>
       </c>
       <c r="C71" t="n">
-        <v>0.77668</v>
+        <v>0.708464</v>
       </c>
       <c r="D71" t="n">
-        <v>0.390967</v>
+        <v>0.390252</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.913276</v>
+        <v>0.921683</v>
       </c>
       <c r="C72" t="n">
-        <v>0.82363</v>
+        <v>0.755504</v>
       </c>
       <c r="D72" t="n">
-        <v>0.405808</v>
+        <v>0.404333</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.971317</v>
+        <v>0.97893</v>
       </c>
       <c r="C73" t="n">
-        <v>0.874633</v>
+        <v>0.809635</v>
       </c>
       <c r="D73" t="n">
-        <v>0.420921</v>
+        <v>0.419913</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.04105</v>
+        <v>1.05684</v>
       </c>
       <c r="C74" t="n">
-        <v>0.934274</v>
+        <v>0.875362</v>
       </c>
       <c r="D74" t="n">
-        <v>0.44085</v>
+        <v>0.442149</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.11318</v>
+        <v>1.14329</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9942569999999999</v>
+        <v>0.944987</v>
       </c>
       <c r="D75" t="n">
-        <v>0.459569</v>
+        <v>0.458628</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.19322</v>
+        <v>1.23074</v>
       </c>
       <c r="C76" t="n">
-        <v>1.06054</v>
+        <v>1.01744</v>
       </c>
       <c r="D76" t="n">
-        <v>0.481788</v>
+        <v>0.481109</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.27504</v>
+        <v>1.34092</v>
       </c>
       <c r="C77" t="n">
-        <v>1.13238</v>
+        <v>1.10906</v>
       </c>
       <c r="D77" t="n">
-        <v>0.494552</v>
+        <v>0.499683</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37868</v>
+        <v>1.45309</v>
       </c>
       <c r="C78" t="n">
-        <v>1.21874</v>
+        <v>1.20489</v>
       </c>
       <c r="D78" t="n">
-        <v>0.525858</v>
+        <v>0.533949</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.50148</v>
+        <v>1.5845</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31691</v>
+        <v>1.30816</v>
       </c>
       <c r="D79" t="n">
-        <v>0.549055</v>
+        <v>0.567872</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.64691</v>
+        <v>1.72282</v>
       </c>
       <c r="C80" t="n">
-        <v>1.44438</v>
+        <v>1.44318</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580673</v>
+        <v>0.599793</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.81838</v>
+        <v>1.85945</v>
       </c>
       <c r="C81" t="n">
-        <v>1.59093</v>
+        <v>1.56615</v>
       </c>
       <c r="D81" t="n">
-        <v>0.616781</v>
+        <v>0.635032</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.00688</v>
+        <v>2.04191</v>
       </c>
       <c r="C82" t="n">
-        <v>1.75651</v>
+        <v>1.72419</v>
       </c>
       <c r="D82" t="n">
-        <v>0.647869</v>
+        <v>0.649331</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.2326</v>
+        <v>2.24528</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1614</v>
+        <v>1.07523</v>
       </c>
       <c r="D83" t="n">
-        <v>0.495326</v>
+        <v>0.496692</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.48351</v>
+        <v>2.47028</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28921</v>
+        <v>1.19397</v>
       </c>
       <c r="D84" t="n">
-        <v>0.535883</v>
+        <v>0.538112</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.61103</v>
+        <v>1.60263</v>
       </c>
       <c r="C85" t="n">
-        <v>1.42006</v>
+        <v>1.32879</v>
       </c>
       <c r="D85" t="n">
-        <v>0.572957</v>
+        <v>0.582201</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.78075</v>
+        <v>1.78195</v>
       </c>
       <c r="C86" t="n">
-        <v>1.57337</v>
+        <v>1.48097</v>
       </c>
       <c r="D86" t="n">
-        <v>0.621387</v>
+        <v>0.622663</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.96892</v>
+        <v>1.9806</v>
       </c>
       <c r="C87" t="n">
-        <v>1.72862</v>
+        <v>1.6466</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6852819999999999</v>
+        <v>0.6830889999999999</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.17405</v>
+        <v>2.18875</v>
       </c>
       <c r="C88" t="n">
-        <v>1.91339</v>
+        <v>1.83504</v>
       </c>
       <c r="D88" t="n">
-        <v>0.731223</v>
+        <v>0.7287090000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.39893</v>
+        <v>2.41395</v>
       </c>
       <c r="C89" t="n">
-        <v>2.11638</v>
+        <v>2.03191</v>
       </c>
       <c r="D89" t="n">
-        <v>0.787412</v>
+        <v>0.791888</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.64197</v>
+        <v>2.6626</v>
       </c>
       <c r="C90" t="n">
-        <v>2.31588</v>
+        <v>2.24354</v>
       </c>
       <c r="D90" t="n">
-        <v>0.842791</v>
+        <v>0.857656</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.9086</v>
+        <v>2.92465</v>
       </c>
       <c r="C91" t="n">
-        <v>2.54481</v>
+        <v>2.46625</v>
       </c>
       <c r="D91" t="n">
-        <v>0.930715</v>
+        <v>0.905077</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.19002</v>
+        <v>3.19998</v>
       </c>
       <c r="C92" t="n">
-        <v>2.78622</v>
+        <v>2.70521</v>
       </c>
       <c r="D92" t="n">
-        <v>0.968211</v>
+        <v>0.989463</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.4843</v>
+        <v>3.50432</v>
       </c>
       <c r="C93" t="n">
-        <v>3.03463</v>
+        <v>2.97235</v>
       </c>
       <c r="D93" t="n">
-        <v>1.049</v>
+        <v>1.07354</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.78566</v>
+        <v>3.80342</v>
       </c>
       <c r="C94" t="n">
-        <v>3.30474</v>
+        <v>3.24296</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1443</v>
+        <v>1.15896</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.09736</v>
+        <v>4.10996</v>
       </c>
       <c r="C95" t="n">
-        <v>3.58085</v>
+        <v>3.52037</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22497</v>
+        <v>1.23128</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.4205</v>
+        <v>4.43976</v>
       </c>
       <c r="C96" t="n">
-        <v>3.86605</v>
+        <v>3.82247</v>
       </c>
       <c r="D96" t="n">
-        <v>1.30273</v>
+        <v>1.30387</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.72183</v>
+        <v>4.75359</v>
       </c>
       <c r="C97" t="n">
-        <v>2.2557</v>
+        <v>2.15554</v>
       </c>
       <c r="D97" t="n">
-        <v>0.943775</v>
+        <v>0.942624</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.00594</v>
+        <v>5.04926</v>
       </c>
       <c r="C98" t="n">
-        <v>2.38349</v>
+        <v>2.28929</v>
       </c>
       <c r="D98" t="n">
-        <v>0.991327</v>
+        <v>1.00183</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.85616</v>
+        <v>2.87816</v>
       </c>
       <c r="C99" t="n">
-        <v>2.52952</v>
+        <v>2.42513</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05943</v>
+        <v>1.05889</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.03913</v>
+        <v>3.07228</v>
       </c>
       <c r="C100" t="n">
-        <v>2.69251</v>
+        <v>2.57688</v>
       </c>
       <c r="D100" t="n">
-        <v>1.11198</v>
+        <v>1.10867</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.24305</v>
+        <v>3.26947</v>
       </c>
       <c r="C101" t="n">
-        <v>2.87047</v>
+        <v>2.75251</v>
       </c>
       <c r="D101" t="n">
-        <v>1.16925</v>
+        <v>1.18119</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46902</v>
+        <v>3.49988</v>
       </c>
       <c r="C102" t="n">
-        <v>3.06339</v>
+        <v>2.94348</v>
       </c>
       <c r="D102" t="n">
-        <v>1.23027</v>
+        <v>1.2297</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.70057</v>
+        <v>3.74196</v>
       </c>
       <c r="C103" t="n">
-        <v>3.26463</v>
+        <v>3.14255</v>
       </c>
       <c r="D103" t="n">
-        <v>1.28053</v>
+        <v>1.30086</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.94745</v>
+        <v>3.97615</v>
       </c>
       <c r="C104" t="n">
-        <v>3.48038</v>
+        <v>3.36352</v>
       </c>
       <c r="D104" t="n">
-        <v>1.34814</v>
+        <v>1.3597</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.22022</v>
+        <v>4.26219</v>
       </c>
       <c r="C105" t="n">
-        <v>3.71776</v>
+        <v>3.59729</v>
       </c>
       <c r="D105" t="n">
-        <v>1.44281</v>
+        <v>1.4556</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.50843</v>
+        <v>4.54889</v>
       </c>
       <c r="C106" t="n">
-        <v>3.95812</v>
+        <v>3.85189</v>
       </c>
       <c r="D106" t="n">
-        <v>1.49921</v>
+        <v>1.50367</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.80591</v>
+        <v>4.84917</v>
       </c>
       <c r="C107" t="n">
-        <v>4.2088</v>
+        <v>4.11594</v>
       </c>
       <c r="D107" t="n">
-        <v>1.57445</v>
+        <v>1.58725</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.11502</v>
+        <v>5.16228</v>
       </c>
       <c r="C108" t="n">
-        <v>4.48117</v>
+        <v>4.40366</v>
       </c>
       <c r="D108" t="n">
-        <v>1.66125</v>
+        <v>1.6712</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.44393</v>
+        <v>5.49864</v>
       </c>
       <c r="C109" t="n">
-        <v>4.75281</v>
+        <v>4.71106</v>
       </c>
       <c r="D109" t="n">
-        <v>1.73894</v>
+        <v>1.74627</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.77401</v>
+        <v>5.84362</v>
       </c>
       <c r="C110" t="n">
-        <v>5.06411</v>
+        <v>5.02257</v>
       </c>
       <c r="D110" t="n">
-        <v>1.81526</v>
+        <v>1.83762</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.12693</v>
+        <v>6.18537</v>
       </c>
       <c r="C111" t="n">
-        <v>2.83715</v>
+        <v>2.67373</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3264</v>
+        <v>1.33959</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.48217</v>
+        <v>6.54566</v>
       </c>
       <c r="C112" t="n">
-        <v>3.00123</v>
+        <v>2.83146</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37189</v>
+        <v>1.40275</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.84233</v>
+        <v>6.90236</v>
       </c>
       <c r="C113" t="n">
-        <v>3.17165</v>
+        <v>3.00098</v>
       </c>
       <c r="D113" t="n">
-        <v>1.44203</v>
+        <v>1.43623</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.72695</v>
+        <v>3.77376</v>
       </c>
       <c r="C114" t="n">
-        <v>3.35764</v>
+        <v>3.18311</v>
       </c>
       <c r="D114" t="n">
-        <v>1.48728</v>
+        <v>1.50132</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.95633</v>
+        <v>3.99572</v>
       </c>
       <c r="C115" t="n">
-        <v>3.53631</v>
+        <v>3.36207</v>
       </c>
       <c r="D115" t="n">
-        <v>1.57616</v>
+        <v>1.59025</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.18403</v>
+        <v>4.2399</v>
       </c>
       <c r="C116" t="n">
-        <v>3.74686</v>
+        <v>3.57394</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63045</v>
+        <v>1.62599</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.42808</v>
+        <v>4.47121</v>
       </c>
       <c r="C117" t="n">
-        <v>3.94899</v>
+        <v>3.80878</v>
       </c>
       <c r="D117" t="n">
-        <v>1.67978</v>
+        <v>1.71139</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.68764</v>
+        <v>4.73515</v>
       </c>
       <c r="C118" t="n">
-        <v>4.18512</v>
+        <v>4.03702</v>
       </c>
       <c r="D118" t="n">
-        <v>1.76928</v>
+        <v>1.76519</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.96543</v>
+        <v>5.02147</v>
       </c>
       <c r="C119" t="n">
-        <v>4.43253</v>
+        <v>4.28626</v>
       </c>
       <c r="D119" t="n">
-        <v>1.82751</v>
+        <v>1.84121</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.342215</v>
+        <v>0.338955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.227876</v>
+        <v>0.22703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252307</v>
+        <v>0.251462</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256464</v>
+        <v>0.255307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.228138</v>
+        <v>0.228511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25395</v>
+        <v>0.253973</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26382</v>
+        <v>0.261619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232574</v>
+        <v>0.232249</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25927</v>
+        <v>0.258755</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.272232</v>
+        <v>0.270479</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237068</v>
+        <v>0.237126</v>
       </c>
       <c r="D5" t="n">
-        <v>0.264348</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.28078</v>
+        <v>0.278856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240974</v>
+        <v>0.241178</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268365</v>
+        <v>0.267799</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291333</v>
+        <v>0.288658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206853</v>
+        <v>0.204083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.226507</v>
+        <v>0.222582</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.297765</v>
+        <v>0.294771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.209058</v>
+        <v>0.208778</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233128</v>
+        <v>0.229821</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306702</v>
+        <v>0.303534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.213567</v>
+        <v>0.211881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.238776</v>
+        <v>0.235083</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315417</v>
+        <v>0.311873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.218316</v>
+        <v>0.219311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246224</v>
+        <v>0.243162</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.322671</v>
+        <v>0.319594</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224091</v>
+        <v>0.224768</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25318</v>
+        <v>0.249811</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332217</v>
+        <v>0.330243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.231087</v>
+        <v>0.232343</v>
       </c>
       <c r="D12" t="n">
-        <v>0.261387</v>
+        <v>0.258788</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.339521</v>
+        <v>0.338946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237748</v>
+        <v>0.234979</v>
       </c>
       <c r="D13" t="n">
-        <v>0.267482</v>
+        <v>0.265141</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.349055</v>
+        <v>0.348441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242088</v>
+        <v>0.23988</v>
       </c>
       <c r="D14" t="n">
-        <v>0.273263</v>
+        <v>0.270525</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.359487</v>
+        <v>0.360007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247372</v>
+        <v>0.246016</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278696</v>
+        <v>0.276843</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.367631</v>
+        <v>0.367672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251545</v>
+        <v>0.250837</v>
       </c>
       <c r="D16" t="n">
-        <v>0.285073</v>
+        <v>0.282948</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.380129</v>
+        <v>0.378479</v>
       </c>
       <c r="C17" t="n">
-        <v>0.257719</v>
+        <v>0.256754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.293404</v>
+        <v>0.290702</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.289151</v>
+        <v>0.287916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.26051</v>
+        <v>0.259218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297103</v>
+        <v>0.295036</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.295881</v>
+        <v>0.295754</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265617</v>
+        <v>0.2647</v>
       </c>
       <c r="D19" t="n">
-        <v>0.303491</v>
+        <v>0.301813</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.305741</v>
+        <v>0.305357</v>
       </c>
       <c r="C20" t="n">
-        <v>0.273387</v>
+        <v>0.272247</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310893</v>
+        <v>0.30952</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.315092</v>
+        <v>0.314942</v>
       </c>
       <c r="C21" t="n">
-        <v>0.22264</v>
+        <v>0.221757</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247799</v>
+        <v>0.247607</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.32501</v>
+        <v>0.324166</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228578</v>
+        <v>0.228318</v>
       </c>
       <c r="D22" t="n">
-        <v>0.255549</v>
+        <v>0.254237</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.332301</v>
+        <v>0.332586</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233486</v>
+        <v>0.233525</v>
       </c>
       <c r="D23" t="n">
-        <v>0.262498</v>
+        <v>0.261651</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.341034</v>
+        <v>0.339729</v>
       </c>
       <c r="C24" t="n">
-        <v>0.238133</v>
+        <v>0.238314</v>
       </c>
       <c r="D24" t="n">
-        <v>0.268739</v>
+        <v>0.267645</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347676</v>
+        <v>0.347938</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24345</v>
+        <v>0.24362</v>
       </c>
       <c r="D25" t="n">
-        <v>0.275615</v>
+        <v>0.274729</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357028</v>
+        <v>0.357272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248881</v>
+        <v>0.249439</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282354</v>
+        <v>0.281802</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365082</v>
+        <v>0.365452</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253988</v>
+        <v>0.253773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288155</v>
+        <v>0.287811</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.374671</v>
+        <v>0.374697</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259574</v>
+        <v>0.259336</v>
       </c>
       <c r="D28" t="n">
-        <v>0.295016</v>
+        <v>0.294516</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383683</v>
+        <v>0.383839</v>
       </c>
       <c r="C29" t="n">
-        <v>0.264679</v>
+        <v>0.264501</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302204</v>
+        <v>0.301756</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391363</v>
+        <v>0.391504</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269602</v>
+        <v>0.269432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.308043</v>
+        <v>0.307587</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400693</v>
+        <v>0.400525</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274669</v>
+        <v>0.274174</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313795</v>
+        <v>0.313114</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297155</v>
+        <v>0.297523</v>
       </c>
       <c r="C32" t="n">
-        <v>0.279767</v>
+        <v>0.27957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32068</v>
+        <v>0.319921</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305208</v>
+        <v>0.305312</v>
       </c>
       <c r="C33" t="n">
-        <v>0.285331</v>
+        <v>0.284913</v>
       </c>
       <c r="D33" t="n">
-        <v>0.326914</v>
+        <v>0.3262</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.31346</v>
+        <v>0.313966</v>
       </c>
       <c r="C34" t="n">
-        <v>0.290158</v>
+        <v>0.289792</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333131</v>
+        <v>0.332448</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322456</v>
+        <v>0.322834</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231097</v>
+        <v>0.231146</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258419</v>
+        <v>0.258613</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.331059</v>
+        <v>0.331548</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237127</v>
+        <v>0.237046</v>
       </c>
       <c r="D36" t="n">
-        <v>0.264627</v>
+        <v>0.264587</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339391</v>
+        <v>0.339324</v>
       </c>
       <c r="C37" t="n">
-        <v>0.242138</v>
+        <v>0.242154</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270794</v>
+        <v>0.270927</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347534</v>
+        <v>0.347216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247512</v>
+        <v>0.247657</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277271</v>
+        <v>0.277185</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.355816</v>
+        <v>0.355675</v>
       </c>
       <c r="C39" t="n">
-        <v>0.253247</v>
+        <v>0.253427</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284341</v>
+        <v>0.28436</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.364946</v>
+        <v>0.364717</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258544</v>
+        <v>0.258408</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291051</v>
+        <v>0.29085</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3725</v>
+        <v>0.37248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.263474</v>
+        <v>0.263531</v>
       </c>
       <c r="D41" t="n">
-        <v>0.298068</v>
+        <v>0.29803</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.380935</v>
+        <v>0.380912</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2685</v>
+        <v>0.268496</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303848</v>
+        <v>0.303857</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.391068</v>
+        <v>0.390964</v>
       </c>
       <c r="C43" t="n">
-        <v>0.27351</v>
+        <v>0.273525</v>
       </c>
       <c r="D43" t="n">
-        <v>0.310933</v>
+        <v>0.310884</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.399767</v>
+        <v>0.399609</v>
       </c>
       <c r="C44" t="n">
-        <v>0.279025</v>
+        <v>0.279157</v>
       </c>
       <c r="D44" t="n">
-        <v>0.317629</v>
+        <v>0.317819</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.407781</v>
+        <v>0.407903</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283673</v>
+        <v>0.283678</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323614</v>
+        <v>0.323639</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418254</v>
+        <v>0.418472</v>
       </c>
       <c r="C46" t="n">
-        <v>0.288093</v>
+        <v>0.28806</v>
       </c>
       <c r="D46" t="n">
-        <v>0.328909</v>
+        <v>0.328966</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.305519</v>
+        <v>0.306012</v>
       </c>
       <c r="C47" t="n">
-        <v>0.293142</v>
+        <v>0.293263</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335218</v>
+        <v>0.335383</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.312981</v>
+        <v>0.312707</v>
       </c>
       <c r="C48" t="n">
-        <v>0.298353</v>
+        <v>0.298431</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342615</v>
+        <v>0.342933</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321922</v>
+        <v>0.321981</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303355</v>
+        <v>0.303568</v>
       </c>
       <c r="D49" t="n">
-        <v>0.352266</v>
+        <v>0.352246</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330122</v>
+        <v>0.330427</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239884</v>
+        <v>0.239809</v>
       </c>
       <c r="D50" t="n">
-        <v>0.262326</v>
+        <v>0.263938</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338443</v>
+        <v>0.338155</v>
       </c>
       <c r="C51" t="n">
-        <v>0.245406</v>
+        <v>0.245232</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269847</v>
+        <v>0.269874</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347449</v>
+        <v>0.347253</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251287</v>
+        <v>0.251401</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277242</v>
+        <v>0.277385</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355417</v>
+        <v>0.355304</v>
       </c>
       <c r="C53" t="n">
-        <v>0.256999</v>
+        <v>0.257023</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284573</v>
+        <v>0.284489</v>
       </c>
     </row>
     <row r="54">
@@ -8411,10 +8411,10 @@
         <v>0.364218</v>
       </c>
       <c r="C54" t="n">
-        <v>0.262217</v>
+        <v>0.262222</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291339</v>
+        <v>0.291466</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372563</v>
+        <v>0.372772</v>
       </c>
       <c r="C55" t="n">
-        <v>0.267798</v>
+        <v>0.26778</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298673</v>
+        <v>0.298786</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381305</v>
+        <v>0.381381</v>
       </c>
       <c r="C56" t="n">
-        <v>0.273411</v>
+        <v>0.27338</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305361</v>
+        <v>0.305455</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390294</v>
+        <v>0.390478</v>
       </c>
       <c r="C57" t="n">
-        <v>0.277295</v>
+        <v>0.2773</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312321</v>
+        <v>0.312424</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399344</v>
+        <v>0.399419</v>
       </c>
       <c r="C58" t="n">
-        <v>0.282897</v>
+        <v>0.282905</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318833</v>
+        <v>0.318709</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407855</v>
+        <v>0.407916</v>
       </c>
       <c r="C59" t="n">
-        <v>0.287584</v>
+        <v>0.287638</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325411</v>
+        <v>0.325593</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.417996</v>
+        <v>0.418128</v>
       </c>
       <c r="C60" t="n">
-        <v>0.292503</v>
+        <v>0.292474</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33209</v>
+        <v>0.332252</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.310365</v>
+        <v>0.309089</v>
       </c>
       <c r="C61" t="n">
-        <v>0.297543</v>
+        <v>0.297528</v>
       </c>
       <c r="D61" t="n">
-        <v>0.339078</v>
+        <v>0.3391</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.320576</v>
+        <v>0.321391</v>
       </c>
       <c r="C62" t="n">
-        <v>0.302285</v>
+        <v>0.3023</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345655</v>
+        <v>0.345588</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.331808</v>
+        <v>0.332065</v>
       </c>
       <c r="C63" t="n">
-        <v>0.308136</v>
+        <v>0.308158</v>
       </c>
       <c r="D63" t="n">
-        <v>0.353847</v>
+        <v>0.354328</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.342184</v>
+        <v>0.343539</v>
       </c>
       <c r="C64" t="n">
-        <v>0.249175</v>
+        <v>0.249955</v>
       </c>
       <c r="D64" t="n">
-        <v>0.277225</v>
+        <v>0.277914</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.350063</v>
+        <v>0.351728</v>
       </c>
       <c r="C65" t="n">
-        <v>0.25607</v>
+        <v>0.257276</v>
       </c>
       <c r="D65" t="n">
-        <v>0.285557</v>
+        <v>0.286906</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.362708</v>
+        <v>0.366545</v>
       </c>
       <c r="C66" t="n">
-        <v>0.263664</v>
+        <v>0.262931</v>
       </c>
       <c r="D66" t="n">
-        <v>0.291969</v>
+        <v>0.296969</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.374362</v>
+        <v>0.381035</v>
       </c>
       <c r="C67" t="n">
-        <v>0.271654</v>
+        <v>0.269308</v>
       </c>
       <c r="D67" t="n">
-        <v>0.302399</v>
+        <v>0.306085</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.385338</v>
+        <v>0.392803</v>
       </c>
       <c r="C68" t="n">
-        <v>0.279574</v>
+        <v>0.278245</v>
       </c>
       <c r="D68" t="n">
-        <v>0.312728</v>
+        <v>0.317032</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.397654</v>
+        <v>0.408674</v>
       </c>
       <c r="C69" t="n">
-        <v>0.288974</v>
+        <v>0.285761</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322525</v>
+        <v>0.327415</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.412766</v>
+        <v>0.422784</v>
       </c>
       <c r="C70" t="n">
-        <v>0.29509</v>
+        <v>0.299776</v>
       </c>
       <c r="D70" t="n">
-        <v>0.335061</v>
+        <v>0.339093</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.430256</v>
+        <v>0.438171</v>
       </c>
       <c r="C71" t="n">
-        <v>0.306308</v>
+        <v>0.309366</v>
       </c>
       <c r="D71" t="n">
-        <v>0.347212</v>
+        <v>0.350702</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.44975</v>
+        <v>0.455754</v>
       </c>
       <c r="C72" t="n">
-        <v>0.31564</v>
+        <v>0.320398</v>
       </c>
       <c r="D72" t="n">
-        <v>0.360719</v>
+        <v>0.362551</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.468897</v>
+        <v>0.473563</v>
       </c>
       <c r="C73" t="n">
-        <v>0.325741</v>
+        <v>0.331736</v>
       </c>
       <c r="D73" t="n">
-        <v>0.373033</v>
+        <v>0.377807</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.488463</v>
+        <v>0.495798</v>
       </c>
       <c r="C74" t="n">
-        <v>0.338473</v>
+        <v>0.34431</v>
       </c>
       <c r="D74" t="n">
-        <v>0.388518</v>
+        <v>0.392898</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.509703</v>
+        <v>0.519357</v>
       </c>
       <c r="C75" t="n">
-        <v>0.353018</v>
+        <v>0.361986</v>
       </c>
       <c r="D75" t="n">
-        <v>0.406383</v>
+        <v>0.411518</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.480041</v>
+        <v>0.483554</v>
       </c>
       <c r="C76" t="n">
-        <v>0.369952</v>
+        <v>0.381065</v>
       </c>
       <c r="D76" t="n">
-        <v>0.42851</v>
+        <v>0.435353</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.506905</v>
+        <v>0.511833</v>
       </c>
       <c r="C77" t="n">
-        <v>0.391409</v>
+        <v>0.400865</v>
       </c>
       <c r="D77" t="n">
-        <v>0.45405</v>
+        <v>0.460039</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.537866</v>
+        <v>0.5395799999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.355757</v>
+        <v>0.355075</v>
       </c>
       <c r="D78" t="n">
-        <v>0.413971</v>
+        <v>0.413452</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571749</v>
+        <v>0.5705710000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.376422</v>
+        <v>0.375075</v>
       </c>
       <c r="D79" t="n">
-        <v>0.441436</v>
+        <v>0.441391</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.603843</v>
+        <v>0.601201</v>
       </c>
       <c r="C80" t="n">
-        <v>0.402224</v>
+        <v>0.397625</v>
       </c>
       <c r="D80" t="n">
-        <v>0.468402</v>
+        <v>0.463287</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.637764</v>
+        <v>0.634085</v>
       </c>
       <c r="C81" t="n">
-        <v>0.421099</v>
+        <v>0.418801</v>
       </c>
       <c r="D81" t="n">
-        <v>0.491579</v>
+        <v>0.487824</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.675176</v>
+        <v>0.66928</v>
       </c>
       <c r="C82" t="n">
-        <v>0.442042</v>
+        <v>0.441108</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5185070000000001</v>
+        <v>0.515923</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.714099</v>
+        <v>0.7079839999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.464963</v>
+        <v>0.463603</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5444560000000001</v>
+        <v>0.5431240000000001</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.746007</v>
+        <v>0.739022</v>
       </c>
       <c r="C84" t="n">
-        <v>0.491576</v>
+        <v>0.489533</v>
       </c>
       <c r="D84" t="n">
-        <v>0.572037</v>
+        <v>0.569838</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.783679</v>
+        <v>0.77674</v>
       </c>
       <c r="C85" t="n">
-        <v>0.518449</v>
+        <v>0.514744</v>
       </c>
       <c r="D85" t="n">
-        <v>0.600523</v>
+        <v>0.5975279999999999</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.825147</v>
+        <v>0.817151</v>
       </c>
       <c r="C86" t="n">
-        <v>0.545052</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.631084</v>
+        <v>0.625885</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.867823</v>
+        <v>0.856692</v>
       </c>
       <c r="C87" t="n">
-        <v>0.57245</v>
+        <v>0.568132</v>
       </c>
       <c r="D87" t="n">
-        <v>0.659631</v>
+        <v>0.654558</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9106109999999999</v>
+        <v>0.899804</v>
       </c>
       <c r="C88" t="n">
-        <v>0.600338</v>
+        <v>0.595463</v>
       </c>
       <c r="D88" t="n">
-        <v>0.697242</v>
+        <v>0.691918</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9577870000000001</v>
+        <v>0.945112</v>
       </c>
       <c r="C89" t="n">
-        <v>0.629458</v>
+        <v>0.624241</v>
       </c>
       <c r="D89" t="n">
-        <v>0.731172</v>
+        <v>0.723247</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.840262</v>
+        <v>0.829213</v>
       </c>
       <c r="C90" t="n">
-        <v>0.65925</v>
+        <v>0.653277</v>
       </c>
       <c r="D90" t="n">
-        <v>0.753714</v>
+        <v>0.746929</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.869301</v>
+        <v>0.85517</v>
       </c>
       <c r="C91" t="n">
-        <v>0.690766</v>
+        <v>0.684715</v>
       </c>
       <c r="D91" t="n">
-        <v>0.786866</v>
+        <v>0.779255</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.898303</v>
+        <v>0.8852179999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.58335</v>
+        <v>0.575425</v>
       </c>
       <c r="D92" t="n">
-        <v>0.683247</v>
+        <v>0.674388</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.929354</v>
+        <v>0.913498</v>
       </c>
       <c r="C93" t="n">
-        <v>0.602979</v>
+        <v>0.5950530000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7108100000000001</v>
+        <v>0.700231</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.959927</v>
+        <v>0.9432160000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.624309</v>
+        <v>0.616088</v>
       </c>
       <c r="D94" t="n">
-        <v>0.72716</v>
+        <v>0.717152</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.991828</v>
+        <v>0.9738520000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.646129</v>
+        <v>0.6373</v>
       </c>
       <c r="D95" t="n">
-        <v>0.764315</v>
+        <v>0.753323</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.02021</v>
+        <v>1.00226</v>
       </c>
       <c r="C96" t="n">
-        <v>0.670281</v>
+        <v>0.661917</v>
       </c>
       <c r="D96" t="n">
-        <v>0.790672</v>
+        <v>0.779084</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.05008</v>
+        <v>1.03189</v>
       </c>
       <c r="C97" t="n">
-        <v>0.69414</v>
+        <v>0.685343</v>
       </c>
       <c r="D97" t="n">
-        <v>0.81871</v>
+        <v>0.806519</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.08898</v>
+        <v>1.06964</v>
       </c>
       <c r="C98" t="n">
-        <v>0.717727</v>
+        <v>0.708277</v>
       </c>
       <c r="D98" t="n">
-        <v>0.848526</v>
+        <v>0.835345</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.12643</v>
+        <v>1.10695</v>
       </c>
       <c r="C99" t="n">
-        <v>0.743626</v>
+        <v>0.7332419999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.876376</v>
+        <v>0.863441</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.16239</v>
+        <v>1.14202</v>
       </c>
       <c r="C100" t="n">
-        <v>0.768744</v>
+        <v>0.757991</v>
       </c>
       <c r="D100" t="n">
-        <v>0.906672</v>
+        <v>0.890837</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.18829</v>
+        <v>1.16781</v>
       </c>
       <c r="C101" t="n">
-        <v>0.796174</v>
+        <v>0.784728</v>
       </c>
       <c r="D101" t="n">
-        <v>0.937029</v>
+        <v>0.92078</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.22614</v>
+        <v>1.20472</v>
       </c>
       <c r="C102" t="n">
-        <v>0.823646</v>
+        <v>0.812548</v>
       </c>
       <c r="D102" t="n">
-        <v>0.969039</v>
+        <v>0.951727</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.26506</v>
+        <v>1.24259</v>
       </c>
       <c r="C103" t="n">
-        <v>0.853913</v>
+        <v>0.841247</v>
       </c>
       <c r="D103" t="n">
-        <v>1.00185</v>
+        <v>0.984442</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.30724</v>
+        <v>1.28303</v>
       </c>
       <c r="C104" t="n">
-        <v>0.883006</v>
+        <v>0.8710639999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.03578</v>
+        <v>1.01676</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.04573</v>
+        <v>1.02643</v>
       </c>
       <c r="C105" t="n">
-        <v>0.91245</v>
+        <v>0.898856</v>
       </c>
       <c r="D105" t="n">
-        <v>1.06858</v>
+        <v>1.04985</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.07202</v>
+        <v>1.05077</v>
       </c>
       <c r="C106" t="n">
-        <v>0.946576</v>
+        <v>0.930007</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10727</v>
+        <v>1.08442</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09898</v>
+        <v>1.0762</v>
       </c>
       <c r="C107" t="n">
-        <v>0.727338</v>
+        <v>0.713091</v>
       </c>
       <c r="D107" t="n">
-        <v>0.911899</v>
+        <v>0.894278</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.11886</v>
+        <v>1.09805</v>
       </c>
       <c r="C108" t="n">
-        <v>0.745661</v>
+        <v>0.733935</v>
       </c>
       <c r="D108" t="n">
-        <v>0.933327</v>
+        <v>0.918583</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.14837</v>
+        <v>1.12716</v>
       </c>
       <c r="C109" t="n">
-        <v>0.768976</v>
+        <v>0.7556890000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.962099</v>
+        <v>0.946052</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.1772</v>
+        <v>1.15351</v>
       </c>
       <c r="C110" t="n">
-        <v>0.792129</v>
+        <v>0.778367</v>
       </c>
       <c r="D110" t="n">
-        <v>0.988572</v>
+        <v>0.971672</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.20573</v>
+        <v>1.1817</v>
       </c>
       <c r="C111" t="n">
-        <v>0.816335</v>
+        <v>0.802268</v>
       </c>
       <c r="D111" t="n">
-        <v>1.01549</v>
+        <v>0.998455</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.24405</v>
+        <v>1.21971</v>
       </c>
       <c r="C112" t="n">
-        <v>0.840595</v>
+        <v>0.827427</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04552</v>
+        <v>1.02916</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.27605</v>
+        <v>1.25239</v>
       </c>
       <c r="C113" t="n">
-        <v>0.866287</v>
+        <v>0.852619</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07392</v>
+        <v>1.05713</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.308</v>
+        <v>1.28366</v>
       </c>
       <c r="C114" t="n">
-        <v>0.892994</v>
+        <v>0.879296</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11159</v>
+        <v>1.09311</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.34414</v>
+        <v>1.31941</v>
       </c>
       <c r="C115" t="n">
-        <v>0.920053</v>
+        <v>0.90606</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14552</v>
+        <v>1.12522</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.38275</v>
+        <v>1.35543</v>
       </c>
       <c r="C116" t="n">
-        <v>0.948558</v>
+        <v>0.933433</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16657</v>
+        <v>1.1466</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.42063</v>
+        <v>1.39223</v>
       </c>
       <c r="C117" t="n">
-        <v>0.977405</v>
+        <v>0.961982</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19859</v>
+        <v>1.17814</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.46334</v>
+        <v>1.4336</v>
       </c>
       <c r="C118" t="n">
-        <v>1.00812</v>
+        <v>0.990865</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23728</v>
+        <v>1.21478</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.14253</v>
+        <v>1.11679</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03848</v>
+        <v>1.02137</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27007</v>
+        <v>1.24609</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267944</v>
+        <v>0.276458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177919</v>
+        <v>0.185027</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139669</v>
+        <v>0.1431</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199122</v>
+        <v>0.199442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.181636</v>
+        <v>0.189819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140475</v>
+        <v>0.14361</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.205147</v>
+        <v>0.20751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190953</v>
+        <v>0.195695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145364</v>
+        <v>0.148028</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.21453</v>
+        <v>0.214527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.199432</v>
+        <v>0.206943</v>
       </c>
       <c r="D5" t="n">
-        <v>0.150411</v>
+        <v>0.153377</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.218737</v>
+        <v>0.22158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.203896</v>
+        <v>0.211971</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153337</v>
+        <v>0.157015</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226928</v>
+        <v>0.228413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167777</v>
+        <v>0.169382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.140833</v>
+        <v>0.141194</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233579</v>
+        <v>0.235627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.169967</v>
+        <v>0.173687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142627</v>
+        <v>0.143958</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.240483</v>
+        <v>0.244656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.172017</v>
+        <v>0.178543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141485</v>
+        <v>0.144193</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.247384</v>
+        <v>0.251142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.180453</v>
+        <v>0.18542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.14879</v>
+        <v>0.150254</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255252</v>
+        <v>0.259207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.184679</v>
+        <v>0.18724</v>
       </c>
       <c r="D11" t="n">
-        <v>0.146405</v>
+        <v>0.15078</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2633</v>
+        <v>0.269363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.192695</v>
+        <v>0.196744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.152806</v>
+        <v>0.156368</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.26981</v>
+        <v>0.275322</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197323</v>
+        <v>0.201026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15568</v>
+        <v>0.158043</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28009</v>
+        <v>0.284918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.204208</v>
+        <v>0.207598</v>
       </c>
       <c r="D14" t="n">
-        <v>0.157651</v>
+        <v>0.162941</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.293909</v>
+        <v>0.298844</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209846</v>
+        <v>0.213399</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163222</v>
+        <v>0.165258</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302623</v>
+        <v>0.305958</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218959</v>
+        <v>0.2223</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167359</v>
+        <v>0.169878</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.314393</v>
+        <v>0.319669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226048</v>
+        <v>0.228318</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170077</v>
+        <v>0.172524</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23229</v>
+        <v>0.235683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.231319</v>
+        <v>0.233678</v>
       </c>
       <c r="D18" t="n">
-        <v>0.172192</v>
+        <v>0.174595</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.240252</v>
+        <v>0.243917</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240609</v>
+        <v>0.242757</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178869</v>
+        <v>0.180962</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244812</v>
+        <v>0.249052</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2511</v>
+        <v>0.253467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182697</v>
+        <v>0.184408</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252541</v>
+        <v>0.255862</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199884</v>
+        <v>0.2032</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168846</v>
+        <v>0.169997</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257142</v>
+        <v>0.260945</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206962</v>
+        <v>0.209827</v>
       </c>
       <c r="D22" t="n">
-        <v>0.171442</v>
+        <v>0.172444</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267344</v>
+        <v>0.270772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212991</v>
+        <v>0.214604</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173216</v>
+        <v>0.173779</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275799</v>
+        <v>0.279261</v>
       </c>
       <c r="C24" t="n">
-        <v>0.218359</v>
+        <v>0.218882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.176356</v>
+        <v>0.177897</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.282955</v>
+        <v>0.286514</v>
       </c>
       <c r="C25" t="n">
-        <v>0.223779</v>
+        <v>0.224562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178384</v>
+        <v>0.17974</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292715</v>
+        <v>0.296264</v>
       </c>
       <c r="C26" t="n">
-        <v>0.231044</v>
+        <v>0.231793</v>
       </c>
       <c r="D26" t="n">
-        <v>0.182173</v>
+        <v>0.183612</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.301952</v>
+        <v>0.304893</v>
       </c>
       <c r="C27" t="n">
-        <v>0.233404</v>
+        <v>0.235752</v>
       </c>
       <c r="D27" t="n">
-        <v>0.184802</v>
+        <v>0.186196</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314208</v>
+        <v>0.316842</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238272</v>
+        <v>0.24079</v>
       </c>
       <c r="D28" t="n">
-        <v>0.188045</v>
+        <v>0.189255</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.324374</v>
+        <v>0.327013</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244396</v>
+        <v>0.246483</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190527</v>
+        <v>0.192483</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.333633</v>
+        <v>0.336337</v>
       </c>
       <c r="C30" t="n">
-        <v>0.253269</v>
+        <v>0.255546</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195117</v>
+        <v>0.196358</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.345215</v>
+        <v>0.348636</v>
       </c>
       <c r="C31" t="n">
-        <v>0.25699</v>
+        <v>0.258872</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197336</v>
+        <v>0.199242</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250128</v>
+        <v>0.250798</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267354</v>
+        <v>0.269331</v>
       </c>
       <c r="D32" t="n">
-        <v>0.201993</v>
+        <v>0.203483</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256765</v>
+        <v>0.257349</v>
       </c>
       <c r="C33" t="n">
-        <v>0.274492</v>
+        <v>0.276721</v>
       </c>
       <c r="D33" t="n">
-        <v>0.204727</v>
+        <v>0.207512</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262784</v>
+        <v>0.263611</v>
       </c>
       <c r="C34" t="n">
-        <v>0.282248</v>
+        <v>0.284543</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209598</v>
+        <v>0.211406</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.26996</v>
+        <v>0.270438</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214834</v>
+        <v>0.214912</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181798</v>
+        <v>0.181576</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.276065</v>
+        <v>0.277106</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221019</v>
+        <v>0.22154</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184265</v>
+        <v>0.184102</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282828</v>
+        <v>0.283872</v>
       </c>
       <c r="C37" t="n">
-        <v>0.225624</v>
+        <v>0.225266</v>
       </c>
       <c r="D37" t="n">
-        <v>0.18646</v>
+        <v>0.18655</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.290946</v>
+        <v>0.29165</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230481</v>
+        <v>0.230796</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189185</v>
+        <v>0.189344</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.29748</v>
+        <v>0.29836</v>
       </c>
       <c r="C39" t="n">
-        <v>0.236489</v>
+        <v>0.236389</v>
       </c>
       <c r="D39" t="n">
-        <v>0.192306</v>
+        <v>0.19223</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.306909</v>
+        <v>0.307689</v>
       </c>
       <c r="C40" t="n">
-        <v>0.242443</v>
+        <v>0.242238</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195541</v>
+        <v>0.195006</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.317248</v>
+        <v>0.317806</v>
       </c>
       <c r="C41" t="n">
-        <v>0.247235</v>
+        <v>0.247515</v>
       </c>
       <c r="D41" t="n">
-        <v>0.198058</v>
+        <v>0.198019</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327369</v>
+        <v>0.327864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.251506</v>
+        <v>0.251616</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201246</v>
+        <v>0.201023</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.338079</v>
+        <v>0.338619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.257931</v>
+        <v>0.258023</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204609</v>
+        <v>0.204748</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.34652</v>
+        <v>0.346957</v>
       </c>
       <c r="C44" t="n">
-        <v>0.265619</v>
+        <v>0.265482</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207645</v>
+        <v>0.207552</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.358726</v>
+        <v>0.358831</v>
       </c>
       <c r="C45" t="n">
-        <v>0.271957</v>
+        <v>0.272069</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210693</v>
+        <v>0.210711</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.37063</v>
+        <v>0.371034</v>
       </c>
       <c r="C46" t="n">
-        <v>0.279579</v>
+        <v>0.279752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214764</v>
+        <v>0.214754</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261066</v>
+        <v>0.261173</v>
       </c>
       <c r="C47" t="n">
-        <v>0.286488</v>
+        <v>0.28667</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218258</v>
+        <v>0.217983</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267337</v>
+        <v>0.267271</v>
       </c>
       <c r="C48" t="n">
-        <v>0.29452</v>
+        <v>0.294751</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222405</v>
+        <v>0.22217</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2739</v>
+        <v>0.273663</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303421</v>
+        <v>0.30347</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225967</v>
+        <v>0.225892</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.280594</v>
+        <v>0.280359</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225919</v>
+        <v>0.225459</v>
       </c>
       <c r="D50" t="n">
-        <v>0.186026</v>
+        <v>0.185563</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.287217</v>
+        <v>0.287128</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230557</v>
+        <v>0.230502</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187841</v>
+        <v>0.187415</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294087</v>
+        <v>0.294035</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235623</v>
+        <v>0.235667</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19102</v>
+        <v>0.19055</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.30384</v>
+        <v>0.303558</v>
       </c>
       <c r="C53" t="n">
-        <v>0.242174</v>
+        <v>0.242081</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193908</v>
+        <v>0.193438</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311697</v>
+        <v>0.31146</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247085</v>
+        <v>0.24701</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196301</v>
+        <v>0.195946</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.321168</v>
+        <v>0.3211</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253683</v>
+        <v>0.253465</v>
       </c>
       <c r="D55" t="n">
-        <v>0.19989</v>
+        <v>0.199867</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331392</v>
+        <v>0.331097</v>
       </c>
       <c r="C56" t="n">
-        <v>0.258646</v>
+        <v>0.258215</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202316</v>
+        <v>0.201881</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.340691</v>
+        <v>0.340436</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265309</v>
+        <v>0.265379</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206007</v>
+        <v>0.205517</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.350763</v>
+        <v>0.350498</v>
       </c>
       <c r="C58" t="n">
-        <v>0.272277</v>
+        <v>0.272622</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209279</v>
+        <v>0.209007</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.361639</v>
+        <v>0.362078</v>
       </c>
       <c r="C59" t="n">
-        <v>0.278515</v>
+        <v>0.278783</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212055</v>
+        <v>0.21181</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.372447</v>
+        <v>0.373168</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285629</v>
+        <v>0.285702</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216643</v>
+        <v>0.216384</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.267314</v>
+        <v>0.270236</v>
       </c>
       <c r="C61" t="n">
-        <v>0.293837</v>
+        <v>0.294292</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219692</v>
+        <v>0.219585</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275878</v>
+        <v>0.279675</v>
       </c>
       <c r="C62" t="n">
-        <v>0.303045</v>
+        <v>0.303686</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224286</v>
+        <v>0.223966</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.286129</v>
+        <v>0.289251</v>
       </c>
       <c r="C63" t="n">
-        <v>0.310581</v>
+        <v>0.311867</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227888</v>
+        <v>0.227627</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.29804</v>
+        <v>0.301786</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241554</v>
+        <v>0.242785</v>
       </c>
       <c r="D64" t="n">
-        <v>0.197215</v>
+        <v>0.198952</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.305861</v>
+        <v>0.306796</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247698</v>
+        <v>0.250048</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198611</v>
+        <v>0.199367</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.317588</v>
+        <v>0.318522</v>
       </c>
       <c r="C66" t="n">
-        <v>0.260737</v>
+        <v>0.260595</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2027</v>
+        <v>0.203609</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.330746</v>
+        <v>0.331155</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269605</v>
+        <v>0.270207</v>
       </c>
       <c r="D67" t="n">
-        <v>0.207254</v>
+        <v>0.208228</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344858</v>
+        <v>0.345918</v>
       </c>
       <c r="C68" t="n">
-        <v>0.279072</v>
+        <v>0.277315</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211367</v>
+        <v>0.213105</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360178</v>
+        <v>0.361184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.291391</v>
+        <v>0.28579</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217509</v>
+        <v>0.218106</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.381488</v>
+        <v>0.378939</v>
       </c>
       <c r="C70" t="n">
-        <v>0.299167</v>
+        <v>0.297589</v>
       </c>
       <c r="D70" t="n">
-        <v>0.226173</v>
+        <v>0.224656</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.403528</v>
+        <v>0.393964</v>
       </c>
       <c r="C71" t="n">
-        <v>0.313358</v>
+        <v>0.311372</v>
       </c>
       <c r="D71" t="n">
-        <v>0.228945</v>
+        <v>0.229548</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.427835</v>
+        <v>0.41751</v>
       </c>
       <c r="C72" t="n">
-        <v>0.329983</v>
+        <v>0.322497</v>
       </c>
       <c r="D72" t="n">
-        <v>0.235504</v>
+        <v>0.235755</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.451372</v>
+        <v>0.4374</v>
       </c>
       <c r="C73" t="n">
-        <v>0.347862</v>
+        <v>0.341093</v>
       </c>
       <c r="D73" t="n">
-        <v>0.244354</v>
+        <v>0.243203</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.479229</v>
+        <v>0.463302</v>
       </c>
       <c r="C74" t="n">
-        <v>0.366501</v>
+        <v>0.357789</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250417</v>
+        <v>0.248027</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.507104</v>
+        <v>0.491964</v>
       </c>
       <c r="C75" t="n">
-        <v>0.388707</v>
+        <v>0.378587</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259414</v>
+        <v>0.258095</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412058</v>
+        <v>0.423026</v>
       </c>
       <c r="C76" t="n">
-        <v>0.416199</v>
+        <v>0.40487</v>
       </c>
       <c r="D76" t="n">
-        <v>0.267203</v>
+        <v>0.264808</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.444974</v>
+        <v>0.453715</v>
       </c>
       <c r="C77" t="n">
-        <v>0.438796</v>
+        <v>0.432216</v>
       </c>
       <c r="D77" t="n">
-        <v>0.277949</v>
+        <v>0.274318</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.474006</v>
+        <v>0.483884</v>
       </c>
       <c r="C78" t="n">
-        <v>0.384457</v>
+        <v>0.391082</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260935</v>
+        <v>0.264557</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.513831</v>
+        <v>0.519402</v>
       </c>
       <c r="C79" t="n">
-        <v>0.40935</v>
+        <v>0.416002</v>
       </c>
       <c r="D79" t="n">
-        <v>0.272115</v>
+        <v>0.274178</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.549793</v>
+        <v>0.555128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.441439</v>
+        <v>0.442406</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288472</v>
+        <v>0.288872</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.59742</v>
+        <v>0.6019060000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.475025</v>
+        <v>0.476639</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303815</v>
+        <v>0.305981</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6419049999999999</v>
+        <v>0.644703</v>
       </c>
       <c r="C82" t="n">
-        <v>0.506108</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.322757</v>
+        <v>0.32495</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.693103</v>
+        <v>0.69528</v>
       </c>
       <c r="C83" t="n">
-        <v>0.542699</v>
+        <v>0.543366</v>
       </c>
       <c r="D83" t="n">
-        <v>0.339136</v>
+        <v>0.339398</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.745886</v>
+        <v>0.74984</v>
       </c>
       <c r="C84" t="n">
-        <v>0.581205</v>
+        <v>0.582725</v>
       </c>
       <c r="D84" t="n">
-        <v>0.360712</v>
+        <v>0.362134</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.801428</v>
+        <v>0.802625</v>
       </c>
       <c r="C85" t="n">
-        <v>0.61841</v>
+        <v>0.620478</v>
       </c>
       <c r="D85" t="n">
-        <v>0.378951</v>
+        <v>0.381782</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.860192</v>
+        <v>0.860364</v>
       </c>
       <c r="C86" t="n">
-        <v>0.660288</v>
+        <v>0.6609969999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.397977</v>
+        <v>0.401583</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.922623</v>
+        <v>0.9225179999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.710925</v>
+        <v>0.709964</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426122</v>
+        <v>0.427639</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.993348</v>
+        <v>0.990131</v>
       </c>
       <c r="C88" t="n">
-        <v>0.754781</v>
+        <v>0.752864</v>
       </c>
       <c r="D88" t="n">
-        <v>0.452988</v>
+        <v>0.45398</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.06352</v>
+        <v>1.05916</v>
       </c>
       <c r="C89" t="n">
-        <v>0.806439</v>
+        <v>0.803777</v>
       </c>
       <c r="D89" t="n">
-        <v>0.475526</v>
+        <v>0.476833</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.843545</v>
+        <v>0.836133</v>
       </c>
       <c r="C90" t="n">
-        <v>0.854665</v>
+        <v>0.851012</v>
       </c>
       <c r="D90" t="n">
-        <v>0.501957</v>
+        <v>0.503169</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.878781</v>
+        <v>0.868719</v>
       </c>
       <c r="C91" t="n">
-        <v>0.908992</v>
+        <v>0.9050859999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.524436</v>
+        <v>0.525832</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.917901</v>
+        <v>0.907246</v>
       </c>
       <c r="C92" t="n">
-        <v>0.735477</v>
+        <v>0.728398</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5159629999999999</v>
+        <v>0.510124</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.956765</v>
+        <v>0.947811</v>
       </c>
       <c r="C93" t="n">
-        <v>0.764621</v>
+        <v>0.757624</v>
       </c>
       <c r="D93" t="n">
-        <v>0.532339</v>
+        <v>0.5266690000000001</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.999758</v>
+        <v>0.990862</v>
       </c>
       <c r="C94" t="n">
-        <v>0.796508</v>
+        <v>0.788928</v>
       </c>
       <c r="D94" t="n">
-        <v>0.548427</v>
+        <v>0.542565</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.04596</v>
+        <v>1.03546</v>
       </c>
       <c r="C95" t="n">
-        <v>0.825852</v>
+        <v>0.819052</v>
       </c>
       <c r="D95" t="n">
-        <v>0.56577</v>
+        <v>0.559801</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08622</v>
+        <v>1.07713</v>
       </c>
       <c r="C96" t="n">
-        <v>0.859834</v>
+        <v>0.852748</v>
       </c>
       <c r="D96" t="n">
-        <v>0.584027</v>
+        <v>0.57779</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.12984</v>
+        <v>1.1218</v>
       </c>
       <c r="C97" t="n">
-        <v>0.892799</v>
+        <v>0.885629</v>
       </c>
       <c r="D97" t="n">
-        <v>0.606284</v>
+        <v>0.5992189999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.17567</v>
+        <v>1.16865</v>
       </c>
       <c r="C98" t="n">
-        <v>0.92589</v>
+        <v>0.920068</v>
       </c>
       <c r="D98" t="n">
-        <v>0.623843</v>
+        <v>0.61634</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.2227</v>
+        <v>1.20989</v>
       </c>
       <c r="C99" t="n">
-        <v>0.961175</v>
+        <v>0.955086</v>
       </c>
       <c r="D99" t="n">
-        <v>0.645678</v>
+        <v>0.63854</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.27196</v>
+        <v>1.25695</v>
       </c>
       <c r="C100" t="n">
-        <v>0.995735</v>
+        <v>0.988306</v>
       </c>
       <c r="D100" t="n">
-        <v>0.669242</v>
+        <v>0.660654</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.32783</v>
+        <v>1.30975</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03092</v>
+        <v>1.02038</v>
       </c>
       <c r="D101" t="n">
-        <v>0.693903</v>
+        <v>0.6847800000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.38539</v>
+        <v>1.36564</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07019</v>
+        <v>1.05782</v>
       </c>
       <c r="D102" t="n">
-        <v>0.716662</v>
+        <v>0.710166</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.44846</v>
+        <v>1.42805</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11194</v>
+        <v>1.09946</v>
       </c>
       <c r="D103" t="n">
-        <v>0.739557</v>
+        <v>0.730461</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.51719</v>
+        <v>1.49654</v>
       </c>
       <c r="C104" t="n">
-        <v>1.15638</v>
+        <v>1.14258</v>
       </c>
       <c r="D104" t="n">
-        <v>0.767267</v>
+        <v>0.757715</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.04941</v>
+        <v>1.03002</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20492</v>
+        <v>1.18831</v>
       </c>
       <c r="D105" t="n">
-        <v>0.792759</v>
+        <v>0.782904</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0833</v>
+        <v>1.0663</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25398</v>
+        <v>1.23631</v>
       </c>
       <c r="D106" t="n">
-        <v>0.821346</v>
+        <v>0.811897</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.12162</v>
+        <v>1.10514</v>
       </c>
       <c r="C107" t="n">
-        <v>0.905636</v>
+        <v>0.888856</v>
       </c>
       <c r="D107" t="n">
-        <v>0.70858</v>
+        <v>0.696649</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.16136</v>
+        <v>1.14271</v>
       </c>
       <c r="C108" t="n">
-        <v>0.933241</v>
+        <v>0.918498</v>
       </c>
       <c r="D108" t="n">
-        <v>0.725081</v>
+        <v>0.714845</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.20288</v>
+        <v>1.1837</v>
       </c>
       <c r="C109" t="n">
-        <v>0.962054</v>
+        <v>0.945292</v>
       </c>
       <c r="D109" t="n">
-        <v>0.745451</v>
+        <v>0.732776</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25088</v>
+        <v>1.23002</v>
       </c>
       <c r="C110" t="n">
-        <v>0.991899</v>
+        <v>0.974661</v>
       </c>
       <c r="D110" t="n">
-        <v>0.76419</v>
+        <v>0.752292</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.29863</v>
+        <v>1.27722</v>
       </c>
       <c r="C111" t="n">
-        <v>1.02485</v>
+        <v>1.00812</v>
       </c>
       <c r="D111" t="n">
-        <v>0.783813</v>
+        <v>0.772006</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.34825</v>
+        <v>1.32517</v>
       </c>
       <c r="C112" t="n">
-        <v>1.06194</v>
+        <v>1.04439</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8010350000000001</v>
+        <v>0.78954</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4019</v>
+        <v>1.37948</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09652</v>
+        <v>1.07926</v>
       </c>
       <c r="D113" t="n">
-        <v>0.822995</v>
+        <v>0.810317</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45732</v>
+        <v>1.43381</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13289</v>
+        <v>1.11473</v>
       </c>
       <c r="D114" t="n">
-        <v>0.843607</v>
+        <v>0.830427</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.51486</v>
+        <v>1.49101</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17392</v>
+        <v>1.15465</v>
       </c>
       <c r="D115" t="n">
-        <v>0.864749</v>
+        <v>0.851729</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.57752</v>
+        <v>1.55204</v>
       </c>
       <c r="C116" t="n">
-        <v>1.21624</v>
+        <v>1.19685</v>
       </c>
       <c r="D116" t="n">
-        <v>0.886512</v>
+        <v>0.872835</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.64307</v>
+        <v>1.61723</v>
       </c>
       <c r="C117" t="n">
-        <v>1.26238</v>
+        <v>1.24099</v>
       </c>
       <c r="D117" t="n">
-        <v>0.913292</v>
+        <v>0.898949</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.7127</v>
+        <v>1.68328</v>
       </c>
       <c r="C118" t="n">
-        <v>1.31272</v>
+        <v>1.29116</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9389110000000001</v>
+        <v>0.923192</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13254</v>
+        <v>1.11344</v>
       </c>
       <c r="C119" t="n">
-        <v>1.35849</v>
+        <v>1.33768</v>
       </c>
       <c r="D119" t="n">
-        <v>0.960301</v>
+        <v>0.946188</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.583595</v>
+        <v>0.5978019999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.389679</v>
+        <v>0.403069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247005</v>
+        <v>0.252164</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.593554</v>
+        <v>0.616206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.391777</v>
+        <v>0.424136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251576</v>
+        <v>0.256398</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.625401</v>
+        <v>0.64445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.411839</v>
+        <v>0.441064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258625</v>
+        <v>0.265632</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6538079999999999</v>
+        <v>0.674368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.425276</v>
+        <v>0.461371</v>
       </c>
       <c r="D5" t="n">
-        <v>0.267634</v>
+        <v>0.274776</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6763670000000001</v>
+        <v>0.698188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.440877</v>
+        <v>0.479213</v>
       </c>
       <c r="D6" t="n">
-        <v>0.276857</v>
+        <v>0.28616</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.698618</v>
+        <v>0.720131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.471831</v>
+        <v>0.510387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.282151</v>
+        <v>0.289403</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7329290000000001</v>
+        <v>0.756203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.501752</v>
+        <v>0.528483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.28857</v>
+        <v>0.297517</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.769037</v>
+        <v>0.785004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.52707</v>
+        <v>0.555451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.296454</v>
+        <v>0.304212</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.799961</v>
+        <v>0.8265169999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5392439999999999</v>
+        <v>0.582887</v>
       </c>
       <c r="D10" t="n">
-        <v>0.311672</v>
+        <v>0.319574</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.824025</v>
+        <v>0.854044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.379463</v>
+        <v>0.400241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.234204</v>
+        <v>0.240228</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.530495</v>
+        <v>0.541748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.395322</v>
+        <v>0.417262</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245615</v>
+        <v>0.253387</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.554605</v>
+        <v>0.568431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.414488</v>
+        <v>0.437213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251145</v>
+        <v>0.257046</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.577959</v>
+        <v>0.593181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.442682</v>
+        <v>0.455021</v>
       </c>
       <c r="D14" t="n">
-        <v>0.257986</v>
+        <v>0.262806</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.602549</v>
+        <v>0.616909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.464443</v>
+        <v>0.482625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.269164</v>
+        <v>0.273769</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.626476</v>
+        <v>0.641207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.482551</v>
+        <v>0.5009209999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275813</v>
+        <v>0.281442</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6605529999999999</v>
+        <v>0.674242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.511355</v>
+        <v>0.528233</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287278</v>
+        <v>0.292951</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.684326</v>
+        <v>0.704747</v>
       </c>
       <c r="C18" t="n">
-        <v>0.536035</v>
+        <v>0.557798</v>
       </c>
       <c r="D18" t="n">
-        <v>0.294105</v>
+        <v>0.300909</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7219179999999999</v>
+        <v>0.741155</v>
       </c>
       <c r="C19" t="n">
-        <v>0.558136</v>
+        <v>0.580331</v>
       </c>
       <c r="D19" t="n">
-        <v>0.305286</v>
+        <v>0.309785</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.755402</v>
+        <v>0.774747</v>
       </c>
       <c r="C20" t="n">
-        <v>0.595479</v>
+        <v>0.611093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.312953</v>
+        <v>0.322538</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.799834</v>
+        <v>0.81482</v>
       </c>
       <c r="C21" t="n">
-        <v>0.625042</v>
+        <v>0.64272</v>
       </c>
       <c r="D21" t="n">
-        <v>0.328869</v>
+        <v>0.336049</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.83899</v>
+        <v>0.857433</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6618810000000001</v>
+        <v>0.677152</v>
       </c>
       <c r="D22" t="n">
-        <v>0.340964</v>
+        <v>0.348911</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.887222</v>
+        <v>0.9017579999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6969070000000001</v>
+        <v>0.709392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.348291</v>
+        <v>0.355618</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9317879999999999</v>
+        <v>0.944063</v>
       </c>
       <c r="C24" t="n">
-        <v>0.730891</v>
+        <v>0.741278</v>
       </c>
       <c r="D24" t="n">
-        <v>0.361554</v>
+        <v>0.368113</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9743039999999999</v>
+        <v>0.990899</v>
       </c>
       <c r="C25" t="n">
-        <v>0.756867</v>
+        <v>0.78012</v>
       </c>
       <c r="D25" t="n">
-        <v>0.377554</v>
+        <v>0.382727</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.01601</v>
+        <v>1.04119</v>
       </c>
       <c r="C26" t="n">
-        <v>0.48512</v>
+        <v>0.495066</v>
       </c>
       <c r="D26" t="n">
-        <v>0.275324</v>
+        <v>0.279859</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.645692</v>
+        <v>0.658846</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5038010000000001</v>
+        <v>0.515992</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284562</v>
+        <v>0.289293</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.674964</v>
+        <v>0.687678</v>
       </c>
       <c r="C28" t="n">
-        <v>0.529381</v>
+        <v>0.5413</v>
       </c>
       <c r="D28" t="n">
-        <v>0.293271</v>
+        <v>0.297904</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7084819999999999</v>
+        <v>0.721951</v>
       </c>
       <c r="C29" t="n">
-        <v>0.553489</v>
+        <v>0.5651119999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.305127</v>
+        <v>0.309421</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.745108</v>
+        <v>0.757871</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5857019999999999</v>
+        <v>0.596855</v>
       </c>
       <c r="D30" t="n">
-        <v>0.315736</v>
+        <v>0.321067</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.781297</v>
+        <v>0.795042</v>
       </c>
       <c r="C31" t="n">
-        <v>0.617814</v>
+        <v>0.6255270000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.32281</v>
+        <v>0.326017</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.82013</v>
+        <v>0.833928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.645833</v>
+        <v>0.657788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332231</v>
+        <v>0.339998</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8609830000000001</v>
+        <v>0.8754420000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6738229999999999</v>
+        <v>0.6870579999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343854</v>
+        <v>0.348676</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.904139</v>
+        <v>0.916521</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7127559999999999</v>
+        <v>0.723238</v>
       </c>
       <c r="D34" t="n">
-        <v>0.351411</v>
+        <v>0.357382</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9468760000000001</v>
+        <v>0.957906</v>
       </c>
       <c r="C35" t="n">
-        <v>0.744386</v>
+        <v>0.758152</v>
       </c>
       <c r="D35" t="n">
-        <v>0.363566</v>
+        <v>0.366698</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9866200000000001</v>
+        <v>0.998969</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779952</v>
+        <v>0.788753</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378954</v>
+        <v>0.384459</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.03556</v>
+        <v>1.04568</v>
       </c>
       <c r="C37" t="n">
-        <v>0.815976</v>
+        <v>0.82557</v>
       </c>
       <c r="D37" t="n">
-        <v>0.387416</v>
+        <v>0.394086</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.07847</v>
+        <v>1.08965</v>
       </c>
       <c r="C38" t="n">
-        <v>0.859282</v>
+        <v>0.869058</v>
       </c>
       <c r="D38" t="n">
-        <v>0.401414</v>
+        <v>0.404926</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.12523</v>
+        <v>1.14001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.894133</v>
+        <v>0.904233</v>
       </c>
       <c r="D39" t="n">
-        <v>0.415445</v>
+        <v>0.419242</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.17132</v>
+        <v>1.18057</v>
       </c>
       <c r="C40" t="n">
-        <v>0.547214</v>
+        <v>0.548688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.315426</v>
+        <v>0.317244</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.709599</v>
+        <v>0.713239</v>
       </c>
       <c r="C41" t="n">
-        <v>0.564331</v>
+        <v>0.567085</v>
       </c>
       <c r="D41" t="n">
-        <v>0.325147</v>
+        <v>0.326683</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.738436</v>
+        <v>0.742023</v>
       </c>
       <c r="C42" t="n">
-        <v>0.590243</v>
+        <v>0.59273</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333702</v>
+        <v>0.334914</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.774137</v>
+        <v>0.778158</v>
       </c>
       <c r="C43" t="n">
-        <v>0.62114</v>
+        <v>0.623638</v>
       </c>
       <c r="D43" t="n">
-        <v>0.344693</v>
+        <v>0.346969</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.809018</v>
+        <v>0.813131</v>
       </c>
       <c r="C44" t="n">
-        <v>0.65016</v>
+        <v>0.65279</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355814</v>
+        <v>0.357333</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.84519</v>
+        <v>0.849224</v>
       </c>
       <c r="C45" t="n">
-        <v>0.677197</v>
+        <v>0.679964</v>
       </c>
       <c r="D45" t="n">
-        <v>0.363376</v>
+        <v>0.367776</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.887869</v>
+        <v>0.891603</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7107</v>
+        <v>0.71397</v>
       </c>
       <c r="D46" t="n">
-        <v>0.375358</v>
+        <v>0.377522</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.928018</v>
+        <v>0.931909</v>
       </c>
       <c r="C47" t="n">
-        <v>0.739703</v>
+        <v>0.742891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.387314</v>
+        <v>0.387593</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.96974</v>
+        <v>0.972507</v>
       </c>
       <c r="C48" t="n">
-        <v>0.774305</v>
+        <v>0.7773640000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.399841</v>
+        <v>0.401153</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01088</v>
+        <v>1.01333</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8114170000000001</v>
+        <v>0.813542</v>
       </c>
       <c r="D49" t="n">
-        <v>0.408129</v>
+        <v>0.412021</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.05252</v>
+        <v>1.05579</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8502769999999999</v>
+        <v>0.852864</v>
       </c>
       <c r="D50" t="n">
-        <v>0.422338</v>
+        <v>0.42484</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09894</v>
+        <v>1.10128</v>
       </c>
       <c r="C51" t="n">
-        <v>0.884474</v>
+        <v>0.884355</v>
       </c>
       <c r="D51" t="n">
-        <v>0.434783</v>
+        <v>0.435369</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.14256</v>
+        <v>1.14571</v>
       </c>
       <c r="C52" t="n">
-        <v>0.926377</v>
+        <v>0.9281430000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.447198</v>
+        <v>0.448737</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18786</v>
+        <v>1.18961</v>
       </c>
       <c r="C53" t="n">
-        <v>0.962432</v>
+        <v>0.96483</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458301</v>
+        <v>0.459466</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.23316</v>
+        <v>1.23569</v>
       </c>
       <c r="C54" t="n">
-        <v>0.574952</v>
+        <v>0.575658</v>
       </c>
       <c r="D54" t="n">
-        <v>0.340332</v>
+        <v>0.34078</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2766</v>
+        <v>1.2795</v>
       </c>
       <c r="C55" t="n">
-        <v>0.597181</v>
+        <v>0.598299</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348367</v>
+        <v>0.348982</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.754946</v>
+        <v>0.7560249999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.622022</v>
+        <v>0.6230250000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.358621</v>
+        <v>0.359282</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.788702</v>
+        <v>0.790004</v>
       </c>
       <c r="C57" t="n">
-        <v>0.646306</v>
+        <v>0.647035</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369311</v>
+        <v>0.369579</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.823057</v>
+        <v>0.823931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.677712</v>
+        <v>0.677721</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378748</v>
+        <v>0.378743</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.856638</v>
+        <v>0.85875</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708197</v>
+        <v>0.708326</v>
       </c>
       <c r="D59" t="n">
-        <v>0.39191</v>
+        <v>0.392474</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.898635</v>
+        <v>0.898848</v>
       </c>
       <c r="C60" t="n">
-        <v>0.738563</v>
+        <v>0.7386</v>
       </c>
       <c r="D60" t="n">
-        <v>0.402497</v>
+        <v>0.402791</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.937582</v>
+        <v>0.9389380000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.772713</v>
+        <v>0.771693</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412555</v>
+        <v>0.412665</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.979353</v>
+        <v>0.9815160000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8078610000000001</v>
+        <v>0.810562</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424785</v>
+        <v>0.424353</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.02397</v>
+        <v>1.02991</v>
       </c>
       <c r="C63" t="n">
-        <v>0.842485</v>
+        <v>0.845295</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433553</v>
+        <v>0.435123</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.07115</v>
+        <v>1.07568</v>
       </c>
       <c r="C64" t="n">
-        <v>0.88102</v>
+        <v>0.884588</v>
       </c>
       <c r="D64" t="n">
-        <v>0.447044</v>
+        <v>0.448425</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.11476</v>
+        <v>1.12113</v>
       </c>
       <c r="C65" t="n">
-        <v>0.919104</v>
+        <v>0.922591</v>
       </c>
       <c r="D65" t="n">
-        <v>0.459917</v>
+        <v>0.461911</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16117</v>
+        <v>1.16929</v>
       </c>
       <c r="C66" t="n">
-        <v>0.959216</v>
+        <v>0.965658</v>
       </c>
       <c r="D66" t="n">
-        <v>0.473004</v>
+        <v>0.475284</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.21064</v>
+        <v>1.21603</v>
       </c>
       <c r="C67" t="n">
-        <v>1.00024</v>
+        <v>1.00177</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486608</v>
+        <v>0.488223</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.27037</v>
+        <v>1.26788</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591329</v>
+        <v>0.593186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.349331</v>
+        <v>0.350712</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.34157</v>
+        <v>1.3376</v>
       </c>
       <c r="C69" t="n">
-        <v>0.629889</v>
+        <v>0.632095</v>
       </c>
       <c r="D69" t="n">
-        <v>0.363423</v>
+        <v>0.364948</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.807161</v>
+        <v>0.811671</v>
       </c>
       <c r="C70" t="n">
-        <v>0.665558</v>
+        <v>0.668333</v>
       </c>
       <c r="D70" t="n">
-        <v>0.378027</v>
+        <v>0.380828</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.858647</v>
+        <v>0.863746</v>
       </c>
       <c r="C71" t="n">
-        <v>0.708464</v>
+        <v>0.715941</v>
       </c>
       <c r="D71" t="n">
-        <v>0.390252</v>
+        <v>0.392676</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.921683</v>
+        <v>0.921952</v>
       </c>
       <c r="C72" t="n">
-        <v>0.755504</v>
+        <v>0.757131</v>
       </c>
       <c r="D72" t="n">
-        <v>0.404333</v>
+        <v>0.407055</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.97893</v>
+        <v>0.984768</v>
       </c>
       <c r="C73" t="n">
-        <v>0.809635</v>
+        <v>0.81157</v>
       </c>
       <c r="D73" t="n">
-        <v>0.419913</v>
+        <v>0.426317</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.05684</v>
+        <v>1.05103</v>
       </c>
       <c r="C74" t="n">
-        <v>0.875362</v>
+        <v>0.86798</v>
       </c>
       <c r="D74" t="n">
-        <v>0.442149</v>
+        <v>0.444297</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.14329</v>
+        <v>1.11988</v>
       </c>
       <c r="C75" t="n">
-        <v>0.944987</v>
+        <v>0.926087</v>
       </c>
       <c r="D75" t="n">
-        <v>0.458628</v>
+        <v>0.459343</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.23074</v>
+        <v>1.20117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.01744</v>
+        <v>0.994521</v>
       </c>
       <c r="D76" t="n">
-        <v>0.481109</v>
+        <v>0.478268</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.34092</v>
+        <v>1.28963</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10906</v>
+        <v>1.06791</v>
       </c>
       <c r="D77" t="n">
-        <v>0.499683</v>
+        <v>0.494524</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.45309</v>
+        <v>1.40327</v>
       </c>
       <c r="C78" t="n">
-        <v>1.20489</v>
+        <v>1.16289</v>
       </c>
       <c r="D78" t="n">
-        <v>0.533949</v>
+        <v>0.528099</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.5845</v>
+        <v>1.53007</v>
       </c>
       <c r="C79" t="n">
-        <v>1.30816</v>
+        <v>1.27001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.567872</v>
+        <v>0.555148</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.72282</v>
+        <v>1.66738</v>
       </c>
       <c r="C80" t="n">
-        <v>1.44318</v>
+        <v>1.39284</v>
       </c>
       <c r="D80" t="n">
-        <v>0.599793</v>
+        <v>0.5850340000000001</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.85945</v>
+        <v>1.83104</v>
       </c>
       <c r="C81" t="n">
-        <v>1.56615</v>
+        <v>1.53466</v>
       </c>
       <c r="D81" t="n">
-        <v>0.635032</v>
+        <v>0.624454</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04191</v>
+        <v>2.0171</v>
       </c>
       <c r="C82" t="n">
-        <v>1.72419</v>
+        <v>1.70557</v>
       </c>
       <c r="D82" t="n">
-        <v>0.649331</v>
+        <v>0.649744</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.24528</v>
+        <v>2.23233</v>
       </c>
       <c r="C83" t="n">
-        <v>1.07523</v>
+        <v>1.09235</v>
       </c>
       <c r="D83" t="n">
-        <v>0.496692</v>
+        <v>0.499475</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.47028</v>
+        <v>2.48889</v>
       </c>
       <c r="C84" t="n">
-        <v>1.19397</v>
+        <v>1.20097</v>
       </c>
       <c r="D84" t="n">
-        <v>0.538112</v>
+        <v>0.540747</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.60263</v>
+        <v>1.61486</v>
       </c>
       <c r="C85" t="n">
-        <v>1.32879</v>
+        <v>1.33751</v>
       </c>
       <c r="D85" t="n">
-        <v>0.582201</v>
+        <v>0.5848680000000001</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.78195</v>
+        <v>1.79339</v>
       </c>
       <c r="C86" t="n">
-        <v>1.48097</v>
+        <v>1.49168</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622663</v>
+        <v>0.622798</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9806</v>
+        <v>1.99049</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6466</v>
+        <v>1.65256</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6830889999999999</v>
+        <v>0.681256</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.18875</v>
+        <v>2.20102</v>
       </c>
       <c r="C88" t="n">
-        <v>1.83504</v>
+        <v>1.84489</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7287090000000001</v>
+        <v>0.73272</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41395</v>
+        <v>2.42878</v>
       </c>
       <c r="C89" t="n">
-        <v>2.03191</v>
+        <v>2.03625</v>
       </c>
       <c r="D89" t="n">
-        <v>0.791888</v>
+        <v>0.792567</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.6626</v>
+        <v>2.66651</v>
       </c>
       <c r="C90" t="n">
-        <v>2.24354</v>
+        <v>2.24188</v>
       </c>
       <c r="D90" t="n">
-        <v>0.857656</v>
+        <v>0.856666</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.92465</v>
+        <v>2.92681</v>
       </c>
       <c r="C91" t="n">
-        <v>2.46625</v>
+        <v>2.46213</v>
       </c>
       <c r="D91" t="n">
-        <v>0.905077</v>
+        <v>0.906178</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.19998</v>
+        <v>3.19165</v>
       </c>
       <c r="C92" t="n">
-        <v>2.70521</v>
+        <v>2.71179</v>
       </c>
       <c r="D92" t="n">
-        <v>0.989463</v>
+        <v>0.989166</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.50432</v>
+        <v>3.49304</v>
       </c>
       <c r="C93" t="n">
-        <v>2.97235</v>
+        <v>2.95756</v>
       </c>
       <c r="D93" t="n">
-        <v>1.07354</v>
+        <v>1.07062</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.80342</v>
+        <v>3.79385</v>
       </c>
       <c r="C94" t="n">
-        <v>3.24296</v>
+        <v>3.22585</v>
       </c>
       <c r="D94" t="n">
-        <v>1.15896</v>
+        <v>1.15158</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.10996</v>
+        <v>4.10898</v>
       </c>
       <c r="C95" t="n">
-        <v>3.52037</v>
+        <v>3.50637</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23128</v>
+        <v>1.22398</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.43976</v>
+        <v>4.4316</v>
       </c>
       <c r="C96" t="n">
-        <v>3.82247</v>
+        <v>3.82042</v>
       </c>
       <c r="D96" t="n">
-        <v>1.30387</v>
+        <v>1.29382</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.75359</v>
+        <v>4.76919</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15554</v>
+        <v>2.14433</v>
       </c>
       <c r="D97" t="n">
-        <v>0.942624</v>
+        <v>0.937347</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.04926</v>
+        <v>5.06499</v>
       </c>
       <c r="C98" t="n">
-        <v>2.28929</v>
+        <v>2.284</v>
       </c>
       <c r="D98" t="n">
-        <v>1.00183</v>
+        <v>0.995884</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.87816</v>
+        <v>2.8533</v>
       </c>
       <c r="C99" t="n">
-        <v>2.42513</v>
+        <v>2.41988</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05889</v>
+        <v>1.05178</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.07228</v>
+        <v>3.04091</v>
       </c>
       <c r="C100" t="n">
-        <v>2.57688</v>
+        <v>2.56357</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10867</v>
+        <v>1.10017</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.26947</v>
+        <v>3.2421</v>
       </c>
       <c r="C101" t="n">
-        <v>2.75251</v>
+        <v>2.73495</v>
       </c>
       <c r="D101" t="n">
-        <v>1.18119</v>
+        <v>1.17017</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.49988</v>
+        <v>3.47361</v>
       </c>
       <c r="C102" t="n">
-        <v>2.94348</v>
+        <v>2.91439</v>
       </c>
       <c r="D102" t="n">
-        <v>1.2297</v>
+        <v>1.2187</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.74196</v>
+        <v>3.69639</v>
       </c>
       <c r="C103" t="n">
-        <v>3.14255</v>
+        <v>3.11218</v>
       </c>
       <c r="D103" t="n">
-        <v>1.30086</v>
+        <v>1.28826</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.97615</v>
+        <v>3.94406</v>
       </c>
       <c r="C104" t="n">
-        <v>3.36352</v>
+        <v>3.32999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.3597</v>
+        <v>1.34497</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.26219</v>
+        <v>4.21048</v>
       </c>
       <c r="C105" t="n">
-        <v>3.59729</v>
+        <v>3.55749</v>
       </c>
       <c r="D105" t="n">
-        <v>1.4556</v>
+        <v>1.43823</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.54889</v>
+        <v>4.48985</v>
       </c>
       <c r="C106" t="n">
-        <v>3.85189</v>
+        <v>3.81096</v>
       </c>
       <c r="D106" t="n">
-        <v>1.50367</v>
+        <v>1.48659</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.84917</v>
+        <v>4.80219</v>
       </c>
       <c r="C107" t="n">
-        <v>4.11594</v>
+        <v>4.07706</v>
       </c>
       <c r="D107" t="n">
-        <v>1.58725</v>
+        <v>1.56614</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.16228</v>
+        <v>5.1078</v>
       </c>
       <c r="C108" t="n">
-        <v>4.40366</v>
+        <v>4.36728</v>
       </c>
       <c r="D108" t="n">
-        <v>1.6712</v>
+        <v>1.64726</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.49864</v>
+        <v>5.43012</v>
       </c>
       <c r="C109" t="n">
-        <v>4.71106</v>
+        <v>4.66004</v>
       </c>
       <c r="D109" t="n">
-        <v>1.74627</v>
+        <v>1.71827</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.84362</v>
+        <v>5.75954</v>
       </c>
       <c r="C110" t="n">
-        <v>5.02257</v>
+        <v>4.96684</v>
       </c>
       <c r="D110" t="n">
-        <v>1.83762</v>
+        <v>1.81158</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.18537</v>
+        <v>6.11821</v>
       </c>
       <c r="C111" t="n">
-        <v>2.67373</v>
+        <v>2.64665</v>
       </c>
       <c r="D111" t="n">
-        <v>1.33959</v>
+        <v>1.32273</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.54566</v>
+        <v>6.47572</v>
       </c>
       <c r="C112" t="n">
-        <v>2.83146</v>
+        <v>2.79656</v>
       </c>
       <c r="D112" t="n">
-        <v>1.40275</v>
+        <v>1.38447</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.90236</v>
+        <v>6.82324</v>
       </c>
       <c r="C113" t="n">
-        <v>3.00098</v>
+        <v>2.96119</v>
       </c>
       <c r="D113" t="n">
-        <v>1.43623</v>
+        <v>1.41655</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.77376</v>
+        <v>3.73068</v>
       </c>
       <c r="C114" t="n">
-        <v>3.18311</v>
+        <v>3.1429</v>
       </c>
       <c r="D114" t="n">
-        <v>1.50132</v>
+        <v>1.47967</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.99572</v>
+        <v>3.95327</v>
       </c>
       <c r="C115" t="n">
-        <v>3.36207</v>
+        <v>3.31754</v>
       </c>
       <c r="D115" t="n">
-        <v>1.59025</v>
+        <v>1.56442</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.2399</v>
+        <v>4.18105</v>
       </c>
       <c r="C116" t="n">
-        <v>3.57394</v>
+        <v>3.53108</v>
       </c>
       <c r="D116" t="n">
-        <v>1.62599</v>
+        <v>1.60546</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.47121</v>
+        <v>4.42398</v>
       </c>
       <c r="C117" t="n">
-        <v>3.80878</v>
+        <v>3.75116</v>
       </c>
       <c r="D117" t="n">
-        <v>1.71139</v>
+        <v>1.68036</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.73515</v>
+        <v>4.68672</v>
       </c>
       <c r="C118" t="n">
-        <v>4.03702</v>
+        <v>3.99191</v>
       </c>
       <c r="D118" t="n">
-        <v>1.76519</v>
+        <v>1.74159</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.02147</v>
+        <v>4.96115</v>
       </c>
       <c r="C119" t="n">
-        <v>4.28626</v>
+        <v>4.24489</v>
       </c>
       <c r="D119" t="n">
-        <v>1.84121</v>
+        <v>1.8151</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.338955</v>
+        <v>0.352524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22703</v>
+        <v>0.22791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251462</v>
+        <v>0.223705</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.255307</v>
+        <v>0.260123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.228511</v>
+        <v>0.22861</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253973</v>
+        <v>0.226815</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261619</v>
+        <v>0.267877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232249</v>
+        <v>0.233485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258755</v>
+        <v>0.230866</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270479</v>
+        <v>0.275606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237126</v>
+        <v>0.238395</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2632</v>
+        <v>0.237544</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.278856</v>
+        <v>0.285435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.241178</v>
+        <v>0.243709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.267799</v>
+        <v>0.243086</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.288658</v>
+        <v>0.295908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204083</v>
+        <v>0.202129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222582</v>
+        <v>0.201791</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.294771</v>
+        <v>0.303208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208778</v>
+        <v>0.208085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229821</v>
+        <v>0.209577</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.303534</v>
+        <v>0.311963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.211881</v>
+        <v>0.214552</v>
       </c>
       <c r="D9" t="n">
-        <v>0.235083</v>
+        <v>0.214545</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.311873</v>
+        <v>0.321406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.219311</v>
+        <v>0.220127</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243162</v>
+        <v>0.22048</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.319594</v>
+        <v>0.332273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224768</v>
+        <v>0.225537</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249811</v>
+        <v>0.22637</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330243</v>
+        <v>0.342767</v>
       </c>
       <c r="C12" t="n">
-        <v>0.232343</v>
+        <v>0.231689</v>
       </c>
       <c r="D12" t="n">
-        <v>0.258788</v>
+        <v>0.235168</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.338946</v>
+        <v>0.351111</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234979</v>
+        <v>0.236285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265141</v>
+        <v>0.241388</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.348441</v>
+        <v>0.360437</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23988</v>
+        <v>0.241337</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270525</v>
+        <v>0.246953</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.360007</v>
+        <v>0.371144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.246016</v>
+        <v>0.246715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276843</v>
+        <v>0.252415</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.367672</v>
+        <v>0.381378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.250837</v>
+        <v>0.251833</v>
       </c>
       <c r="D16" t="n">
-        <v>0.282948</v>
+        <v>0.258942</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.378479</v>
+        <v>0.393282</v>
       </c>
       <c r="C17" t="n">
-        <v>0.256754</v>
+        <v>0.258235</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290702</v>
+        <v>0.265281</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287916</v>
+        <v>0.294361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.259218</v>
+        <v>0.261347</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295036</v>
+        <v>0.268266</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.295754</v>
+        <v>0.303362</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2647</v>
+        <v>0.266368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301813</v>
+        <v>0.275422</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.305357</v>
+        <v>0.312761</v>
       </c>
       <c r="C20" t="n">
-        <v>0.272247</v>
+        <v>0.273851</v>
       </c>
       <c r="D20" t="n">
-        <v>0.30952</v>
+        <v>0.28249</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.314942</v>
+        <v>0.322619</v>
       </c>
       <c r="C21" t="n">
-        <v>0.221757</v>
+        <v>0.219232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247607</v>
+        <v>0.22225</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324166</v>
+        <v>0.332306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228318</v>
+        <v>0.226359</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254237</v>
+        <v>0.230418</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.332586</v>
+        <v>0.342427</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233525</v>
+        <v>0.23296</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261651</v>
+        <v>0.237192</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339729</v>
+        <v>0.350198</v>
       </c>
       <c r="C24" t="n">
-        <v>0.238314</v>
+        <v>0.23767</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267645</v>
+        <v>0.24215</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347938</v>
+        <v>0.359219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24362</v>
+        <v>0.243488</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274729</v>
+        <v>0.248531</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.357272</v>
+        <v>0.368599</v>
       </c>
       <c r="C26" t="n">
-        <v>0.249439</v>
+        <v>0.250086</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281802</v>
+        <v>0.255313</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.365452</v>
+        <v>0.37781</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253773</v>
+        <v>0.256067</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287811</v>
+        <v>0.261707</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.374697</v>
+        <v>0.386634</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259336</v>
+        <v>0.261785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294516</v>
+        <v>0.267619</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.383839</v>
+        <v>0.39728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.264501</v>
+        <v>0.267364</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301756</v>
+        <v>0.27427</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.391504</v>
+        <v>0.406224</v>
       </c>
       <c r="C30" t="n">
-        <v>0.269432</v>
+        <v>0.272355</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307587</v>
+        <v>0.280098</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400525</v>
+        <v>0.41483</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274174</v>
+        <v>0.277259</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313114</v>
+        <v>0.285885</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297523</v>
+        <v>0.301473</v>
       </c>
       <c r="C32" t="n">
-        <v>0.27957</v>
+        <v>0.283349</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319921</v>
+        <v>0.291977</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305312</v>
+        <v>0.310875</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284913</v>
+        <v>0.288466</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3262</v>
+        <v>0.297361</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.313966</v>
+        <v>0.319765</v>
       </c>
       <c r="C34" t="n">
-        <v>0.289792</v>
+        <v>0.293042</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332448</v>
+        <v>0.303067</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322834</v>
+        <v>0.329199</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231146</v>
+        <v>0.231782</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258613</v>
+        <v>0.230578</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.331548</v>
+        <v>0.338732</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237046</v>
+        <v>0.237703</v>
       </c>
       <c r="D36" t="n">
-        <v>0.264587</v>
+        <v>0.23659</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.339324</v>
+        <v>0.347922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.242154</v>
+        <v>0.243127</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270927</v>
+        <v>0.242733</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347216</v>
+        <v>0.356507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247657</v>
+        <v>0.248556</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277185</v>
+        <v>0.248945</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.355675</v>
+        <v>0.366997</v>
       </c>
       <c r="C39" t="n">
-        <v>0.253427</v>
+        <v>0.254008</v>
       </c>
       <c r="D39" t="n">
-        <v>0.28436</v>
+        <v>0.255439</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.364717</v>
+        <v>0.37603</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258408</v>
+        <v>0.260317</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29085</v>
+        <v>0.261401</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.37248</v>
+        <v>0.383591</v>
       </c>
       <c r="C41" t="n">
-        <v>0.263531</v>
+        <v>0.266466</v>
       </c>
       <c r="D41" t="n">
-        <v>0.29803</v>
+        <v>0.267734</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.380912</v>
+        <v>0.392712</v>
       </c>
       <c r="C42" t="n">
-        <v>0.268496</v>
+        <v>0.271389</v>
       </c>
       <c r="D42" t="n">
-        <v>0.303857</v>
+        <v>0.273314</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.390964</v>
+        <v>0.402165</v>
       </c>
       <c r="C43" t="n">
-        <v>0.273525</v>
+        <v>0.277326</v>
       </c>
       <c r="D43" t="n">
-        <v>0.310884</v>
+        <v>0.280153</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.399609</v>
+        <v>0.412036</v>
       </c>
       <c r="C44" t="n">
-        <v>0.279157</v>
+        <v>0.282909</v>
       </c>
       <c r="D44" t="n">
-        <v>0.317819</v>
+        <v>0.286454</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.407903</v>
+        <v>0.420858</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283678</v>
+        <v>0.287586</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323639</v>
+        <v>0.292298</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418472</v>
+        <v>0.432593</v>
       </c>
       <c r="C46" t="n">
-        <v>0.28806</v>
+        <v>0.291981</v>
       </c>
       <c r="D46" t="n">
-        <v>0.328966</v>
+        <v>0.297507</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.306012</v>
+        <v>0.31016</v>
       </c>
       <c r="C47" t="n">
-        <v>0.293263</v>
+        <v>0.296431</v>
       </c>
       <c r="D47" t="n">
-        <v>0.335383</v>
+        <v>0.30293</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.312707</v>
+        <v>0.31791</v>
       </c>
       <c r="C48" t="n">
-        <v>0.298431</v>
+        <v>0.302611</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342933</v>
+        <v>0.309604</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.321981</v>
+        <v>0.327845</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303568</v>
+        <v>0.306633</v>
       </c>
       <c r="D49" t="n">
-        <v>0.352246</v>
+        <v>0.318473</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.330427</v>
+        <v>0.336752</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239809</v>
+        <v>0.240464</v>
       </c>
       <c r="D50" t="n">
-        <v>0.263938</v>
+        <v>0.23563</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.338155</v>
+        <v>0.346555</v>
       </c>
       <c r="C51" t="n">
-        <v>0.245232</v>
+        <v>0.246577</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269874</v>
+        <v>0.243928</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.347253</v>
+        <v>0.355856</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251401</v>
+        <v>0.252824</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277385</v>
+        <v>0.251348</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355304</v>
+        <v>0.364939</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257023</v>
+        <v>0.258966</v>
       </c>
       <c r="D53" t="n">
-        <v>0.284489</v>
+        <v>0.258025</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.364218</v>
+        <v>0.373632</v>
       </c>
       <c r="C54" t="n">
-        <v>0.262222</v>
+        <v>0.265026</v>
       </c>
       <c r="D54" t="n">
-        <v>0.291466</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.372772</v>
+        <v>0.38349</v>
       </c>
       <c r="C55" t="n">
-        <v>0.26778</v>
+        <v>0.271504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298786</v>
+        <v>0.270902</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.381381</v>
+        <v>0.393962</v>
       </c>
       <c r="C56" t="n">
-        <v>0.27338</v>
+        <v>0.277301</v>
       </c>
       <c r="D56" t="n">
-        <v>0.305455</v>
+        <v>0.277176</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.390478</v>
+        <v>0.403381</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2773</v>
+        <v>0.282427</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312424</v>
+        <v>0.283223</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.399419</v>
+        <v>0.412666</v>
       </c>
       <c r="C58" t="n">
-        <v>0.282905</v>
+        <v>0.287588</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318709</v>
+        <v>0.28905</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.407916</v>
+        <v>0.421819</v>
       </c>
       <c r="C59" t="n">
-        <v>0.287638</v>
+        <v>0.292558</v>
       </c>
       <c r="D59" t="n">
-        <v>0.325593</v>
+        <v>0.295005</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.418128</v>
+        <v>0.432612</v>
       </c>
       <c r="C60" t="n">
-        <v>0.292474</v>
+        <v>0.297388</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332252</v>
+        <v>0.301131</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.309089</v>
+        <v>0.313786</v>
       </c>
       <c r="C61" t="n">
-        <v>0.297528</v>
+        <v>0.302193</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3391</v>
+        <v>0.306823</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.321391</v>
+        <v>0.326014</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3023</v>
+        <v>0.306994</v>
       </c>
       <c r="D62" t="n">
-        <v>0.345588</v>
+        <v>0.313081</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.332065</v>
+        <v>0.336893</v>
       </c>
       <c r="C63" t="n">
-        <v>0.308158</v>
+        <v>0.31405</v>
       </c>
       <c r="D63" t="n">
-        <v>0.354328</v>
+        <v>0.320584</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.343539</v>
+        <v>0.347698</v>
       </c>
       <c r="C64" t="n">
-        <v>0.249955</v>
+        <v>0.249271</v>
       </c>
       <c r="D64" t="n">
-        <v>0.277914</v>
+        <v>0.249666</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.351728</v>
+        <v>0.357739</v>
       </c>
       <c r="C65" t="n">
-        <v>0.257276</v>
+        <v>0.258294</v>
       </c>
       <c r="D65" t="n">
-        <v>0.286906</v>
+        <v>0.25798</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.366545</v>
+        <v>0.369517</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262931</v>
+        <v>0.266854</v>
       </c>
       <c r="D66" t="n">
-        <v>0.296969</v>
+        <v>0.266364</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.381035</v>
+        <v>0.380727</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269308</v>
+        <v>0.273933</v>
       </c>
       <c r="D67" t="n">
-        <v>0.306085</v>
+        <v>0.274878</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.392803</v>
+        <v>0.392391</v>
       </c>
       <c r="C68" t="n">
-        <v>0.278245</v>
+        <v>0.283803</v>
       </c>
       <c r="D68" t="n">
-        <v>0.317032</v>
+        <v>0.283734</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.408674</v>
+        <v>0.405082</v>
       </c>
       <c r="C69" t="n">
-        <v>0.285761</v>
+        <v>0.294004</v>
       </c>
       <c r="D69" t="n">
-        <v>0.327415</v>
+        <v>0.292886</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.422784</v>
+        <v>0.419446</v>
       </c>
       <c r="C70" t="n">
-        <v>0.299776</v>
+        <v>0.301993</v>
       </c>
       <c r="D70" t="n">
-        <v>0.339093</v>
+        <v>0.304149</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.438171</v>
+        <v>0.43859</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309366</v>
+        <v>0.311019</v>
       </c>
       <c r="D71" t="n">
-        <v>0.350702</v>
+        <v>0.314105</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.455754</v>
+        <v>0.453433</v>
       </c>
       <c r="C72" t="n">
-        <v>0.320398</v>
+        <v>0.321102</v>
       </c>
       <c r="D72" t="n">
-        <v>0.362551</v>
+        <v>0.324985</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473563</v>
+        <v>0.473203</v>
       </c>
       <c r="C73" t="n">
-        <v>0.331736</v>
+        <v>0.333584</v>
       </c>
       <c r="D73" t="n">
-        <v>0.377807</v>
+        <v>0.337765</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.495798</v>
+        <v>0.493807</v>
       </c>
       <c r="C74" t="n">
-        <v>0.34431</v>
+        <v>0.346368</v>
       </c>
       <c r="D74" t="n">
-        <v>0.392898</v>
+        <v>0.352203</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.519357</v>
+        <v>0.517029</v>
       </c>
       <c r="C75" t="n">
-        <v>0.361986</v>
+        <v>0.363439</v>
       </c>
       <c r="D75" t="n">
-        <v>0.411518</v>
+        <v>0.369589</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.483554</v>
+        <v>0.486542</v>
       </c>
       <c r="C76" t="n">
-        <v>0.381065</v>
+        <v>0.381763</v>
       </c>
       <c r="D76" t="n">
-        <v>0.435353</v>
+        <v>0.390087</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.511833</v>
+        <v>0.513597</v>
       </c>
       <c r="C77" t="n">
-        <v>0.400865</v>
+        <v>0.401674</v>
       </c>
       <c r="D77" t="n">
-        <v>0.460039</v>
+        <v>0.410054</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5395799999999999</v>
+        <v>0.544232</v>
       </c>
       <c r="C78" t="n">
-        <v>0.355075</v>
+        <v>0.375905</v>
       </c>
       <c r="D78" t="n">
-        <v>0.413452</v>
+        <v>0.375233</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5705710000000001</v>
+        <v>0.5760960000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.375075</v>
+        <v>0.398431</v>
       </c>
       <c r="D79" t="n">
-        <v>0.441391</v>
+        <v>0.401244</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.601201</v>
+        <v>0.609522</v>
       </c>
       <c r="C80" t="n">
-        <v>0.397625</v>
+        <v>0.432446</v>
       </c>
       <c r="D80" t="n">
-        <v>0.463287</v>
+        <v>0.424523</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.634085</v>
+        <v>0.644706</v>
       </c>
       <c r="C81" t="n">
-        <v>0.418801</v>
+        <v>0.44844</v>
       </c>
       <c r="D81" t="n">
-        <v>0.487824</v>
+        <v>0.446313</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.66928</v>
+        <v>0.680438</v>
       </c>
       <c r="C82" t="n">
-        <v>0.441108</v>
+        <v>0.472342</v>
       </c>
       <c r="D82" t="n">
-        <v>0.515923</v>
+        <v>0.470363</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7079839999999999</v>
+        <v>0.717492</v>
       </c>
       <c r="C83" t="n">
-        <v>0.463603</v>
+        <v>0.497449</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5431240000000001</v>
+        <v>0.495873</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.739022</v>
+        <v>0.748968</v>
       </c>
       <c r="C84" t="n">
-        <v>0.489533</v>
+        <v>0.5288</v>
       </c>
       <c r="D84" t="n">
-        <v>0.569838</v>
+        <v>0.519657</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.77674</v>
+        <v>0.786721</v>
       </c>
       <c r="C85" t="n">
-        <v>0.514744</v>
+        <v>0.558108</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5975279999999999</v>
+        <v>0.545421</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.817151</v>
+        <v>0.827608</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5403480000000001</v>
+        <v>0.587435</v>
       </c>
       <c r="D86" t="n">
-        <v>0.625885</v>
+        <v>0.571762</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.856692</v>
+        <v>0.8690059999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.568132</v>
+        <v>0.617143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.654558</v>
+        <v>0.5973039999999999</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.899804</v>
+        <v>0.910396</v>
       </c>
       <c r="C88" t="n">
-        <v>0.595463</v>
+        <v>0.646585</v>
       </c>
       <c r="D88" t="n">
-        <v>0.691918</v>
+        <v>0.631726</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.945112</v>
+        <v>0.955187</v>
       </c>
       <c r="C89" t="n">
-        <v>0.624241</v>
+        <v>0.67813</v>
       </c>
       <c r="D89" t="n">
-        <v>0.723247</v>
+        <v>0.661199</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.829213</v>
+        <v>0.862873</v>
       </c>
       <c r="C90" t="n">
-        <v>0.653277</v>
+        <v>0.710962</v>
       </c>
       <c r="D90" t="n">
-        <v>0.746929</v>
+        <v>0.680436</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.85517</v>
+        <v>0.892186</v>
       </c>
       <c r="C91" t="n">
-        <v>0.684715</v>
+        <v>0.745201</v>
       </c>
       <c r="D91" t="n">
-        <v>0.779255</v>
+        <v>0.708803</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8852179999999999</v>
+        <v>0.921938</v>
       </c>
       <c r="C92" t="n">
-        <v>0.575425</v>
+        <v>0.656887</v>
       </c>
       <c r="D92" t="n">
-        <v>0.674388</v>
+        <v>0.631365</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.913498</v>
+        <v>0.9499300000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5950530000000001</v>
+        <v>0.679738</v>
       </c>
       <c r="D93" t="n">
-        <v>0.700231</v>
+        <v>0.656869</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9432160000000001</v>
+        <v>0.9780799999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.616088</v>
+        <v>0.702577</v>
       </c>
       <c r="D94" t="n">
-        <v>0.717152</v>
+        <v>0.671237</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9738520000000001</v>
+        <v>1.00869</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6373</v>
+        <v>0.725725</v>
       </c>
       <c r="D95" t="n">
-        <v>0.753323</v>
+        <v>0.707928</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00226</v>
+        <v>1.03764</v>
       </c>
       <c r="C96" t="n">
-        <v>0.661917</v>
+        <v>0.750161</v>
       </c>
       <c r="D96" t="n">
-        <v>0.779084</v>
+        <v>0.7313809999999999</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.03189</v>
+        <v>1.06474</v>
       </c>
       <c r="C97" t="n">
-        <v>0.685343</v>
+        <v>0.774133</v>
       </c>
       <c r="D97" t="n">
-        <v>0.806519</v>
+        <v>0.757331</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06964</v>
+        <v>1.09685</v>
       </c>
       <c r="C98" t="n">
-        <v>0.708277</v>
+        <v>0.800302</v>
       </c>
       <c r="D98" t="n">
-        <v>0.835345</v>
+        <v>0.781176</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10695</v>
+        <v>1.13291</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7332419999999999</v>
+        <v>0.8250999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.863441</v>
+        <v>0.805644</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14202</v>
+        <v>1.1641</v>
       </c>
       <c r="C100" t="n">
-        <v>0.757991</v>
+        <v>0.851699</v>
       </c>
       <c r="D100" t="n">
-        <v>0.890837</v>
+        <v>0.830132</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16781</v>
+        <v>1.1908</v>
       </c>
       <c r="C101" t="n">
-        <v>0.784728</v>
+        <v>0.878341</v>
       </c>
       <c r="D101" t="n">
-        <v>0.92078</v>
+        <v>0.8554850000000001</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.20472</v>
+        <v>1.22602</v>
       </c>
       <c r="C102" t="n">
-        <v>0.812548</v>
+        <v>0.907492</v>
       </c>
       <c r="D102" t="n">
-        <v>0.951727</v>
+        <v>0.883971</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24259</v>
+        <v>1.26186</v>
       </c>
       <c r="C103" t="n">
-        <v>0.841247</v>
+        <v>0.937433</v>
       </c>
       <c r="D103" t="n">
-        <v>0.984442</v>
+        <v>0.911427</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.28303</v>
+        <v>1.30229</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8710639999999999</v>
+        <v>0.968023</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01676</v>
+        <v>0.939157</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.02643</v>
+        <v>1.07519</v>
       </c>
       <c r="C105" t="n">
-        <v>0.898856</v>
+        <v>0.998702</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04985</v>
+        <v>0.967286</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05077</v>
+        <v>1.10237</v>
       </c>
       <c r="C106" t="n">
-        <v>0.930007</v>
+        <v>1.03165</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08442</v>
+        <v>0.996628</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0762</v>
+        <v>1.12846</v>
       </c>
       <c r="C107" t="n">
-        <v>0.713091</v>
+        <v>0.849233</v>
       </c>
       <c r="D107" t="n">
-        <v>0.894278</v>
+        <v>0.831097</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.09805</v>
+        <v>1.14411</v>
       </c>
       <c r="C108" t="n">
-        <v>0.733935</v>
+        <v>0.868144</v>
       </c>
       <c r="D108" t="n">
-        <v>0.918583</v>
+        <v>0.851774</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.12716</v>
+        <v>1.17498</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7556890000000001</v>
+        <v>0.889671</v>
       </c>
       <c r="D109" t="n">
-        <v>0.946052</v>
+        <v>0.877468</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15351</v>
+        <v>1.1994</v>
       </c>
       <c r="C110" t="n">
-        <v>0.778367</v>
+        <v>0.911795</v>
       </c>
       <c r="D110" t="n">
-        <v>0.971672</v>
+        <v>0.9001440000000001</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1817</v>
+        <v>1.2255</v>
       </c>
       <c r="C111" t="n">
-        <v>0.802268</v>
+        <v>0.935184</v>
       </c>
       <c r="D111" t="n">
-        <v>0.998455</v>
+        <v>0.922174</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.21971</v>
+        <v>1.26287</v>
       </c>
       <c r="C112" t="n">
-        <v>0.827427</v>
+        <v>0.957588</v>
       </c>
       <c r="D112" t="n">
-        <v>1.02916</v>
+        <v>0.948698</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.25239</v>
+        <v>1.29173</v>
       </c>
       <c r="C113" t="n">
-        <v>0.852619</v>
+        <v>0.981007</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05713</v>
+        <v>0.971852</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.28366</v>
+        <v>1.31739</v>
       </c>
       <c r="C114" t="n">
-        <v>0.879296</v>
+        <v>1.00729</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09311</v>
+        <v>1.00621</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.31941</v>
+        <v>1.34937</v>
       </c>
       <c r="C115" t="n">
-        <v>0.90606</v>
+        <v>1.03247</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12522</v>
+        <v>1.03494</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.35543</v>
+        <v>1.3821</v>
       </c>
       <c r="C116" t="n">
-        <v>0.933433</v>
+        <v>1.05899</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1466</v>
+        <v>1.04787</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.39223</v>
+        <v>1.4176</v>
       </c>
       <c r="C117" t="n">
-        <v>0.961982</v>
+        <v>1.08788</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17814</v>
+        <v>1.07368</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.4336</v>
+        <v>1.45321</v>
       </c>
       <c r="C118" t="n">
-        <v>0.990865</v>
+        <v>1.11657</v>
       </c>
       <c r="D118" t="n">
-        <v>1.21478</v>
+        <v>1.10704</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11679</v>
+        <v>1.17177</v>
       </c>
       <c r="C119" t="n">
-        <v>1.02137</v>
+        <v>1.147</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24609</v>
+        <v>1.13217</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276458</v>
+        <v>0.274556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185027</v>
+        <v>0.175337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1431</v>
+        <v>0.13995</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199442</v>
+        <v>0.200723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189819</v>
+        <v>0.17612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14361</v>
+        <v>0.140363</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.20751</v>
+        <v>0.208294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195695</v>
+        <v>0.182916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.148028</v>
+        <v>0.14495</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.214527</v>
+        <v>0.219022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206943</v>
+        <v>0.190763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.153377</v>
+        <v>0.148027</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22158</v>
+        <v>0.225068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211971</v>
+        <v>0.197537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157015</v>
+        <v>0.152434</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228413</v>
+        <v>0.234215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.169382</v>
+        <v>0.163276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.141194</v>
+        <v>0.140294</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235627</v>
+        <v>0.237862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.173687</v>
+        <v>0.16363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.143958</v>
+        <v>0.141026</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.244656</v>
+        <v>0.245026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.178543</v>
+        <v>0.173397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.144193</v>
+        <v>0.140575</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251142</v>
+        <v>0.25527</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18542</v>
+        <v>0.176914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.150254</v>
+        <v>0.147296</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.259207</v>
+        <v>0.265085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18724</v>
+        <v>0.182095</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15078</v>
+        <v>0.146492</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.269363</v>
+        <v>0.274375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.196744</v>
+        <v>0.187388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.156368</v>
+        <v>0.152632</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.275322</v>
+        <v>0.280993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.201026</v>
+        <v>0.195208</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158043</v>
+        <v>0.15393</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.284918</v>
+        <v>0.293747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.207598</v>
+        <v>0.199193</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162941</v>
+        <v>0.157983</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.298844</v>
+        <v>0.30975</v>
       </c>
       <c r="C15" t="n">
-        <v>0.213399</v>
+        <v>0.208786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165258</v>
+        <v>0.166057</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305958</v>
+        <v>0.318863</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2223</v>
+        <v>0.21885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.169878</v>
+        <v>0.167669</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.319669</v>
+        <v>0.331703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.228318</v>
+        <v>0.222291</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172524</v>
+        <v>0.169155</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.235683</v>
+        <v>0.247733</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233678</v>
+        <v>0.230166</v>
       </c>
       <c r="D18" t="n">
-        <v>0.174595</v>
+        <v>0.175504</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243917</v>
+        <v>0.257673</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242757</v>
+        <v>0.24002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.180962</v>
+        <v>0.179894</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249052</v>
+        <v>0.263276</v>
       </c>
       <c r="C20" t="n">
-        <v>0.253467</v>
+        <v>0.252597</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184408</v>
+        <v>0.184722</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255862</v>
+        <v>0.269845</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2032</v>
+        <v>0.201</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169997</v>
+        <v>0.169976</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.260945</v>
+        <v>0.27587</v>
       </c>
       <c r="C22" t="n">
-        <v>0.209827</v>
+        <v>0.207376</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172444</v>
+        <v>0.172812</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.270772</v>
+        <v>0.285229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214604</v>
+        <v>0.211029</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173779</v>
+        <v>0.172082</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.279261</v>
+        <v>0.293125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.218882</v>
+        <v>0.215126</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177897</v>
+        <v>0.176526</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.286514</v>
+        <v>0.301177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224562</v>
+        <v>0.221475</v>
       </c>
       <c r="D25" t="n">
-        <v>0.17974</v>
+        <v>0.178671</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296264</v>
+        <v>0.311563</v>
       </c>
       <c r="C26" t="n">
-        <v>0.231793</v>
+        <v>0.22914</v>
       </c>
       <c r="D26" t="n">
-        <v>0.183612</v>
+        <v>0.183793</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.304893</v>
+        <v>0.321526</v>
       </c>
       <c r="C27" t="n">
-        <v>0.235752</v>
+        <v>0.234054</v>
       </c>
       <c r="D27" t="n">
-        <v>0.186196</v>
+        <v>0.18707</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.316842</v>
+        <v>0.332235</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24079</v>
+        <v>0.238092</v>
       </c>
       <c r="D28" t="n">
-        <v>0.189255</v>
+        <v>0.190022</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.327013</v>
+        <v>0.343589</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246483</v>
+        <v>0.245149</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192483</v>
+        <v>0.19335</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.336337</v>
+        <v>0.354225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255546</v>
+        <v>0.25388</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196358</v>
+        <v>0.197142</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.348636</v>
+        <v>0.366047</v>
       </c>
       <c r="C31" t="n">
-        <v>0.258872</v>
+        <v>0.256521</v>
       </c>
       <c r="D31" t="n">
-        <v>0.199242</v>
+        <v>0.199851</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250798</v>
+        <v>0.267009</v>
       </c>
       <c r="C32" t="n">
-        <v>0.269331</v>
+        <v>0.267327</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203483</v>
+        <v>0.204086</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257349</v>
+        <v>0.274065</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276721</v>
+        <v>0.274953</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207512</v>
+        <v>0.208192</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.263611</v>
+        <v>0.280597</v>
       </c>
       <c r="C34" t="n">
-        <v>0.284543</v>
+        <v>0.282556</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211406</v>
+        <v>0.211206</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.270438</v>
+        <v>0.28751</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214912</v>
+        <v>0.212617</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181576</v>
+        <v>0.181357</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.277106</v>
+        <v>0.293379</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22154</v>
+        <v>0.21947</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184102</v>
+        <v>0.183897</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283872</v>
+        <v>0.300563</v>
       </c>
       <c r="C37" t="n">
-        <v>0.225266</v>
+        <v>0.223528</v>
       </c>
       <c r="D37" t="n">
-        <v>0.18655</v>
+        <v>0.185995</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.29165</v>
+        <v>0.308565</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230796</v>
+        <v>0.227625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.189344</v>
+        <v>0.18808</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.29836</v>
+        <v>0.315479</v>
       </c>
       <c r="C39" t="n">
-        <v>0.236389</v>
+        <v>0.233687</v>
       </c>
       <c r="D39" t="n">
-        <v>0.19223</v>
+        <v>0.191952</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.307689</v>
+        <v>0.324606</v>
       </c>
       <c r="C40" t="n">
-        <v>0.242238</v>
+        <v>0.240405</v>
       </c>
       <c r="D40" t="n">
-        <v>0.195006</v>
+        <v>0.196024</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.317806</v>
+        <v>0.334945</v>
       </c>
       <c r="C41" t="n">
-        <v>0.247515</v>
+        <v>0.245323</v>
       </c>
       <c r="D41" t="n">
-        <v>0.198019</v>
+        <v>0.196886</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327864</v>
+        <v>0.34584</v>
       </c>
       <c r="C42" t="n">
-        <v>0.251616</v>
+        <v>0.249007</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201023</v>
+        <v>0.200358</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.338619</v>
+        <v>0.355771</v>
       </c>
       <c r="C43" t="n">
-        <v>0.258023</v>
+        <v>0.255472</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204748</v>
+        <v>0.204203</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.346957</v>
+        <v>0.365622</v>
       </c>
       <c r="C44" t="n">
-        <v>0.265482</v>
+        <v>0.264338</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207552</v>
+        <v>0.207246</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.358831</v>
+        <v>0.377088</v>
       </c>
       <c r="C45" t="n">
-        <v>0.272069</v>
+        <v>0.270372</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210711</v>
+        <v>0.210364</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.371034</v>
+        <v>0.389725</v>
       </c>
       <c r="C46" t="n">
-        <v>0.279752</v>
+        <v>0.277041</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214754</v>
+        <v>0.213852</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261173</v>
+        <v>0.279825</v>
       </c>
       <c r="C47" t="n">
-        <v>0.28667</v>
+        <v>0.285223</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217983</v>
+        <v>0.217971</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267271</v>
+        <v>0.285882</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294751</v>
+        <v>0.29355</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22217</v>
+        <v>0.222034</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.273663</v>
+        <v>0.292532</v>
       </c>
       <c r="C49" t="n">
-        <v>0.30347</v>
+        <v>0.301111</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225892</v>
+        <v>0.225657</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.280359</v>
+        <v>0.299746</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225459</v>
+        <v>0.223529</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185563</v>
+        <v>0.185094</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.287128</v>
+        <v>0.306139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230502</v>
+        <v>0.228121</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187415</v>
+        <v>0.187476</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294035</v>
+        <v>0.31349</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235667</v>
+        <v>0.233214</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19055</v>
+        <v>0.191029</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.303558</v>
+        <v>0.32245</v>
       </c>
       <c r="C53" t="n">
-        <v>0.242081</v>
+        <v>0.239999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193438</v>
+        <v>0.193982</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.31146</v>
+        <v>0.330991</v>
       </c>
       <c r="C54" t="n">
-        <v>0.24701</v>
+        <v>0.245522</v>
       </c>
       <c r="D54" t="n">
-        <v>0.195946</v>
+        <v>0.196328</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3211</v>
+        <v>0.33974</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253465</v>
+        <v>0.251958</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199867</v>
+        <v>0.199735</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331097</v>
+        <v>0.35077</v>
       </c>
       <c r="C56" t="n">
-        <v>0.258215</v>
+        <v>0.256629</v>
       </c>
       <c r="D56" t="n">
-        <v>0.201881</v>
+        <v>0.202446</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.340436</v>
+        <v>0.359382</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265379</v>
+        <v>0.263664</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205517</v>
+        <v>0.206182</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.350498</v>
+        <v>0.369595</v>
       </c>
       <c r="C58" t="n">
-        <v>0.272622</v>
+        <v>0.27137</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209007</v>
+        <v>0.209551</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.362078</v>
+        <v>0.381531</v>
       </c>
       <c r="C59" t="n">
-        <v>0.278783</v>
+        <v>0.277111</v>
       </c>
       <c r="D59" t="n">
-        <v>0.21181</v>
+        <v>0.212549</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.373168</v>
+        <v>0.392804</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285702</v>
+        <v>0.28421</v>
       </c>
       <c r="D60" t="n">
-        <v>0.216384</v>
+        <v>0.217339</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.270236</v>
+        <v>0.287987</v>
       </c>
       <c r="C61" t="n">
-        <v>0.294292</v>
+        <v>0.292905</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219585</v>
+        <v>0.220211</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.279675</v>
+        <v>0.296453</v>
       </c>
       <c r="C62" t="n">
-        <v>0.303686</v>
+        <v>0.301553</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223966</v>
+        <v>0.224849</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.289251</v>
+        <v>0.307486</v>
       </c>
       <c r="C63" t="n">
-        <v>0.311867</v>
+        <v>0.310431</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227627</v>
+        <v>0.228884</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.301786</v>
+        <v>0.318123</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242785</v>
+        <v>0.24162</v>
       </c>
       <c r="D64" t="n">
-        <v>0.198952</v>
+        <v>0.199327</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.306796</v>
+        <v>0.324681</v>
       </c>
       <c r="C65" t="n">
-        <v>0.250048</v>
+        <v>0.248703</v>
       </c>
       <c r="D65" t="n">
-        <v>0.199367</v>
+        <v>0.200436</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.318522</v>
+        <v>0.3359</v>
       </c>
       <c r="C66" t="n">
-        <v>0.260595</v>
+        <v>0.256938</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203609</v>
+        <v>0.204554</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.331155</v>
+        <v>0.349523</v>
       </c>
       <c r="C67" t="n">
-        <v>0.270207</v>
+        <v>0.265005</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208228</v>
+        <v>0.209209</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.345918</v>
+        <v>0.362552</v>
       </c>
       <c r="C68" t="n">
-        <v>0.277315</v>
+        <v>0.27366</v>
       </c>
       <c r="D68" t="n">
-        <v>0.213105</v>
+        <v>0.213616</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.361184</v>
+        <v>0.377387</v>
       </c>
       <c r="C69" t="n">
-        <v>0.28579</v>
+        <v>0.285255</v>
       </c>
       <c r="D69" t="n">
-        <v>0.218106</v>
+        <v>0.218997</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.378939</v>
+        <v>0.395225</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297589</v>
+        <v>0.294672</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224656</v>
+        <v>0.225473</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.393964</v>
+        <v>0.41412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.311372</v>
+        <v>0.310118</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229548</v>
+        <v>0.229978</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.41751</v>
+        <v>0.436736</v>
       </c>
       <c r="C72" t="n">
-        <v>0.322497</v>
+        <v>0.322514</v>
       </c>
       <c r="D72" t="n">
-        <v>0.235755</v>
+        <v>0.235941</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4374</v>
+        <v>0.460747</v>
       </c>
       <c r="C73" t="n">
-        <v>0.341093</v>
+        <v>0.338712</v>
       </c>
       <c r="D73" t="n">
-        <v>0.243203</v>
+        <v>0.243752</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463302</v>
+        <v>0.486382</v>
       </c>
       <c r="C74" t="n">
-        <v>0.357789</v>
+        <v>0.358767</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248027</v>
+        <v>0.250054</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.491964</v>
+        <v>0.520428</v>
       </c>
       <c r="C75" t="n">
-        <v>0.378587</v>
+        <v>0.386265</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258095</v>
+        <v>0.25981</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.423026</v>
+        <v>0.453335</v>
       </c>
       <c r="C76" t="n">
-        <v>0.40487</v>
+        <v>0.413413</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264808</v>
+        <v>0.268407</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.453715</v>
+        <v>0.487304</v>
       </c>
       <c r="C77" t="n">
-        <v>0.432216</v>
+        <v>0.442703</v>
       </c>
       <c r="D77" t="n">
-        <v>0.274318</v>
+        <v>0.278253</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.483884</v>
+        <v>0.520428</v>
       </c>
       <c r="C78" t="n">
-        <v>0.391082</v>
+        <v>0.393545</v>
       </c>
       <c r="D78" t="n">
-        <v>0.264557</v>
+        <v>0.259327</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.519402</v>
+        <v>0.56346</v>
       </c>
       <c r="C79" t="n">
-        <v>0.416002</v>
+        <v>0.419774</v>
       </c>
       <c r="D79" t="n">
-        <v>0.274178</v>
+        <v>0.271083</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.555128</v>
+        <v>0.601777</v>
       </c>
       <c r="C80" t="n">
-        <v>0.442406</v>
+        <v>0.454453</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288872</v>
+        <v>0.285953</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6019060000000001</v>
+        <v>0.652969</v>
       </c>
       <c r="C81" t="n">
-        <v>0.476639</v>
+        <v>0.487418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305981</v>
+        <v>0.305273</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.644703</v>
+        <v>0.697519</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5075730000000001</v>
+        <v>0.523712</v>
       </c>
       <c r="D82" t="n">
-        <v>0.32495</v>
+        <v>0.325897</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.69528</v>
+        <v>0.752085</v>
       </c>
       <c r="C83" t="n">
-        <v>0.543366</v>
+        <v>0.56192</v>
       </c>
       <c r="D83" t="n">
-        <v>0.339398</v>
+        <v>0.341771</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.74984</v>
+        <v>0.8177990000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.582725</v>
+        <v>0.609509</v>
       </c>
       <c r="D84" t="n">
-        <v>0.362134</v>
+        <v>0.367434</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.802625</v>
+        <v>0.875823</v>
       </c>
       <c r="C85" t="n">
-        <v>0.620478</v>
+        <v>0.650323</v>
       </c>
       <c r="D85" t="n">
-        <v>0.381782</v>
+        <v>0.387825</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.860364</v>
+        <v>0.943672</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6609969999999999</v>
+        <v>0.693662</v>
       </c>
       <c r="D86" t="n">
-        <v>0.401583</v>
+        <v>0.409633</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9225179999999999</v>
+        <v>1.01502</v>
       </c>
       <c r="C87" t="n">
-        <v>0.709964</v>
+        <v>0.749202</v>
       </c>
       <c r="D87" t="n">
-        <v>0.427639</v>
+        <v>0.439595</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.990131</v>
+        <v>1.09324</v>
       </c>
       <c r="C88" t="n">
-        <v>0.752864</v>
+        <v>0.799536</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45398</v>
+        <v>0.468997</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05916</v>
+        <v>1.17011</v>
       </c>
       <c r="C89" t="n">
-        <v>0.803777</v>
+        <v>0.856097</v>
       </c>
       <c r="D89" t="n">
-        <v>0.476833</v>
+        <v>0.493024</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.836133</v>
+        <v>0.961517</v>
       </c>
       <c r="C90" t="n">
-        <v>0.851012</v>
+        <v>0.9086070000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.503169</v>
+        <v>0.523197</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.868719</v>
+        <v>0.99792</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9050859999999999</v>
+        <v>0.969993</v>
       </c>
       <c r="D91" t="n">
-        <v>0.525832</v>
+        <v>0.548721</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.907246</v>
+        <v>1.03936</v>
       </c>
       <c r="C92" t="n">
-        <v>0.728398</v>
+        <v>0.803187</v>
       </c>
       <c r="D92" t="n">
-        <v>0.510124</v>
+        <v>0.546913</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.947811</v>
+        <v>1.07743</v>
       </c>
       <c r="C93" t="n">
-        <v>0.757624</v>
+        <v>0.832129</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5266690000000001</v>
+        <v>0.565175</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.990862</v>
+        <v>1.11754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.788928</v>
+        <v>0.866897</v>
       </c>
       <c r="D94" t="n">
-        <v>0.542565</v>
+        <v>0.583303</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03546</v>
+        <v>1.1668</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819052</v>
+        <v>0.897635</v>
       </c>
       <c r="D95" t="n">
-        <v>0.559801</v>
+        <v>0.6019</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07713</v>
+        <v>1.21329</v>
       </c>
       <c r="C96" t="n">
-        <v>0.852748</v>
+        <v>0.931496</v>
       </c>
       <c r="D96" t="n">
-        <v>0.57779</v>
+        <v>0.622059</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1218</v>
+        <v>1.26521</v>
       </c>
       <c r="C97" t="n">
-        <v>0.885629</v>
+        <v>0.965423</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5992189999999999</v>
+        <v>0.64778</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16865</v>
+        <v>1.32546</v>
       </c>
       <c r="C98" t="n">
-        <v>0.920068</v>
+        <v>1.0022</v>
       </c>
       <c r="D98" t="n">
-        <v>0.61634</v>
+        <v>0.66706</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20989</v>
+        <v>1.38228</v>
       </c>
       <c r="C99" t="n">
-        <v>0.955086</v>
+        <v>1.04264</v>
       </c>
       <c r="D99" t="n">
-        <v>0.63854</v>
+        <v>0.691753</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25695</v>
+        <v>1.44268</v>
       </c>
       <c r="C100" t="n">
-        <v>0.988306</v>
+        <v>1.08416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.660654</v>
+        <v>0.718097</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30975</v>
+        <v>1.50661</v>
       </c>
       <c r="C101" t="n">
-        <v>1.02038</v>
+        <v>1.12845</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6847800000000001</v>
+        <v>0.745494</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.36564</v>
+        <v>1.57149</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05782</v>
+        <v>1.17491</v>
       </c>
       <c r="D102" t="n">
-        <v>0.710166</v>
+        <v>0.77263</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.42805</v>
+        <v>1.63997</v>
       </c>
       <c r="C103" t="n">
-        <v>1.09946</v>
+        <v>1.22626</v>
       </c>
       <c r="D103" t="n">
-        <v>0.730461</v>
+        <v>0.796854</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.49654</v>
+        <v>1.71678</v>
       </c>
       <c r="C104" t="n">
-        <v>1.14258</v>
+        <v>1.27809</v>
       </c>
       <c r="D104" t="n">
-        <v>0.757715</v>
+        <v>0.827804</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.03002</v>
+        <v>1.22586</v>
       </c>
       <c r="C105" t="n">
-        <v>1.18831</v>
+        <v>1.33562</v>
       </c>
       <c r="D105" t="n">
-        <v>0.782904</v>
+        <v>0.858701</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0663</v>
+        <v>1.26825</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23631</v>
+        <v>1.39203</v>
       </c>
       <c r="D106" t="n">
-        <v>0.811897</v>
+        <v>0.890779</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.10514</v>
+        <v>1.31106</v>
       </c>
       <c r="C107" t="n">
-        <v>0.888856</v>
+        <v>1.02239</v>
       </c>
       <c r="D107" t="n">
-        <v>0.696649</v>
+        <v>0.799587</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.14271</v>
+        <v>1.35563</v>
       </c>
       <c r="C108" t="n">
-        <v>0.918498</v>
+        <v>1.05577</v>
       </c>
       <c r="D108" t="n">
-        <v>0.714845</v>
+        <v>0.820154</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1837</v>
+        <v>1.4005</v>
       </c>
       <c r="C109" t="n">
-        <v>0.945292</v>
+        <v>1.08916</v>
       </c>
       <c r="D109" t="n">
-        <v>0.732776</v>
+        <v>0.840032</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23002</v>
+        <v>1.45372</v>
       </c>
       <c r="C110" t="n">
-        <v>0.974661</v>
+        <v>1.12151</v>
       </c>
       <c r="D110" t="n">
-        <v>0.752292</v>
+        <v>0.860637</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.27722</v>
+        <v>1.50343</v>
       </c>
       <c r="C111" t="n">
-        <v>1.00812</v>
+        <v>1.15658</v>
       </c>
       <c r="D111" t="n">
-        <v>0.772006</v>
+        <v>0.881901</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.32517</v>
+        <v>1.55949</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04439</v>
+        <v>1.19764</v>
       </c>
       <c r="D112" t="n">
-        <v>0.78954</v>
+        <v>0.8997039999999999</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.37948</v>
+        <v>1.62112</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07926</v>
+        <v>1.23855</v>
       </c>
       <c r="D113" t="n">
-        <v>0.810317</v>
+        <v>0.924566</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.43381</v>
+        <v>1.67915</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11473</v>
+        <v>1.27612</v>
       </c>
       <c r="D114" t="n">
-        <v>0.830427</v>
+        <v>0.9455209999999999</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49101</v>
+        <v>1.74272</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15465</v>
+        <v>1.32471</v>
       </c>
       <c r="D115" t="n">
-        <v>0.851729</v>
+        <v>0.966174</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.55204</v>
+        <v>1.80875</v>
       </c>
       <c r="C116" t="n">
-        <v>1.19685</v>
+        <v>1.3706</v>
       </c>
       <c r="D116" t="n">
-        <v>0.872835</v>
+        <v>0.991343</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.61723</v>
+        <v>1.88213</v>
       </c>
       <c r="C117" t="n">
-        <v>1.24099</v>
+        <v>1.4197</v>
       </c>
       <c r="D117" t="n">
-        <v>0.898949</v>
+        <v>1.01797</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.68328</v>
+        <v>1.95596</v>
       </c>
       <c r="C118" t="n">
-        <v>1.29116</v>
+        <v>1.4768</v>
       </c>
       <c r="D118" t="n">
-        <v>0.923192</v>
+        <v>1.04173</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.11344</v>
+        <v>1.33874</v>
       </c>
       <c r="C119" t="n">
-        <v>1.33768</v>
+        <v>1.52982</v>
       </c>
       <c r="D119" t="n">
-        <v>0.946188</v>
+        <v>1.06528</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5978019999999999</v>
+        <v>0.605334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.403069</v>
+        <v>0.386102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252164</v>
+        <v>0.248589</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.616206</v>
+        <v>0.627097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.424136</v>
+        <v>0.397141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.256398</v>
+        <v>0.253659</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.64445</v>
+        <v>0.655201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.441064</v>
+        <v>0.413293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.265632</v>
+        <v>0.260279</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.674368</v>
+        <v>0.682665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.461371</v>
+        <v>0.435296</v>
       </c>
       <c r="D5" t="n">
-        <v>0.274776</v>
+        <v>0.267743</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.698188</v>
+        <v>0.700581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.479213</v>
+        <v>0.447519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28616</v>
+        <v>0.277849</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.720131</v>
+        <v>0.731803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.510387</v>
+        <v>0.468085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.289403</v>
+        <v>0.281135</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.756203</v>
+        <v>0.758484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.528483</v>
+        <v>0.487875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297517</v>
+        <v>0.285964</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.785004</v>
+        <v>0.783017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.555451</v>
+        <v>0.513814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304212</v>
+        <v>0.294631</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8265169999999999</v>
+        <v>0.817668</v>
       </c>
       <c r="C10" t="n">
-        <v>0.582887</v>
+        <v>0.552736</v>
       </c>
       <c r="D10" t="n">
-        <v>0.319574</v>
+        <v>0.305534</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.854044</v>
+        <v>0.849367</v>
       </c>
       <c r="C11" t="n">
-        <v>0.400241</v>
+        <v>0.37684</v>
       </c>
       <c r="D11" t="n">
-        <v>0.240228</v>
+        <v>0.231225</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.541748</v>
+        <v>0.541215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.417262</v>
+        <v>0.386508</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253387</v>
+        <v>0.240633</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.568431</v>
+        <v>0.564936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.437213</v>
+        <v>0.414674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257046</v>
+        <v>0.246143</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.593181</v>
+        <v>0.592771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.455021</v>
+        <v>0.436236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262806</v>
+        <v>0.253084</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.616909</v>
+        <v>0.623413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.482625</v>
+        <v>0.464184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.273769</v>
+        <v>0.265541</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.641207</v>
+        <v>0.6527770000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5009209999999999</v>
+        <v>0.488389</v>
       </c>
       <c r="D16" t="n">
-        <v>0.281442</v>
+        <v>0.271627</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.674242</v>
+        <v>0.689366</v>
       </c>
       <c r="C17" t="n">
-        <v>0.528233</v>
+        <v>0.519517</v>
       </c>
       <c r="D17" t="n">
-        <v>0.292951</v>
+        <v>0.286089</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.704747</v>
+        <v>0.716539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.557798</v>
+        <v>0.550022</v>
       </c>
       <c r="D18" t="n">
-        <v>0.300909</v>
+        <v>0.293801</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.741155</v>
+        <v>0.7603799999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.580331</v>
+        <v>0.580009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.309785</v>
+        <v>0.307012</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.774747</v>
+        <v>0.793627</v>
       </c>
       <c r="C20" t="n">
-        <v>0.611093</v>
+        <v>0.610022</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322538</v>
+        <v>0.315644</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.81482</v>
+        <v>0.836148</v>
       </c>
       <c r="C21" t="n">
-        <v>0.64272</v>
+        <v>0.649227</v>
       </c>
       <c r="D21" t="n">
-        <v>0.336049</v>
+        <v>0.327766</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.857433</v>
+        <v>0.876713</v>
       </c>
       <c r="C22" t="n">
-        <v>0.677152</v>
+        <v>0.68155</v>
       </c>
       <c r="D22" t="n">
-        <v>0.348911</v>
+        <v>0.339407</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9017579999999999</v>
+        <v>0.922179</v>
       </c>
       <c r="C23" t="n">
-        <v>0.709392</v>
+        <v>0.717535</v>
       </c>
       <c r="D23" t="n">
-        <v>0.355618</v>
+        <v>0.347653</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.944063</v>
+        <v>0.967114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.741278</v>
+        <v>0.7478089999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.368113</v>
+        <v>0.365504</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.990899</v>
+        <v>1.0087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.78012</v>
+        <v>0.783276</v>
       </c>
       <c r="D25" t="n">
-        <v>0.382727</v>
+        <v>0.374465</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.04119</v>
+        <v>1.06149</v>
       </c>
       <c r="C26" t="n">
-        <v>0.495066</v>
+        <v>0.503586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279859</v>
+        <v>0.280824</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658846</v>
+        <v>0.677239</v>
       </c>
       <c r="C27" t="n">
-        <v>0.515992</v>
+        <v>0.526104</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289293</v>
+        <v>0.290789</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.687678</v>
+        <v>0.706287</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5413</v>
+        <v>0.560022</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297904</v>
+        <v>0.298802</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.721951</v>
+        <v>0.7414770000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5651119999999999</v>
+        <v>0.585722</v>
       </c>
       <c r="D29" t="n">
-        <v>0.309421</v>
+        <v>0.310873</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.757871</v>
+        <v>0.77721</v>
       </c>
       <c r="C30" t="n">
-        <v>0.596855</v>
+        <v>0.61528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.321067</v>
+        <v>0.319089</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.795042</v>
+        <v>0.814566</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6255270000000001</v>
+        <v>0.645918</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326017</v>
+        <v>0.327764</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.833928</v>
+        <v>0.852583</v>
       </c>
       <c r="C32" t="n">
-        <v>0.657788</v>
+        <v>0.678809</v>
       </c>
       <c r="D32" t="n">
-        <v>0.339998</v>
+        <v>0.336898</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8754420000000001</v>
+        <v>0.890324</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6870579999999999</v>
+        <v>0.710213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.348676</v>
+        <v>0.350696</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.916521</v>
+        <v>0.930827</v>
       </c>
       <c r="C34" t="n">
-        <v>0.723238</v>
+        <v>0.747149</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357382</v>
+        <v>0.359284</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.957906</v>
+        <v>0.971825</v>
       </c>
       <c r="C35" t="n">
-        <v>0.758152</v>
+        <v>0.777384</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366698</v>
+        <v>0.366864</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.998969</v>
+        <v>1.01107</v>
       </c>
       <c r="C36" t="n">
-        <v>0.788753</v>
+        <v>0.812052</v>
       </c>
       <c r="D36" t="n">
-        <v>0.384459</v>
+        <v>0.378115</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.04568</v>
+        <v>1.06021</v>
       </c>
       <c r="C37" t="n">
-        <v>0.82557</v>
+        <v>0.850036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.394086</v>
+        <v>0.391485</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.08965</v>
+        <v>1.09844</v>
       </c>
       <c r="C38" t="n">
-        <v>0.869058</v>
+        <v>0.886808</v>
       </c>
       <c r="D38" t="n">
-        <v>0.404926</v>
+        <v>0.405335</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.14001</v>
+        <v>1.14874</v>
       </c>
       <c r="C39" t="n">
-        <v>0.904233</v>
+        <v>0.920248</v>
       </c>
       <c r="D39" t="n">
-        <v>0.419242</v>
+        <v>0.420875</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.18057</v>
+        <v>1.1857</v>
       </c>
       <c r="C40" t="n">
-        <v>0.548688</v>
+        <v>0.5582549999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.317244</v>
+        <v>0.315063</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.713239</v>
+        <v>0.7312959999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.567085</v>
+        <v>0.5815</v>
       </c>
       <c r="D41" t="n">
-        <v>0.326683</v>
+        <v>0.323553</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.742023</v>
+        <v>0.760487</v>
       </c>
       <c r="C42" t="n">
-        <v>0.59273</v>
+        <v>0.605924</v>
       </c>
       <c r="D42" t="n">
-        <v>0.334914</v>
+        <v>0.333216</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.778158</v>
+        <v>0.794712</v>
       </c>
       <c r="C43" t="n">
-        <v>0.623638</v>
+        <v>0.632169</v>
       </c>
       <c r="D43" t="n">
-        <v>0.346969</v>
+        <v>0.346111</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.813131</v>
+        <v>0.829144</v>
       </c>
       <c r="C44" t="n">
-        <v>0.65279</v>
+        <v>0.6653520000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357333</v>
+        <v>0.357759</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.849224</v>
+        <v>0.864194</v>
       </c>
       <c r="C45" t="n">
-        <v>0.679964</v>
+        <v>0.69668</v>
       </c>
       <c r="D45" t="n">
-        <v>0.367776</v>
+        <v>0.370461</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.891603</v>
+        <v>0.904147</v>
       </c>
       <c r="C46" t="n">
-        <v>0.71397</v>
+        <v>0.729696</v>
       </c>
       <c r="D46" t="n">
-        <v>0.377522</v>
+        <v>0.377039</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.931909</v>
+        <v>0.94308</v>
       </c>
       <c r="C47" t="n">
-        <v>0.742891</v>
+        <v>0.764972</v>
       </c>
       <c r="D47" t="n">
-        <v>0.387593</v>
+        <v>0.388604</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.972507</v>
+        <v>0.983851</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7773640000000001</v>
+        <v>0.797228</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401153</v>
+        <v>0.401367</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01333</v>
+        <v>1.02194</v>
       </c>
       <c r="C49" t="n">
-        <v>0.813542</v>
+        <v>0.8344009999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412021</v>
+        <v>0.413565</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.05579</v>
+        <v>1.06267</v>
       </c>
       <c r="C50" t="n">
-        <v>0.852864</v>
+        <v>0.874814</v>
       </c>
       <c r="D50" t="n">
-        <v>0.42484</v>
+        <v>0.425502</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.10128</v>
+        <v>1.10789</v>
       </c>
       <c r="C51" t="n">
-        <v>0.884355</v>
+        <v>0.907</v>
       </c>
       <c r="D51" t="n">
-        <v>0.435369</v>
+        <v>0.437044</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.14571</v>
+        <v>1.15106</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9281430000000001</v>
+        <v>0.9464900000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.448737</v>
+        <v>0.449023</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18961</v>
+        <v>1.1936</v>
       </c>
       <c r="C53" t="n">
-        <v>0.96483</v>
+        <v>0.982388</v>
       </c>
       <c r="D53" t="n">
-        <v>0.459466</v>
+        <v>0.460591</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.23569</v>
+        <v>1.23829</v>
       </c>
       <c r="C54" t="n">
-        <v>0.575658</v>
+        <v>0.583409</v>
       </c>
       <c r="D54" t="n">
-        <v>0.34078</v>
+        <v>0.342271</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2795</v>
+        <v>1.28436</v>
       </c>
       <c r="C55" t="n">
-        <v>0.598299</v>
+        <v>0.607286</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348982</v>
+        <v>0.348444</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7560249999999999</v>
+        <v>0.772919</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6230250000000001</v>
+        <v>0.634677</v>
       </c>
       <c r="D56" t="n">
-        <v>0.359282</v>
+        <v>0.358341</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.790004</v>
+        <v>0.805145</v>
       </c>
       <c r="C57" t="n">
-        <v>0.647035</v>
+        <v>0.661614</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369579</v>
+        <v>0.370655</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.823931</v>
+        <v>0.83919</v>
       </c>
       <c r="C58" t="n">
-        <v>0.677721</v>
+        <v>0.691806</v>
       </c>
       <c r="D58" t="n">
-        <v>0.378743</v>
+        <v>0.379513</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.85875</v>
+        <v>0.87212</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708326</v>
+        <v>0.7260529999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.392474</v>
+        <v>0.393625</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.898848</v>
+        <v>0.913458</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7386</v>
+        <v>0.75843</v>
       </c>
       <c r="D60" t="n">
-        <v>0.402791</v>
+        <v>0.403744</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9389380000000001</v>
+        <v>0.951985</v>
       </c>
       <c r="C61" t="n">
-        <v>0.771693</v>
+        <v>0.792585</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412665</v>
+        <v>0.412604</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9815160000000001</v>
+        <v>0.990397</v>
       </c>
       <c r="C62" t="n">
-        <v>0.810562</v>
+        <v>0.830813</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424353</v>
+        <v>0.425957</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.02991</v>
+        <v>1.03617</v>
       </c>
       <c r="C63" t="n">
-        <v>0.845295</v>
+        <v>0.865652</v>
       </c>
       <c r="D63" t="n">
-        <v>0.435123</v>
+        <v>0.434231</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.07568</v>
+        <v>1.0802</v>
       </c>
       <c r="C64" t="n">
-        <v>0.884588</v>
+        <v>0.902601</v>
       </c>
       <c r="D64" t="n">
-        <v>0.448425</v>
+        <v>0.448305</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.12113</v>
+        <v>1.12293</v>
       </c>
       <c r="C65" t="n">
-        <v>0.922591</v>
+        <v>0.941964</v>
       </c>
       <c r="D65" t="n">
-        <v>0.461911</v>
+        <v>0.462107</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16929</v>
+        <v>1.16641</v>
       </c>
       <c r="C66" t="n">
-        <v>0.965658</v>
+        <v>0.978203</v>
       </c>
       <c r="D66" t="n">
-        <v>0.475284</v>
+        <v>0.474343</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.21603</v>
+        <v>1.212</v>
       </c>
       <c r="C67" t="n">
-        <v>1.00177</v>
+        <v>1.01719</v>
       </c>
       <c r="D67" t="n">
-        <v>0.488223</v>
+        <v>0.487931</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.26788</v>
+        <v>1.25738</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593186</v>
+        <v>0.601512</v>
       </c>
       <c r="D68" t="n">
-        <v>0.350712</v>
+        <v>0.35096</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.3376</v>
+        <v>1.32689</v>
       </c>
       <c r="C69" t="n">
-        <v>0.632095</v>
+        <v>0.643718</v>
       </c>
       <c r="D69" t="n">
-        <v>0.364948</v>
+        <v>0.365026</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.811671</v>
+        <v>0.818952</v>
       </c>
       <c r="C70" t="n">
-        <v>0.668333</v>
+        <v>0.687322</v>
       </c>
       <c r="D70" t="n">
-        <v>0.380828</v>
+        <v>0.380649</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.863746</v>
+        <v>0.873679</v>
       </c>
       <c r="C71" t="n">
-        <v>0.715941</v>
+        <v>0.730257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.392676</v>
+        <v>0.391241</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.921952</v>
+        <v>0.926193</v>
       </c>
       <c r="C72" t="n">
-        <v>0.757131</v>
+        <v>0.776767</v>
       </c>
       <c r="D72" t="n">
-        <v>0.407055</v>
+        <v>0.406833</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.984768</v>
+        <v>0.978275</v>
       </c>
       <c r="C73" t="n">
-        <v>0.81157</v>
+        <v>0.827484</v>
       </c>
       <c r="D73" t="n">
-        <v>0.426317</v>
+        <v>0.423695</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.05103</v>
+        <v>1.05174</v>
       </c>
       <c r="C74" t="n">
-        <v>0.86798</v>
+        <v>0.886761</v>
       </c>
       <c r="D74" t="n">
-        <v>0.444297</v>
+        <v>0.441236</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.11988</v>
+        <v>1.11995</v>
       </c>
       <c r="C75" t="n">
-        <v>0.926087</v>
+        <v>0.952411</v>
       </c>
       <c r="D75" t="n">
-        <v>0.459343</v>
+        <v>0.45772</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.20117</v>
+        <v>1.20724</v>
       </c>
       <c r="C76" t="n">
-        <v>0.994521</v>
+        <v>1.03365</v>
       </c>
       <c r="D76" t="n">
-        <v>0.478268</v>
+        <v>0.476442</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28963</v>
+        <v>1.29568</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06791</v>
+        <v>1.11414</v>
       </c>
       <c r="D77" t="n">
-        <v>0.494524</v>
+        <v>0.494697</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40327</v>
+        <v>1.40709</v>
       </c>
       <c r="C78" t="n">
-        <v>1.16289</v>
+        <v>1.21681</v>
       </c>
       <c r="D78" t="n">
-        <v>0.528099</v>
+        <v>0.525737</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.53007</v>
+        <v>1.56297</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27001</v>
+        <v>1.35586</v>
       </c>
       <c r="D79" t="n">
-        <v>0.555148</v>
+        <v>0.559271</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.66738</v>
+        <v>1.70322</v>
       </c>
       <c r="C80" t="n">
-        <v>1.39284</v>
+        <v>1.47631</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5850340000000001</v>
+        <v>0.594958</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.83104</v>
+        <v>1.87625</v>
       </c>
       <c r="C81" t="n">
-        <v>1.53466</v>
+        <v>1.63264</v>
       </c>
       <c r="D81" t="n">
-        <v>0.624454</v>
+        <v>0.633499</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.0171</v>
+        <v>2.07588</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70557</v>
+        <v>1.81768</v>
       </c>
       <c r="D82" t="n">
-        <v>0.649744</v>
+        <v>0.65834</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.23233</v>
+        <v>2.2742</v>
       </c>
       <c r="C83" t="n">
-        <v>1.09235</v>
+        <v>1.16883</v>
       </c>
       <c r="D83" t="n">
-        <v>0.499475</v>
+        <v>0.513943</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.48889</v>
+        <v>2.55276</v>
       </c>
       <c r="C84" t="n">
-        <v>1.20097</v>
+        <v>1.28927</v>
       </c>
       <c r="D84" t="n">
-        <v>0.540747</v>
+        <v>0.555647</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.61486</v>
+        <v>1.69008</v>
       </c>
       <c r="C85" t="n">
-        <v>1.33751</v>
+        <v>1.45217</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5848680000000001</v>
+        <v>0.605696</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.79339</v>
+        <v>1.88179</v>
       </c>
       <c r="C86" t="n">
-        <v>1.49168</v>
+        <v>1.62951</v>
       </c>
       <c r="D86" t="n">
-        <v>0.622798</v>
+        <v>0.648821</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.99049</v>
+        <v>2.08549</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65256</v>
+        <v>1.81792</v>
       </c>
       <c r="D87" t="n">
-        <v>0.681256</v>
+        <v>0.70669</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.20102</v>
+        <v>2.31598</v>
       </c>
       <c r="C88" t="n">
-        <v>1.84489</v>
+        <v>2.03082</v>
       </c>
       <c r="D88" t="n">
-        <v>0.73272</v>
+        <v>0.765469</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.42878</v>
+        <v>2.55807</v>
       </c>
       <c r="C89" t="n">
-        <v>2.03625</v>
+        <v>2.25288</v>
       </c>
       <c r="D89" t="n">
-        <v>0.792567</v>
+        <v>0.839521</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.66651</v>
+        <v>2.81016</v>
       </c>
       <c r="C90" t="n">
-        <v>2.24188</v>
+        <v>2.48981</v>
       </c>
       <c r="D90" t="n">
-        <v>0.856666</v>
+        <v>0.9054990000000001</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.92681</v>
+        <v>3.09015</v>
       </c>
       <c r="C91" t="n">
-        <v>2.46213</v>
+        <v>2.74211</v>
       </c>
       <c r="D91" t="n">
-        <v>0.906178</v>
+        <v>0.964722</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.19165</v>
+        <v>3.3849</v>
       </c>
       <c r="C92" t="n">
-        <v>2.71179</v>
+        <v>3.01185</v>
       </c>
       <c r="D92" t="n">
-        <v>0.989166</v>
+        <v>1.05408</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.49304</v>
+        <v>3.69494</v>
       </c>
       <c r="C93" t="n">
-        <v>2.95756</v>
+        <v>3.29689</v>
       </c>
       <c r="D93" t="n">
-        <v>1.07062</v>
+        <v>1.14607</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.79385</v>
+        <v>4.00358</v>
       </c>
       <c r="C94" t="n">
-        <v>3.22585</v>
+        <v>3.58184</v>
       </c>
       <c r="D94" t="n">
-        <v>1.15158</v>
+        <v>1.23989</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.10898</v>
+        <v>4.31155</v>
       </c>
       <c r="C95" t="n">
-        <v>3.50637</v>
+        <v>3.85238</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22398</v>
+        <v>1.32474</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.4316</v>
+        <v>4.60762</v>
       </c>
       <c r="C96" t="n">
-        <v>3.82042</v>
+        <v>4.14448</v>
       </c>
       <c r="D96" t="n">
-        <v>1.29382</v>
+        <v>1.4058</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.76919</v>
+        <v>4.9298</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14433</v>
+        <v>2.41382</v>
       </c>
       <c r="D97" t="n">
-        <v>0.937347</v>
+        <v>1.02502</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.06499</v>
+        <v>5.29231</v>
       </c>
       <c r="C98" t="n">
-        <v>2.284</v>
+        <v>2.58376</v>
       </c>
       <c r="D98" t="n">
-        <v>0.995884</v>
+        <v>1.093</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.8533</v>
+        <v>3.13806</v>
       </c>
       <c r="C99" t="n">
-        <v>2.41988</v>
+        <v>2.77356</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05178</v>
+        <v>1.15772</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.04091</v>
+        <v>3.35332</v>
       </c>
       <c r="C100" t="n">
-        <v>2.56357</v>
+        <v>2.97425</v>
       </c>
       <c r="D100" t="n">
-        <v>1.10017</v>
+        <v>1.21202</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.2421</v>
+        <v>3.5778</v>
       </c>
       <c r="C101" t="n">
-        <v>2.73495</v>
+        <v>3.1886</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17017</v>
+        <v>1.29182</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.47361</v>
+        <v>3.8127</v>
       </c>
       <c r="C102" t="n">
-        <v>2.91439</v>
+        <v>3.41646</v>
       </c>
       <c r="D102" t="n">
-        <v>1.2187</v>
+        <v>1.34685</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.69639</v>
+        <v>4.05457</v>
       </c>
       <c r="C103" t="n">
-        <v>3.11218</v>
+        <v>3.66015</v>
       </c>
       <c r="D103" t="n">
-        <v>1.28826</v>
+        <v>1.42712</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.94406</v>
+        <v>4.31369</v>
       </c>
       <c r="C104" t="n">
-        <v>3.32999</v>
+        <v>3.92069</v>
       </c>
       <c r="D104" t="n">
-        <v>1.34497</v>
+        <v>1.49216</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.21048</v>
+        <v>4.59227</v>
       </c>
       <c r="C105" t="n">
-        <v>3.55749</v>
+        <v>4.18729</v>
       </c>
       <c r="D105" t="n">
-        <v>1.43823</v>
+        <v>1.59317</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.48985</v>
+        <v>5.74769</v>
       </c>
       <c r="C106" t="n">
-        <v>3.81096</v>
+        <v>4.45567</v>
       </c>
       <c r="D106" t="n">
-        <v>1.48659</v>
+        <v>1.62508</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.80219</v>
+        <v>5.07747</v>
       </c>
       <c r="C107" t="n">
-        <v>4.07706</v>
+        <v>4.64208</v>
       </c>
       <c r="D107" t="n">
-        <v>1.56614</v>
+        <v>1.7109</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.1078</v>
+        <v>5.37144</v>
       </c>
       <c r="C108" t="n">
-        <v>4.36728</v>
+        <v>4.93626</v>
       </c>
       <c r="D108" t="n">
-        <v>1.64726</v>
+        <v>1.79714</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.43012</v>
+        <v>5.70476</v>
       </c>
       <c r="C109" t="n">
-        <v>4.66004</v>
+        <v>5.24659</v>
       </c>
       <c r="D109" t="n">
-        <v>1.71827</v>
+        <v>1.87627</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.75954</v>
+        <v>6.04054</v>
       </c>
       <c r="C110" t="n">
-        <v>4.96684</v>
+        <v>5.5515</v>
       </c>
       <c r="D110" t="n">
-        <v>1.81158</v>
+        <v>1.98007</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.11821</v>
+        <v>6.38647</v>
       </c>
       <c r="C111" t="n">
-        <v>2.64665</v>
+        <v>3.04665</v>
       </c>
       <c r="D111" t="n">
-        <v>1.32273</v>
+        <v>1.42884</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.47572</v>
+        <v>6.76387</v>
       </c>
       <c r="C112" t="n">
-        <v>2.79656</v>
+        <v>3.24165</v>
       </c>
       <c r="D112" t="n">
-        <v>1.38447</v>
+        <v>1.49902</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.82324</v>
+        <v>7.14794</v>
       </c>
       <c r="C113" t="n">
-        <v>2.96119</v>
+        <v>3.43354</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41655</v>
+        <v>1.534</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.73068</v>
+        <v>4.06503</v>
       </c>
       <c r="C114" t="n">
-        <v>3.1429</v>
+        <v>3.65361</v>
       </c>
       <c r="D114" t="n">
-        <v>1.47967</v>
+        <v>1.60747</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.95327</v>
+        <v>4.2851</v>
       </c>
       <c r="C115" t="n">
-        <v>3.31754</v>
+        <v>3.86444</v>
       </c>
       <c r="D115" t="n">
-        <v>1.56442</v>
+        <v>1.69395</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.18105</v>
+        <v>4.51749</v>
       </c>
       <c r="C116" t="n">
-        <v>3.53108</v>
+        <v>4.10927</v>
       </c>
       <c r="D116" t="n">
-        <v>1.60546</v>
+        <v>1.7383</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.42398</v>
+        <v>4.76778</v>
       </c>
       <c r="C117" t="n">
-        <v>3.75116</v>
+        <v>4.35469</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68036</v>
+        <v>1.82689</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.68672</v>
+        <v>5.02005</v>
       </c>
       <c r="C118" t="n">
-        <v>3.99191</v>
+        <v>4.62437</v>
       </c>
       <c r="D118" t="n">
-        <v>1.74159</v>
+        <v>1.88937</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.96115</v>
+        <v>5.29882</v>
       </c>
       <c r="C119" t="n">
-        <v>4.24489</v>
+        <v>4.90874</v>
       </c>
       <c r="D119" t="n">
-        <v>1.8151</v>
+        <v>1.97215</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.352524</v>
+        <v>0.3516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22791</v>
+        <v>0.228636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223705</v>
+        <v>0.22382</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.260123</v>
+        <v>0.26267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22861</v>
+        <v>0.229833</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226815</v>
+        <v>0.226321</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267877</v>
+        <v>0.271323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233485</v>
+        <v>0.234815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230866</v>
+        <v>0.232783</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.275606</v>
+        <v>0.280613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238395</v>
+        <v>0.238946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237544</v>
+        <v>0.23754</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.285435</v>
+        <v>0.289606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243709</v>
+        <v>0.245205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.243086</v>
+        <v>0.242803</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.295908</v>
+        <v>0.297989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202129</v>
+        <v>0.203796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201791</v>
+        <v>0.203357</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.303208</v>
+        <v>0.306273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208085</v>
+        <v>0.210245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209577</v>
+        <v>0.21062</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.311963</v>
+        <v>0.315166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.214552</v>
+        <v>0.214148</v>
       </c>
       <c r="D9" t="n">
-        <v>0.214545</v>
+        <v>0.215667</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.321406</v>
+        <v>0.324207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220127</v>
+        <v>0.219735</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22048</v>
+        <v>0.221511</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.332273</v>
+        <v>0.333467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225537</v>
+        <v>0.226244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22637</v>
+        <v>0.228003</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.342767</v>
+        <v>0.343513</v>
       </c>
       <c r="C12" t="n">
-        <v>0.231689</v>
+        <v>0.232926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.235168</v>
+        <v>0.236284</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.351111</v>
+        <v>0.351689</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236285</v>
+        <v>0.238179</v>
       </c>
       <c r="D13" t="n">
-        <v>0.241388</v>
+        <v>0.243031</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.360437</v>
+        <v>0.361556</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241337</v>
+        <v>0.243586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.246953</v>
+        <v>0.248339</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.371144</v>
+        <v>0.372608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.246715</v>
+        <v>0.24972</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252415</v>
+        <v>0.254933</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.381378</v>
+        <v>0.383074</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251833</v>
+        <v>0.25419</v>
       </c>
       <c r="D16" t="n">
-        <v>0.258942</v>
+        <v>0.258976</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.393282</v>
+        <v>0.395191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.258235</v>
+        <v>0.260541</v>
       </c>
       <c r="D17" t="n">
-        <v>0.265281</v>
+        <v>0.267193</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.294361</v>
+        <v>0.295494</v>
       </c>
       <c r="C18" t="n">
-        <v>0.261347</v>
+        <v>0.26337</v>
       </c>
       <c r="D18" t="n">
-        <v>0.268266</v>
+        <v>0.269908</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.303362</v>
+        <v>0.304267</v>
       </c>
       <c r="C19" t="n">
-        <v>0.266368</v>
+        <v>0.268064</v>
       </c>
       <c r="D19" t="n">
-        <v>0.275422</v>
+        <v>0.277224</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.312761</v>
+        <v>0.313893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.273851</v>
+        <v>0.276831</v>
       </c>
       <c r="D20" t="n">
-        <v>0.28249</v>
+        <v>0.285068</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.322619</v>
+        <v>0.32424</v>
       </c>
       <c r="C21" t="n">
-        <v>0.219232</v>
+        <v>0.223557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.22225</v>
+        <v>0.224027</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.332306</v>
+        <v>0.333563</v>
       </c>
       <c r="C22" t="n">
-        <v>0.226359</v>
+        <v>0.229942</v>
       </c>
       <c r="D22" t="n">
-        <v>0.230418</v>
+        <v>0.232545</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.342427</v>
+        <v>0.34329</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23296</v>
+        <v>0.236582</v>
       </c>
       <c r="D23" t="n">
-        <v>0.237192</v>
+        <v>0.238984</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.350198</v>
+        <v>0.351365</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23767</v>
+        <v>0.240978</v>
       </c>
       <c r="D24" t="n">
-        <v>0.24215</v>
+        <v>0.244709</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.359219</v>
+        <v>0.360398</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243488</v>
+        <v>0.246848</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248531</v>
+        <v>0.250938</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.368599</v>
+        <v>0.369927</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250086</v>
+        <v>0.253733</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255313</v>
+        <v>0.257571</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.37781</v>
+        <v>0.378904</v>
       </c>
       <c r="C27" t="n">
-        <v>0.256067</v>
+        <v>0.258825</v>
       </c>
       <c r="D27" t="n">
-        <v>0.261707</v>
+        <v>0.262583</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.386634</v>
+        <v>0.388448</v>
       </c>
       <c r="C28" t="n">
-        <v>0.261785</v>
+        <v>0.264576</v>
       </c>
       <c r="D28" t="n">
-        <v>0.267619</v>
+        <v>0.269129</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.39728</v>
+        <v>0.39915</v>
       </c>
       <c r="C29" t="n">
-        <v>0.267364</v>
+        <v>0.269704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.27427</v>
+        <v>0.275718</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.406224</v>
+        <v>0.408297</v>
       </c>
       <c r="C30" t="n">
-        <v>0.272355</v>
+        <v>0.274369</v>
       </c>
       <c r="D30" t="n">
-        <v>0.280098</v>
+        <v>0.282017</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.41483</v>
+        <v>0.416971</v>
       </c>
       <c r="C31" t="n">
-        <v>0.277259</v>
+        <v>0.279666</v>
       </c>
       <c r="D31" t="n">
-        <v>0.285885</v>
+        <v>0.287444</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.301473</v>
+        <v>0.303618</v>
       </c>
       <c r="C32" t="n">
-        <v>0.283349</v>
+        <v>0.285748</v>
       </c>
       <c r="D32" t="n">
-        <v>0.291977</v>
+        <v>0.293689</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.310875</v>
+        <v>0.31286</v>
       </c>
       <c r="C33" t="n">
-        <v>0.288466</v>
+        <v>0.290526</v>
       </c>
       <c r="D33" t="n">
-        <v>0.297361</v>
+        <v>0.29929</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.319765</v>
+        <v>0.321573</v>
       </c>
       <c r="C34" t="n">
-        <v>0.293042</v>
+        <v>0.295192</v>
       </c>
       <c r="D34" t="n">
-        <v>0.303067</v>
+        <v>0.304858</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.329199</v>
+        <v>0.331022</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231782</v>
+        <v>0.233905</v>
       </c>
       <c r="D35" t="n">
-        <v>0.230578</v>
+        <v>0.231746</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.338732</v>
+        <v>0.340643</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237703</v>
+        <v>0.240099</v>
       </c>
       <c r="D36" t="n">
-        <v>0.23659</v>
+        <v>0.237968</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.347922</v>
+        <v>0.349584</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243127</v>
+        <v>0.245409</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242733</v>
+        <v>0.244313</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.356507</v>
+        <v>0.357935</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248556</v>
+        <v>0.25128</v>
       </c>
       <c r="D38" t="n">
-        <v>0.248945</v>
+        <v>0.249588</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.366997</v>
+        <v>0.367772</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254008</v>
+        <v>0.257312</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255439</v>
+        <v>0.256794</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.37603</v>
+        <v>0.376717</v>
       </c>
       <c r="C40" t="n">
-        <v>0.260317</v>
+        <v>0.263016</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261401</v>
+        <v>0.262732</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.383591</v>
+        <v>0.385225</v>
       </c>
       <c r="C41" t="n">
-        <v>0.266466</v>
+        <v>0.268644</v>
       </c>
       <c r="D41" t="n">
-        <v>0.267734</v>
+        <v>0.268802</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.392712</v>
+        <v>0.394521</v>
       </c>
       <c r="C42" t="n">
-        <v>0.271389</v>
+        <v>0.273901</v>
       </c>
       <c r="D42" t="n">
-        <v>0.273314</v>
+        <v>0.274779</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.402165</v>
+        <v>0.404399</v>
       </c>
       <c r="C43" t="n">
-        <v>0.277326</v>
+        <v>0.27922</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280153</v>
+        <v>0.281221</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.412036</v>
+        <v>0.413938</v>
       </c>
       <c r="C44" t="n">
-        <v>0.282909</v>
+        <v>0.284959</v>
       </c>
       <c r="D44" t="n">
-        <v>0.286454</v>
+        <v>0.287435</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.420858</v>
+        <v>0.423328</v>
       </c>
       <c r="C45" t="n">
-        <v>0.287586</v>
+        <v>0.289457</v>
       </c>
       <c r="D45" t="n">
-        <v>0.292298</v>
+        <v>0.293256</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.432593</v>
+        <v>0.434844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.291981</v>
+        <v>0.293778</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297507</v>
+        <v>0.298308</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.31016</v>
+        <v>0.312207</v>
       </c>
       <c r="C47" t="n">
-        <v>0.296431</v>
+        <v>0.299318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30293</v>
+        <v>0.303733</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.31791</v>
+        <v>0.320549</v>
       </c>
       <c r="C48" t="n">
-        <v>0.302611</v>
+        <v>0.3045</v>
       </c>
       <c r="D48" t="n">
-        <v>0.309604</v>
+        <v>0.310424</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.327845</v>
+        <v>0.330337</v>
       </c>
       <c r="C49" t="n">
-        <v>0.306633</v>
+        <v>0.308313</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318473</v>
+        <v>0.319377</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.336752</v>
+        <v>0.339277</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240464</v>
+        <v>0.243827</v>
       </c>
       <c r="D50" t="n">
-        <v>0.23563</v>
+        <v>0.24098</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.346555</v>
+        <v>0.348787</v>
       </c>
       <c r="C51" t="n">
-        <v>0.246577</v>
+        <v>0.24991</v>
       </c>
       <c r="D51" t="n">
-        <v>0.243928</v>
+        <v>0.247362</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.355856</v>
+        <v>0.357957</v>
       </c>
       <c r="C52" t="n">
-        <v>0.252824</v>
+        <v>0.256312</v>
       </c>
       <c r="D52" t="n">
-        <v>0.251348</v>
+        <v>0.254613</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.364939</v>
+        <v>0.366423</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258966</v>
+        <v>0.262392</v>
       </c>
       <c r="D53" t="n">
-        <v>0.258025</v>
+        <v>0.261215</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.373632</v>
+        <v>0.375574</v>
       </c>
       <c r="C54" t="n">
-        <v>0.265026</v>
+        <v>0.268156</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2641</v>
+        <v>0.267278</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.38349</v>
+        <v>0.384189</v>
       </c>
       <c r="C55" t="n">
-        <v>0.271504</v>
+        <v>0.273716</v>
       </c>
       <c r="D55" t="n">
-        <v>0.270902</v>
+        <v>0.27344</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.393962</v>
+        <v>0.393692</v>
       </c>
       <c r="C56" t="n">
-        <v>0.277301</v>
+        <v>0.279436</v>
       </c>
       <c r="D56" t="n">
-        <v>0.277176</v>
+        <v>0.279039</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.403381</v>
+        <v>0.403128</v>
       </c>
       <c r="C57" t="n">
-        <v>0.282427</v>
+        <v>0.284214</v>
       </c>
       <c r="D57" t="n">
-        <v>0.283223</v>
+        <v>0.285094</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.412666</v>
+        <v>0.41301</v>
       </c>
       <c r="C58" t="n">
-        <v>0.287588</v>
+        <v>0.289324</v>
       </c>
       <c r="D58" t="n">
-        <v>0.28905</v>
+        <v>0.290711</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.421819</v>
+        <v>0.422368</v>
       </c>
       <c r="C59" t="n">
-        <v>0.292558</v>
+        <v>0.293972</v>
       </c>
       <c r="D59" t="n">
-        <v>0.295005</v>
+        <v>0.296409</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.432612</v>
+        <v>0.433332</v>
       </c>
       <c r="C60" t="n">
-        <v>0.297388</v>
+        <v>0.298688</v>
       </c>
       <c r="D60" t="n">
-        <v>0.301131</v>
+        <v>0.302492</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.313786</v>
+        <v>0.32177</v>
       </c>
       <c r="C61" t="n">
-        <v>0.302193</v>
+        <v>0.30393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.306823</v>
+        <v>0.308597</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.326014</v>
+        <v>0.331749</v>
       </c>
       <c r="C62" t="n">
-        <v>0.306994</v>
+        <v>0.309245</v>
       </c>
       <c r="D62" t="n">
-        <v>0.313081</v>
+        <v>0.315249</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.336893</v>
+        <v>0.343355</v>
       </c>
       <c r="C63" t="n">
-        <v>0.31405</v>
+        <v>0.314721</v>
       </c>
       <c r="D63" t="n">
-        <v>0.320584</v>
+        <v>0.32272</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.347698</v>
+        <v>0.356157</v>
       </c>
       <c r="C64" t="n">
-        <v>0.249271</v>
+        <v>0.256621</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249666</v>
+        <v>0.256189</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.357739</v>
+        <v>0.364369</v>
       </c>
       <c r="C65" t="n">
-        <v>0.258294</v>
+        <v>0.263678</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25798</v>
+        <v>0.263324</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.369517</v>
+        <v>0.376115</v>
       </c>
       <c r="C66" t="n">
-        <v>0.266854</v>
+        <v>0.272365</v>
       </c>
       <c r="D66" t="n">
-        <v>0.266364</v>
+        <v>0.272582</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.380727</v>
+        <v>0.388384</v>
       </c>
       <c r="C67" t="n">
-        <v>0.273933</v>
+        <v>0.281281</v>
       </c>
       <c r="D67" t="n">
-        <v>0.274878</v>
+        <v>0.279914</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.392391</v>
+        <v>0.401389</v>
       </c>
       <c r="C68" t="n">
-        <v>0.283803</v>
+        <v>0.289069</v>
       </c>
       <c r="D68" t="n">
-        <v>0.283734</v>
+        <v>0.28968</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.405082</v>
+        <v>0.413771</v>
       </c>
       <c r="C69" t="n">
-        <v>0.294004</v>
+        <v>0.296215</v>
       </c>
       <c r="D69" t="n">
-        <v>0.292886</v>
+        <v>0.299532</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.419446</v>
+        <v>0.429514</v>
       </c>
       <c r="C70" t="n">
-        <v>0.301993</v>
+        <v>0.309934</v>
       </c>
       <c r="D70" t="n">
-        <v>0.304149</v>
+        <v>0.311679</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.43859</v>
+        <v>0.452174</v>
       </c>
       <c r="C71" t="n">
-        <v>0.311019</v>
+        <v>0.320704</v>
       </c>
       <c r="D71" t="n">
-        <v>0.314105</v>
+        <v>0.322646</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.453433</v>
+        <v>0.473302</v>
       </c>
       <c r="C72" t="n">
-        <v>0.321102</v>
+        <v>0.330653</v>
       </c>
       <c r="D72" t="n">
-        <v>0.324985</v>
+        <v>0.334644</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473203</v>
+        <v>0.492749</v>
       </c>
       <c r="C73" t="n">
-        <v>0.333584</v>
+        <v>0.34058</v>
       </c>
       <c r="D73" t="n">
-        <v>0.337765</v>
+        <v>0.346448</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.493807</v>
+        <v>0.510215</v>
       </c>
       <c r="C74" t="n">
-        <v>0.346368</v>
+        <v>0.352291</v>
       </c>
       <c r="D74" t="n">
-        <v>0.352203</v>
+        <v>0.358395</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.517029</v>
+        <v>0.5303909999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.363439</v>
+        <v>0.369358</v>
       </c>
       <c r="D75" t="n">
-        <v>0.369589</v>
+        <v>0.375791</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.486542</v>
+        <v>0.485211</v>
       </c>
       <c r="C76" t="n">
-        <v>0.381763</v>
+        <v>0.385587</v>
       </c>
       <c r="D76" t="n">
-        <v>0.390087</v>
+        <v>0.394219</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.513597</v>
+        <v>0.517525</v>
       </c>
       <c r="C77" t="n">
-        <v>0.401674</v>
+        <v>0.407534</v>
       </c>
       <c r="D77" t="n">
-        <v>0.410054</v>
+        <v>0.415183</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.544232</v>
+        <v>0.548644</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375905</v>
+        <v>0.372368</v>
       </c>
       <c r="D78" t="n">
-        <v>0.375233</v>
+        <v>0.371262</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5760960000000001</v>
+        <v>0.578705</v>
       </c>
       <c r="C79" t="n">
-        <v>0.398431</v>
+        <v>0.394879</v>
       </c>
       <c r="D79" t="n">
-        <v>0.401244</v>
+        <v>0.396066</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.609522</v>
+        <v>0.61209</v>
       </c>
       <c r="C80" t="n">
-        <v>0.432446</v>
+        <v>0.437893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.424523</v>
+        <v>0.416981</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.644706</v>
+        <v>0.648871</v>
       </c>
       <c r="C81" t="n">
-        <v>0.44844</v>
+        <v>0.458578</v>
       </c>
       <c r="D81" t="n">
-        <v>0.446313</v>
+        <v>0.443196</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.680438</v>
+        <v>0.687909</v>
       </c>
       <c r="C82" t="n">
-        <v>0.472342</v>
+        <v>0.480329</v>
       </c>
       <c r="D82" t="n">
-        <v>0.470363</v>
+        <v>0.467564</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.717492</v>
+        <v>0.725822</v>
       </c>
       <c r="C83" t="n">
-        <v>0.497449</v>
+        <v>0.507213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.495873</v>
+        <v>0.492468</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.748968</v>
+        <v>0.75993</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5288</v>
+        <v>0.531227</v>
       </c>
       <c r="D84" t="n">
-        <v>0.519657</v>
+        <v>0.517808</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.786721</v>
+        <v>0.800845</v>
       </c>
       <c r="C85" t="n">
-        <v>0.558108</v>
+        <v>0.562402</v>
       </c>
       <c r="D85" t="n">
-        <v>0.545421</v>
+        <v>0.543714</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.827608</v>
+        <v>0.842946</v>
       </c>
       <c r="C86" t="n">
-        <v>0.587435</v>
+        <v>0.5910069999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.571762</v>
+        <v>0.5702430000000001</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8690059999999999</v>
+        <v>0.888614</v>
       </c>
       <c r="C87" t="n">
-        <v>0.617143</v>
+        <v>0.621743</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5973039999999999</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.910396</v>
+        <v>0.93441</v>
       </c>
       <c r="C88" t="n">
-        <v>0.646585</v>
+        <v>0.651215</v>
       </c>
       <c r="D88" t="n">
-        <v>0.631726</v>
+        <v>0.630548</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.955187</v>
+        <v>0.982598</v>
       </c>
       <c r="C89" t="n">
-        <v>0.67813</v>
+        <v>0.682817</v>
       </c>
       <c r="D89" t="n">
-        <v>0.661199</v>
+        <v>0.659856</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.862873</v>
+        <v>0.885425</v>
       </c>
       <c r="C90" t="n">
-        <v>0.710962</v>
+        <v>0.714898</v>
       </c>
       <c r="D90" t="n">
-        <v>0.680436</v>
+        <v>0.678623</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.892186</v>
+        <v>0.9114950000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.745201</v>
+        <v>0.748811</v>
       </c>
       <c r="D91" t="n">
-        <v>0.708803</v>
+        <v>0.707223</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.921938</v>
+        <v>0.940934</v>
       </c>
       <c r="C92" t="n">
-        <v>0.656887</v>
+        <v>0.667822</v>
       </c>
       <c r="D92" t="n">
-        <v>0.631365</v>
+        <v>0.64869</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9499300000000001</v>
+        <v>0.968853</v>
       </c>
       <c r="C93" t="n">
-        <v>0.679738</v>
+        <v>0.689508</v>
       </c>
       <c r="D93" t="n">
-        <v>0.656869</v>
+        <v>0.673836</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9780799999999999</v>
+        <v>0.997578</v>
       </c>
       <c r="C94" t="n">
-        <v>0.702577</v>
+        <v>0.712151</v>
       </c>
       <c r="D94" t="n">
-        <v>0.671237</v>
+        <v>0.685438</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.00869</v>
+        <v>1.02839</v>
       </c>
       <c r="C95" t="n">
-        <v>0.725725</v>
+        <v>0.735155</v>
       </c>
       <c r="D95" t="n">
-        <v>0.707928</v>
+        <v>0.723338</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.03764</v>
+        <v>1.05721</v>
       </c>
       <c r="C96" t="n">
-        <v>0.750161</v>
+        <v>0.759879</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7313809999999999</v>
+        <v>0.745761</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.06474</v>
+        <v>1.08576</v>
       </c>
       <c r="C97" t="n">
-        <v>0.774133</v>
+        <v>0.7842</v>
       </c>
       <c r="D97" t="n">
-        <v>0.757331</v>
+        <v>0.770895</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.09685</v>
+        <v>1.1199</v>
       </c>
       <c r="C98" t="n">
-        <v>0.800302</v>
+        <v>0.8091699999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.781176</v>
+        <v>0.794712</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.13291</v>
+        <v>1.15743</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8250999999999999</v>
+        <v>0.834737</v>
       </c>
       <c r="D99" t="n">
-        <v>0.805644</v>
+        <v>0.818369</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1641</v>
+        <v>1.1916</v>
       </c>
       <c r="C100" t="n">
-        <v>0.851699</v>
+        <v>0.861279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.830132</v>
+        <v>0.842726</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1908</v>
+        <v>1.22162</v>
       </c>
       <c r="C101" t="n">
-        <v>0.878341</v>
+        <v>0.8885110000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8554850000000001</v>
+        <v>0.86824</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.22602</v>
+        <v>1.2613</v>
       </c>
       <c r="C102" t="n">
-        <v>0.907492</v>
+        <v>0.917455</v>
       </c>
       <c r="D102" t="n">
-        <v>0.883971</v>
+        <v>0.895948</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.26186</v>
+        <v>1.29984</v>
       </c>
       <c r="C103" t="n">
-        <v>0.937433</v>
+        <v>0.947754</v>
       </c>
       <c r="D103" t="n">
-        <v>0.911427</v>
+        <v>0.922612</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.30229</v>
+        <v>1.34338</v>
       </c>
       <c r="C104" t="n">
-        <v>0.968023</v>
+        <v>0.977517</v>
       </c>
       <c r="D104" t="n">
-        <v>0.939157</v>
+        <v>0.950444</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07519</v>
+        <v>1.10538</v>
       </c>
       <c r="C105" t="n">
-        <v>0.998702</v>
+        <v>1.00923</v>
       </c>
       <c r="D105" t="n">
-        <v>0.967286</v>
+        <v>0.9769910000000001</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10237</v>
+        <v>1.13143</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03165</v>
+        <v>1.04059</v>
       </c>
       <c r="D106" t="n">
-        <v>0.996628</v>
+        <v>1.00647</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.12846</v>
+        <v>1.15731</v>
       </c>
       <c r="C107" t="n">
-        <v>0.849233</v>
+        <v>0.861009</v>
       </c>
       <c r="D107" t="n">
-        <v>0.831097</v>
+        <v>0.859716</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.14411</v>
+        <v>1.17266</v>
       </c>
       <c r="C108" t="n">
-        <v>0.868144</v>
+        <v>0.880302</v>
       </c>
       <c r="D108" t="n">
-        <v>0.851774</v>
+        <v>0.879831</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17498</v>
+        <v>1.20292</v>
       </c>
       <c r="C109" t="n">
-        <v>0.889671</v>
+        <v>0.902041</v>
       </c>
       <c r="D109" t="n">
-        <v>0.877468</v>
+        <v>0.902345</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.1994</v>
+        <v>1.23048</v>
       </c>
       <c r="C110" t="n">
-        <v>0.911795</v>
+        <v>0.922473</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9001440000000001</v>
+        <v>0.925108</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.2255</v>
+        <v>1.25665</v>
       </c>
       <c r="C111" t="n">
-        <v>0.935184</v>
+        <v>0.947224</v>
       </c>
       <c r="D111" t="n">
-        <v>0.922174</v>
+        <v>0.945451</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.26287</v>
+        <v>1.2946</v>
       </c>
       <c r="C112" t="n">
-        <v>0.957588</v>
+        <v>0.969172</v>
       </c>
       <c r="D112" t="n">
-        <v>0.948698</v>
+        <v>0.970975</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.29173</v>
+        <v>1.32684</v>
       </c>
       <c r="C113" t="n">
-        <v>0.981007</v>
+        <v>0.994073</v>
       </c>
       <c r="D113" t="n">
-        <v>0.971852</v>
+        <v>0.991603</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.31739</v>
+        <v>1.35415</v>
       </c>
       <c r="C114" t="n">
-        <v>1.00729</v>
+        <v>1.01996</v>
       </c>
       <c r="D114" t="n">
-        <v>1.00621</v>
+        <v>1.02395</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.34937</v>
+        <v>1.38968</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03247</v>
+        <v>1.04389</v>
       </c>
       <c r="D115" t="n">
-        <v>1.03494</v>
+        <v>1.05094</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.3821</v>
+        <v>1.4256</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05899</v>
+        <v>1.07061</v>
       </c>
       <c r="D116" t="n">
-        <v>1.04787</v>
+        <v>1.06397</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.4176</v>
+        <v>1.4656</v>
       </c>
       <c r="C117" t="n">
-        <v>1.08788</v>
+        <v>1.09935</v>
       </c>
       <c r="D117" t="n">
-        <v>1.07368</v>
+        <v>1.08847</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.45321</v>
+        <v>1.50622</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11657</v>
+        <v>1.12893</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10704</v>
+        <v>1.12175</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.17177</v>
+        <v>1.21128</v>
       </c>
       <c r="C119" t="n">
-        <v>1.147</v>
+        <v>1.15857</v>
       </c>
       <c r="D119" t="n">
-        <v>1.13217</v>
+        <v>1.1446</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.274556</v>
+        <v>0.275729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.175337</v>
+        <v>0.175291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13995</v>
+        <v>0.14103</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.200723</v>
+        <v>0.200734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.17612</v>
+        <v>0.178205</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140363</v>
+        <v>0.142584</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.208294</v>
+        <v>0.209484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.182916</v>
+        <v>0.188294</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14495</v>
+        <v>0.147644</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.219022</v>
+        <v>0.217239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190763</v>
+        <v>0.197055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.148027</v>
+        <v>0.150956</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225068</v>
+        <v>0.225302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197537</v>
+        <v>0.203033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152434</v>
+        <v>0.155834</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234215</v>
+        <v>0.234213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163276</v>
+        <v>0.165542</v>
       </c>
       <c r="D7" t="n">
-        <v>0.140294</v>
+        <v>0.141311</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.237862</v>
+        <v>0.238898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16363</v>
+        <v>0.16764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141026</v>
+        <v>0.142494</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.245026</v>
+        <v>0.247131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173397</v>
+        <v>0.174537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140575</v>
+        <v>0.145234</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25527</v>
+        <v>0.256536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176914</v>
+        <v>0.179623</v>
       </c>
       <c r="D10" t="n">
-        <v>0.147296</v>
+        <v>0.147587</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.265085</v>
+        <v>0.265046</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182095</v>
+        <v>0.183619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.146492</v>
+        <v>0.149512</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274375</v>
+        <v>0.277545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187388</v>
+        <v>0.191965</v>
       </c>
       <c r="D12" t="n">
-        <v>0.152632</v>
+        <v>0.154889</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280993</v>
+        <v>0.283777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.195208</v>
+        <v>0.198473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15393</v>
+        <v>0.157592</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.293747</v>
+        <v>0.295622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199193</v>
+        <v>0.204617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.157983</v>
+        <v>0.160603</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30975</v>
+        <v>0.311181</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208786</v>
+        <v>0.210551</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166057</v>
+        <v>0.16606</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.318863</v>
+        <v>0.320511</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21885</v>
+        <v>0.220198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167669</v>
+        <v>0.167463</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.331703</v>
+        <v>0.333354</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222291</v>
+        <v>0.226801</v>
       </c>
       <c r="D17" t="n">
-        <v>0.169155</v>
+        <v>0.172352</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.247733</v>
+        <v>0.249343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230166</v>
+        <v>0.232531</v>
       </c>
       <c r="D18" t="n">
-        <v>0.175504</v>
+        <v>0.176113</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257673</v>
+        <v>0.25805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24002</v>
+        <v>0.240637</v>
       </c>
       <c r="D19" t="n">
-        <v>0.179894</v>
+        <v>0.179159</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263276</v>
+        <v>0.264232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252597</v>
+        <v>0.253257</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184722</v>
+        <v>0.184888</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.269845</v>
+        <v>0.270759</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201</v>
+        <v>0.202876</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169976</v>
+        <v>0.171245</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.27587</v>
+        <v>0.27669</v>
       </c>
       <c r="C22" t="n">
-        <v>0.207376</v>
+        <v>0.20934</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172812</v>
+        <v>0.174123</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.285229</v>
+        <v>0.286244</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211029</v>
+        <v>0.213894</v>
       </c>
       <c r="D23" t="n">
-        <v>0.172082</v>
+        <v>0.175742</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.293125</v>
+        <v>0.294628</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215126</v>
+        <v>0.217495</v>
       </c>
       <c r="D24" t="n">
-        <v>0.176526</v>
+        <v>0.179214</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.301177</v>
+        <v>0.302461</v>
       </c>
       <c r="C25" t="n">
-        <v>0.221475</v>
+        <v>0.224621</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178671</v>
+        <v>0.18148</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.311563</v>
+        <v>0.3125</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22914</v>
+        <v>0.230898</v>
       </c>
       <c r="D26" t="n">
-        <v>0.183793</v>
+        <v>0.18538</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.321526</v>
+        <v>0.322341</v>
       </c>
       <c r="C27" t="n">
-        <v>0.234054</v>
+        <v>0.236043</v>
       </c>
       <c r="D27" t="n">
-        <v>0.18707</v>
+        <v>0.187753</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.332235</v>
+        <v>0.332873</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238092</v>
+        <v>0.239194</v>
       </c>
       <c r="D28" t="n">
-        <v>0.190022</v>
+        <v>0.190864</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.343589</v>
+        <v>0.344359</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245149</v>
+        <v>0.247261</v>
       </c>
       <c r="D29" t="n">
-        <v>0.19335</v>
+        <v>0.194141</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.354225</v>
+        <v>0.354812</v>
       </c>
       <c r="C30" t="n">
-        <v>0.25388</v>
+        <v>0.255869</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197142</v>
+        <v>0.197999</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.366047</v>
+        <v>0.366639</v>
       </c>
       <c r="C31" t="n">
-        <v>0.256521</v>
+        <v>0.258983</v>
       </c>
       <c r="D31" t="n">
-        <v>0.199851</v>
+        <v>0.201126</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.267009</v>
+        <v>0.268418</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267327</v>
+        <v>0.269593</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204086</v>
+        <v>0.205135</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274065</v>
+        <v>0.275411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.274953</v>
+        <v>0.277127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208192</v>
+        <v>0.209052</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.280597</v>
+        <v>0.282149</v>
       </c>
       <c r="C34" t="n">
-        <v>0.282556</v>
+        <v>0.284599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211206</v>
+        <v>0.213393</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.28751</v>
+        <v>0.288608</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212617</v>
+        <v>0.215159</v>
       </c>
       <c r="D35" t="n">
-        <v>0.181357</v>
+        <v>0.182952</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.293379</v>
+        <v>0.295255</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21947</v>
+        <v>0.221795</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183897</v>
+        <v>0.185394</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.300563</v>
+        <v>0.302195</v>
       </c>
       <c r="C37" t="n">
-        <v>0.223528</v>
+        <v>0.225953</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185995</v>
+        <v>0.187892</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.308565</v>
+        <v>0.310052</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227625</v>
+        <v>0.23067</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18808</v>
+        <v>0.190565</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.315479</v>
+        <v>0.317011</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233687</v>
+        <v>0.236072</v>
       </c>
       <c r="D39" t="n">
-        <v>0.191952</v>
+        <v>0.193497</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.324606</v>
+        <v>0.326115</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240405</v>
+        <v>0.242989</v>
       </c>
       <c r="D40" t="n">
-        <v>0.196024</v>
+        <v>0.196904</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334945</v>
+        <v>0.336488</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245323</v>
+        <v>0.248417</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196886</v>
+        <v>0.199503</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.34584</v>
+        <v>0.347433</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249007</v>
+        <v>0.251725</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200358</v>
+        <v>0.202386</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.355771</v>
+        <v>0.357472</v>
       </c>
       <c r="C43" t="n">
-        <v>0.255472</v>
+        <v>0.258372</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204203</v>
+        <v>0.205695</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.365622</v>
+        <v>0.367334</v>
       </c>
       <c r="C44" t="n">
-        <v>0.264338</v>
+        <v>0.267229</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207246</v>
+        <v>0.209118</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.377088</v>
+        <v>0.378603</v>
       </c>
       <c r="C45" t="n">
-        <v>0.270372</v>
+        <v>0.273429</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210364</v>
+        <v>0.212106</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.389725</v>
+        <v>0.391659</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277041</v>
+        <v>0.280195</v>
       </c>
       <c r="D46" t="n">
-        <v>0.213852</v>
+        <v>0.216295</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279825</v>
+        <v>0.281569</v>
       </c>
       <c r="C47" t="n">
-        <v>0.285223</v>
+        <v>0.287545</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217971</v>
+        <v>0.219748</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.285882</v>
+        <v>0.287825</v>
       </c>
       <c r="C48" t="n">
-        <v>0.29355</v>
+        <v>0.295657</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222034</v>
+        <v>0.223818</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.292532</v>
+        <v>0.294726</v>
       </c>
       <c r="C49" t="n">
-        <v>0.301111</v>
+        <v>0.304452</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225657</v>
+        <v>0.227571</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.299746</v>
+        <v>0.30192</v>
       </c>
       <c r="C50" t="n">
-        <v>0.223529</v>
+        <v>0.226436</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185094</v>
+        <v>0.188739</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.306139</v>
+        <v>0.30891</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228121</v>
+        <v>0.231452</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187476</v>
+        <v>0.191231</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.31349</v>
+        <v>0.31625</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233214</v>
+        <v>0.236733</v>
       </c>
       <c r="D52" t="n">
-        <v>0.191029</v>
+        <v>0.194651</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.32245</v>
+        <v>0.325334</v>
       </c>
       <c r="C53" t="n">
-        <v>0.239999</v>
+        <v>0.24349</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193982</v>
+        <v>0.197583</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330991</v>
+        <v>0.333551</v>
       </c>
       <c r="C54" t="n">
-        <v>0.245522</v>
+        <v>0.248906</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196328</v>
+        <v>0.200061</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33974</v>
+        <v>0.342524</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251958</v>
+        <v>0.254658</v>
       </c>
       <c r="D55" t="n">
-        <v>0.199735</v>
+        <v>0.203999</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.35077</v>
+        <v>0.353803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.256629</v>
+        <v>0.260018</v>
       </c>
       <c r="D56" t="n">
-        <v>0.202446</v>
+        <v>0.206464</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.359382</v>
+        <v>0.362599</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263664</v>
+        <v>0.267022</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206182</v>
+        <v>0.210214</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.369595</v>
+        <v>0.37285</v>
       </c>
       <c r="C58" t="n">
-        <v>0.27137</v>
+        <v>0.274607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209551</v>
+        <v>0.213843</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.381531</v>
+        <v>0.384491</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277111</v>
+        <v>0.280086</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212549</v>
+        <v>0.217016</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.392804</v>
+        <v>0.395714</v>
       </c>
       <c r="C60" t="n">
-        <v>0.28421</v>
+        <v>0.287491</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217339</v>
+        <v>0.221524</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287987</v>
+        <v>0.291778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292905</v>
+        <v>0.296192</v>
       </c>
       <c r="D61" t="n">
-        <v>0.220211</v>
+        <v>0.224971</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.296453</v>
+        <v>0.302731</v>
       </c>
       <c r="C62" t="n">
-        <v>0.301553</v>
+        <v>0.304478</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224849</v>
+        <v>0.229724</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.307486</v>
+        <v>0.314183</v>
       </c>
       <c r="C63" t="n">
-        <v>0.310431</v>
+        <v>0.313725</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228884</v>
+        <v>0.233629</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.318123</v>
+        <v>0.328374</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24162</v>
+        <v>0.249168</v>
       </c>
       <c r="D64" t="n">
-        <v>0.199327</v>
+        <v>0.204412</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.324681</v>
+        <v>0.332986</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248703</v>
+        <v>0.257783</v>
       </c>
       <c r="D65" t="n">
-        <v>0.200436</v>
+        <v>0.204626</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3359</v>
+        <v>0.345724</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256938</v>
+        <v>0.271263</v>
       </c>
       <c r="D66" t="n">
-        <v>0.204554</v>
+        <v>0.210019</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349523</v>
+        <v>0.363308</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265005</v>
+        <v>0.280023</v>
       </c>
       <c r="D67" t="n">
-        <v>0.209209</v>
+        <v>0.214569</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.362552</v>
+        <v>0.382757</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27366</v>
+        <v>0.285433</v>
       </c>
       <c r="D68" t="n">
-        <v>0.213616</v>
+        <v>0.220134</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.377387</v>
+        <v>0.401532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.285255</v>
+        <v>0.296222</v>
       </c>
       <c r="D69" t="n">
-        <v>0.218997</v>
+        <v>0.224072</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.395225</v>
+        <v>0.416413</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294672</v>
+        <v>0.317978</v>
       </c>
       <c r="D70" t="n">
-        <v>0.225473</v>
+        <v>0.231767</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.41412</v>
+        <v>0.444405</v>
       </c>
       <c r="C71" t="n">
-        <v>0.310118</v>
+        <v>0.331288</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229978</v>
+        <v>0.240365</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.436736</v>
+        <v>0.467312</v>
       </c>
       <c r="C72" t="n">
-        <v>0.322514</v>
+        <v>0.346742</v>
       </c>
       <c r="D72" t="n">
-        <v>0.235941</v>
+        <v>0.247289</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.460747</v>
+        <v>0.493927</v>
       </c>
       <c r="C73" t="n">
-        <v>0.338712</v>
+        <v>0.363705</v>
       </c>
       <c r="D73" t="n">
-        <v>0.243752</v>
+        <v>0.2552</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.486382</v>
+        <v>0.518101</v>
       </c>
       <c r="C74" t="n">
-        <v>0.358767</v>
+        <v>0.38232</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250054</v>
+        <v>0.263902</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.520428</v>
+        <v>0.549906</v>
       </c>
       <c r="C75" t="n">
-        <v>0.386265</v>
+        <v>0.403385</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25981</v>
+        <v>0.272125</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.453335</v>
+        <v>0.462251</v>
       </c>
       <c r="C76" t="n">
-        <v>0.413413</v>
+        <v>0.430637</v>
       </c>
       <c r="D76" t="n">
-        <v>0.268407</v>
+        <v>0.277877</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.487304</v>
+        <v>0.500371</v>
       </c>
       <c r="C77" t="n">
-        <v>0.442703</v>
+        <v>0.461074</v>
       </c>
       <c r="D77" t="n">
-        <v>0.278253</v>
+        <v>0.291006</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.520428</v>
+        <v>0.532627</v>
       </c>
       <c r="C78" t="n">
-        <v>0.393545</v>
+        <v>0.406764</v>
       </c>
       <c r="D78" t="n">
-        <v>0.259327</v>
+        <v>0.263266</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.56346</v>
+        <v>0.572366</v>
       </c>
       <c r="C79" t="n">
-        <v>0.419774</v>
+        <v>0.437791</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271083</v>
+        <v>0.276183</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.601777</v>
+        <v>0.618941</v>
       </c>
       <c r="C80" t="n">
-        <v>0.454453</v>
+        <v>0.474204</v>
       </c>
       <c r="D80" t="n">
-        <v>0.285953</v>
+        <v>0.294138</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.652969</v>
+        <v>0.671909</v>
       </c>
       <c r="C81" t="n">
-        <v>0.487418</v>
+        <v>0.508579</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305273</v>
+        <v>0.315175</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.697519</v>
+        <v>0.722247</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523712</v>
+        <v>0.548396</v>
       </c>
       <c r="D82" t="n">
-        <v>0.325897</v>
+        <v>0.333536</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.752085</v>
+        <v>0.780829</v>
       </c>
       <c r="C83" t="n">
-        <v>0.56192</v>
+        <v>0.589131</v>
       </c>
       <c r="D83" t="n">
-        <v>0.341771</v>
+        <v>0.353324</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8177990000000001</v>
+        <v>0.846703</v>
       </c>
       <c r="C84" t="n">
-        <v>0.609509</v>
+        <v>0.630892</v>
       </c>
       <c r="D84" t="n">
-        <v>0.367434</v>
+        <v>0.378059</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.875823</v>
+        <v>0.9059160000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.650323</v>
+        <v>0.673277</v>
       </c>
       <c r="D85" t="n">
-        <v>0.387825</v>
+        <v>0.399037</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.943672</v>
+        <v>0.976585</v>
       </c>
       <c r="C86" t="n">
-        <v>0.693662</v>
+        <v>0.718194</v>
       </c>
       <c r="D86" t="n">
-        <v>0.409633</v>
+        <v>0.422727</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.01502</v>
+        <v>1.04759</v>
       </c>
       <c r="C87" t="n">
-        <v>0.749202</v>
+        <v>0.775514</v>
       </c>
       <c r="D87" t="n">
-        <v>0.439595</v>
+        <v>0.451551</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09324</v>
+        <v>1.13207</v>
       </c>
       <c r="C88" t="n">
-        <v>0.799536</v>
+        <v>0.825416</v>
       </c>
       <c r="D88" t="n">
-        <v>0.468997</v>
+        <v>0.479186</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.17011</v>
+        <v>1.20669</v>
       </c>
       <c r="C89" t="n">
-        <v>0.856097</v>
+        <v>0.884859</v>
       </c>
       <c r="D89" t="n">
-        <v>0.493024</v>
+        <v>0.50851</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.961517</v>
+        <v>0.990066</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9086070000000001</v>
+        <v>0.9407</v>
       </c>
       <c r="D90" t="n">
-        <v>0.523197</v>
+        <v>0.5398230000000001</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.99792</v>
+        <v>1.0256</v>
       </c>
       <c r="C91" t="n">
-        <v>0.969993</v>
+        <v>1.00295</v>
       </c>
       <c r="D91" t="n">
-        <v>0.548721</v>
+        <v>0.564345</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03936</v>
+        <v>1.06634</v>
       </c>
       <c r="C92" t="n">
-        <v>0.803187</v>
+        <v>0.832439</v>
       </c>
       <c r="D92" t="n">
-        <v>0.546913</v>
+        <v>0.578663</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.07743</v>
+        <v>1.10971</v>
       </c>
       <c r="C93" t="n">
-        <v>0.832129</v>
+        <v>0.861657</v>
       </c>
       <c r="D93" t="n">
-        <v>0.565175</v>
+        <v>0.598051</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.11754</v>
+        <v>1.1551</v>
       </c>
       <c r="C94" t="n">
-        <v>0.866897</v>
+        <v>0.891919</v>
       </c>
       <c r="D94" t="n">
-        <v>0.583303</v>
+        <v>0.615995</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.1668</v>
+        <v>1.20713</v>
       </c>
       <c r="C95" t="n">
-        <v>0.897635</v>
+        <v>0.92137</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6019</v>
+        <v>0.637415</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21329</v>
+        <v>1.2561</v>
       </c>
       <c r="C96" t="n">
-        <v>0.931496</v>
+        <v>0.957795</v>
       </c>
       <c r="D96" t="n">
-        <v>0.622059</v>
+        <v>0.6579429999999999</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26521</v>
+        <v>1.31102</v>
       </c>
       <c r="C97" t="n">
-        <v>0.965423</v>
+        <v>0.99615</v>
       </c>
       <c r="D97" t="n">
-        <v>0.64778</v>
+        <v>0.684603</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.32546</v>
+        <v>1.37195</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0022</v>
+        <v>1.03345</v>
       </c>
       <c r="D98" t="n">
-        <v>0.66706</v>
+        <v>0.705421</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.38228</v>
+        <v>1.43335</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04264</v>
+        <v>1.07638</v>
       </c>
       <c r="D99" t="n">
-        <v>0.691753</v>
+        <v>0.731989</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.44268</v>
+        <v>1.4962</v>
       </c>
       <c r="C100" t="n">
-        <v>1.08416</v>
+        <v>1.11964</v>
       </c>
       <c r="D100" t="n">
-        <v>0.718097</v>
+        <v>0.7595499999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.50661</v>
+        <v>1.56013</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12845</v>
+        <v>1.16598</v>
       </c>
       <c r="D101" t="n">
-        <v>0.745494</v>
+        <v>0.788833</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.57149</v>
+        <v>1.6288</v>
       </c>
       <c r="C102" t="n">
-        <v>1.17491</v>
+        <v>1.21537</v>
       </c>
       <c r="D102" t="n">
-        <v>0.77263</v>
+        <v>0.817682</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.63997</v>
+        <v>1.70143</v>
       </c>
       <c r="C103" t="n">
-        <v>1.22626</v>
+        <v>1.26896</v>
       </c>
       <c r="D103" t="n">
-        <v>0.796854</v>
+        <v>0.843722</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.71678</v>
+        <v>1.78175</v>
       </c>
       <c r="C104" t="n">
-        <v>1.27809</v>
+        <v>1.32249</v>
       </c>
       <c r="D104" t="n">
-        <v>0.827804</v>
+        <v>0.87495</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.22586</v>
+        <v>1.27356</v>
       </c>
       <c r="C105" t="n">
-        <v>1.33562</v>
+        <v>1.38319</v>
       </c>
       <c r="D105" t="n">
-        <v>0.858701</v>
+        <v>0.9063059999999999</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.26825</v>
+        <v>1.31779</v>
       </c>
       <c r="C106" t="n">
-        <v>1.39203</v>
+        <v>1.4386</v>
       </c>
       <c r="D106" t="n">
-        <v>0.890779</v>
+        <v>0.937671</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.31106</v>
+        <v>1.36158</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02239</v>
+        <v>1.05863</v>
       </c>
       <c r="D107" t="n">
-        <v>0.799587</v>
+        <v>0.834443</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.35563</v>
+        <v>1.40639</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05577</v>
+        <v>1.09241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.820154</v>
+        <v>0.8524389999999999</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.4005</v>
+        <v>1.45612</v>
       </c>
       <c r="C109" t="n">
-        <v>1.08916</v>
+        <v>1.12572</v>
       </c>
       <c r="D109" t="n">
-        <v>0.840032</v>
+        <v>0.874615</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.45372</v>
+        <v>1.50777</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12151</v>
+        <v>1.16032</v>
       </c>
       <c r="D110" t="n">
-        <v>0.860637</v>
+        <v>0.8939589999999999</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.50343</v>
+        <v>1.56311</v>
       </c>
       <c r="C111" t="n">
-        <v>1.15658</v>
+        <v>1.19786</v>
       </c>
       <c r="D111" t="n">
-        <v>0.881901</v>
+        <v>0.913957</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.55949</v>
+        <v>1.61945</v>
       </c>
       <c r="C112" t="n">
-        <v>1.19764</v>
+        <v>1.23845</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8997039999999999</v>
+        <v>0.934366</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.62112</v>
+        <v>1.6824</v>
       </c>
       <c r="C113" t="n">
-        <v>1.23855</v>
+        <v>1.2817</v>
       </c>
       <c r="D113" t="n">
-        <v>0.924566</v>
+        <v>0.956983</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.67915</v>
+        <v>1.74499</v>
       </c>
       <c r="C114" t="n">
-        <v>1.27612</v>
+        <v>1.32075</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9455209999999999</v>
+        <v>0.981167</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.74272</v>
+        <v>1.8113</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32471</v>
+        <v>1.37104</v>
       </c>
       <c r="D115" t="n">
-        <v>0.966174</v>
+        <v>1.0035</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.80875</v>
+        <v>1.879</v>
       </c>
       <c r="C116" t="n">
-        <v>1.3706</v>
+        <v>1.41689</v>
       </c>
       <c r="D116" t="n">
-        <v>0.991343</v>
+        <v>1.02693</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.88213</v>
+        <v>1.95482</v>
       </c>
       <c r="C117" t="n">
-        <v>1.4197</v>
+        <v>1.46807</v>
       </c>
       <c r="D117" t="n">
-        <v>1.01797</v>
+        <v>1.05641</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.95596</v>
+        <v>2.03154</v>
       </c>
       <c r="C118" t="n">
-        <v>1.4768</v>
+        <v>1.52714</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04173</v>
+        <v>1.08385</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.33874</v>
+        <v>1.38716</v>
       </c>
       <c r="C119" t="n">
-        <v>1.52982</v>
+        <v>1.58351</v>
       </c>
       <c r="D119" t="n">
-        <v>1.06528</v>
+        <v>1.11147</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.605334</v>
+        <v>0.604783</v>
       </c>
       <c r="C2" t="n">
-        <v>0.386102</v>
+        <v>0.385498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248589</v>
+        <v>0.249568</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.627097</v>
+        <v>0.627713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.397141</v>
+        <v>0.394568</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253659</v>
+        <v>0.253866</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.655201</v>
+        <v>0.651676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.413293</v>
+        <v>0.412042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260279</v>
+        <v>0.261233</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.682665</v>
+        <v>0.684049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435296</v>
+        <v>0.430426</v>
       </c>
       <c r="D5" t="n">
-        <v>0.267743</v>
+        <v>0.268687</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.700581</v>
+        <v>0.703897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.447519</v>
+        <v>0.452457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277849</v>
+        <v>0.280577</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.731803</v>
+        <v>0.730687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.468085</v>
+        <v>0.468865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.281135</v>
+        <v>0.283455</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.758484</v>
+        <v>0.76122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.487875</v>
+        <v>0.506537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.285964</v>
+        <v>0.289806</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.783017</v>
+        <v>0.800221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.513814</v>
+        <v>0.533281</v>
       </c>
       <c r="D9" t="n">
-        <v>0.294631</v>
+        <v>0.297374</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.817668</v>
+        <v>0.826497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.552736</v>
+        <v>0.558476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305534</v>
+        <v>0.311869</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.849367</v>
+        <v>0.856498</v>
       </c>
       <c r="C11" t="n">
-        <v>0.37684</v>
+        <v>0.377279</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231225</v>
+        <v>0.234523</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.541215</v>
+        <v>0.538998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.386508</v>
+        <v>0.388819</v>
       </c>
       <c r="D12" t="n">
-        <v>0.240633</v>
+        <v>0.245314</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.564936</v>
+        <v>0.563312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.414674</v>
+        <v>0.41405</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246143</v>
+        <v>0.251451</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.592771</v>
+        <v>0.594683</v>
       </c>
       <c r="C14" t="n">
-        <v>0.436236</v>
+        <v>0.434605</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253084</v>
+        <v>0.258749</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.623413</v>
+        <v>0.6218089999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.464184</v>
+        <v>0.469473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.265541</v>
+        <v>0.26728</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6527770000000001</v>
+        <v>0.652397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.488389</v>
+        <v>0.482464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.271627</v>
+        <v>0.279484</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.689366</v>
+        <v>0.686696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.519517</v>
+        <v>0.522512</v>
       </c>
       <c r="D17" t="n">
-        <v>0.286089</v>
+        <v>0.290125</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.716539</v>
+        <v>0.717217</v>
       </c>
       <c r="C18" t="n">
-        <v>0.550022</v>
+        <v>0.550677</v>
       </c>
       <c r="D18" t="n">
-        <v>0.293801</v>
+        <v>0.300086</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7603799999999999</v>
+        <v>0.758144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.580009</v>
+        <v>0.585053</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307012</v>
+        <v>0.307773</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.793627</v>
+        <v>0.794251</v>
       </c>
       <c r="C20" t="n">
-        <v>0.610022</v>
+        <v>0.607554</v>
       </c>
       <c r="D20" t="n">
-        <v>0.315644</v>
+        <v>0.318692</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.836148</v>
+        <v>0.836498</v>
       </c>
       <c r="C21" t="n">
-        <v>0.649227</v>
+        <v>0.651636</v>
       </c>
       <c r="D21" t="n">
-        <v>0.327766</v>
+        <v>0.332906</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.876713</v>
+        <v>0.876564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.68155</v>
+        <v>0.680069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339407</v>
+        <v>0.339672</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.922179</v>
+        <v>0.924288</v>
       </c>
       <c r="C23" t="n">
-        <v>0.717535</v>
+        <v>0.714782</v>
       </c>
       <c r="D23" t="n">
-        <v>0.347653</v>
+        <v>0.354585</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.967114</v>
+        <v>0.96615</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7478089999999999</v>
+        <v>0.746277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365504</v>
+        <v>0.366803</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0087</v>
+        <v>1.00918</v>
       </c>
       <c r="C25" t="n">
-        <v>0.783276</v>
+        <v>0.783365</v>
       </c>
       <c r="D25" t="n">
-        <v>0.374465</v>
+        <v>0.381116</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.06149</v>
+        <v>1.06301</v>
       </c>
       <c r="C26" t="n">
-        <v>0.503586</v>
+        <v>0.504116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.280824</v>
+        <v>0.280973</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.677239</v>
+        <v>0.6758420000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.526104</v>
+        <v>0.526307</v>
       </c>
       <c r="D27" t="n">
-        <v>0.290789</v>
+        <v>0.291278</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.706287</v>
+        <v>0.705575</v>
       </c>
       <c r="C28" t="n">
-        <v>0.560022</v>
+        <v>0.5589499999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.298802</v>
+        <v>0.298832</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7414770000000001</v>
+        <v>0.7418940000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.585722</v>
+        <v>0.584753</v>
       </c>
       <c r="D29" t="n">
-        <v>0.310873</v>
+        <v>0.310521</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.77721</v>
+        <v>0.7762289999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.61528</v>
+        <v>0.616436</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319089</v>
+        <v>0.32011</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.814566</v>
+        <v>0.814903</v>
       </c>
       <c r="C31" t="n">
-        <v>0.645918</v>
+        <v>0.647014</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327764</v>
+        <v>0.327021</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.852583</v>
+        <v>0.852445</v>
       </c>
       <c r="C32" t="n">
-        <v>0.678809</v>
+        <v>0.679094</v>
       </c>
       <c r="D32" t="n">
-        <v>0.336898</v>
+        <v>0.340441</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.890324</v>
+        <v>0.88955</v>
       </c>
       <c r="C33" t="n">
-        <v>0.710213</v>
+        <v>0.709542</v>
       </c>
       <c r="D33" t="n">
-        <v>0.350696</v>
+        <v>0.351272</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.930827</v>
+        <v>0.930799</v>
       </c>
       <c r="C34" t="n">
-        <v>0.747149</v>
+        <v>0.745443</v>
       </c>
       <c r="D34" t="n">
-        <v>0.359284</v>
+        <v>0.360184</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.971825</v>
+        <v>0.97136</v>
       </c>
       <c r="C35" t="n">
-        <v>0.777384</v>
+        <v>0.776643</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366864</v>
+        <v>0.368891</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.01107</v>
+        <v>1.00978</v>
       </c>
       <c r="C36" t="n">
-        <v>0.812052</v>
+        <v>0.809758</v>
       </c>
       <c r="D36" t="n">
-        <v>0.378115</v>
+        <v>0.383185</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.06021</v>
+        <v>1.05716</v>
       </c>
       <c r="C37" t="n">
-        <v>0.850036</v>
+        <v>0.849948</v>
       </c>
       <c r="D37" t="n">
-        <v>0.391485</v>
+        <v>0.395464</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.09844</v>
+        <v>1.09778</v>
       </c>
       <c r="C38" t="n">
-        <v>0.886808</v>
+        <v>0.88462</v>
       </c>
       <c r="D38" t="n">
-        <v>0.405335</v>
+        <v>0.403817</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.14874</v>
+        <v>1.14819</v>
       </c>
       <c r="C39" t="n">
-        <v>0.920248</v>
+        <v>0.916865</v>
       </c>
       <c r="D39" t="n">
-        <v>0.420875</v>
+        <v>0.421331</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.1857</v>
+        <v>1.1869</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5582549999999999</v>
+        <v>0.559992</v>
       </c>
       <c r="D40" t="n">
-        <v>0.315063</v>
+        <v>0.318188</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7312959999999999</v>
+        <v>0.732618</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5815</v>
+        <v>0.581436</v>
       </c>
       <c r="D41" t="n">
-        <v>0.323553</v>
+        <v>0.327354</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.760487</v>
+        <v>0.762089</v>
       </c>
       <c r="C42" t="n">
-        <v>0.605924</v>
+        <v>0.606537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333216</v>
+        <v>0.337021</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.794712</v>
+        <v>0.796712</v>
       </c>
       <c r="C43" t="n">
-        <v>0.632169</v>
+        <v>0.634259</v>
       </c>
       <c r="D43" t="n">
-        <v>0.346111</v>
+        <v>0.346969</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.829144</v>
+        <v>0.830518</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6653520000000001</v>
+        <v>0.666127</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357759</v>
+        <v>0.35913</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.864194</v>
+        <v>0.865085</v>
       </c>
       <c r="C45" t="n">
-        <v>0.69668</v>
+        <v>0.698375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.370461</v>
+        <v>0.369389</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.904147</v>
+        <v>0.905118</v>
       </c>
       <c r="C46" t="n">
-        <v>0.729696</v>
+        <v>0.730484</v>
       </c>
       <c r="D46" t="n">
-        <v>0.377039</v>
+        <v>0.376326</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.94308</v>
+        <v>0.944593</v>
       </c>
       <c r="C47" t="n">
-        <v>0.764972</v>
+        <v>0.763846</v>
       </c>
       <c r="D47" t="n">
-        <v>0.388604</v>
+        <v>0.389394</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.983851</v>
+        <v>0.984587</v>
       </c>
       <c r="C48" t="n">
-        <v>0.797228</v>
+        <v>0.797468</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401367</v>
+        <v>0.402105</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02194</v>
+        <v>1.02405</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8344009999999999</v>
+        <v>0.836479</v>
       </c>
       <c r="D49" t="n">
-        <v>0.413565</v>
+        <v>0.413269</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.06267</v>
+        <v>1.06367</v>
       </c>
       <c r="C50" t="n">
-        <v>0.874814</v>
+        <v>0.873811</v>
       </c>
       <c r="D50" t="n">
-        <v>0.425502</v>
+        <v>0.426192</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.10789</v>
+        <v>1.11082</v>
       </c>
       <c r="C51" t="n">
-        <v>0.907</v>
+        <v>0.9075220000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.437044</v>
+        <v>0.438327</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.15106</v>
+        <v>1.15102</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9464900000000001</v>
+        <v>0.945873</v>
       </c>
       <c r="D52" t="n">
-        <v>0.449023</v>
+        <v>0.450498</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.1936</v>
+        <v>1.19276</v>
       </c>
       <c r="C53" t="n">
-        <v>0.982388</v>
+        <v>0.983212</v>
       </c>
       <c r="D53" t="n">
-        <v>0.460591</v>
+        <v>0.461511</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.23829</v>
+        <v>1.2387</v>
       </c>
       <c r="C54" t="n">
-        <v>0.583409</v>
+        <v>0.585164</v>
       </c>
       <c r="D54" t="n">
-        <v>0.342271</v>
+        <v>0.343943</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.28436</v>
+        <v>1.2843</v>
       </c>
       <c r="C55" t="n">
-        <v>0.607286</v>
+        <v>0.6114540000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.348444</v>
+        <v>0.351381</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.772919</v>
+        <v>0.775092</v>
       </c>
       <c r="C56" t="n">
-        <v>0.634677</v>
+        <v>0.635956</v>
       </c>
       <c r="D56" t="n">
-        <v>0.358341</v>
+        <v>0.361361</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.805145</v>
+        <v>0.80786</v>
       </c>
       <c r="C57" t="n">
-        <v>0.661614</v>
+        <v>0.662556</v>
       </c>
       <c r="D57" t="n">
-        <v>0.370655</v>
+        <v>0.372136</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.83919</v>
+        <v>0.840367</v>
       </c>
       <c r="C58" t="n">
-        <v>0.691806</v>
+        <v>0.693468</v>
       </c>
       <c r="D58" t="n">
-        <v>0.379513</v>
+        <v>0.381132</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.87212</v>
+        <v>0.873873</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7260529999999999</v>
+        <v>0.726259</v>
       </c>
       <c r="D59" t="n">
-        <v>0.393625</v>
+        <v>0.395312</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.913458</v>
+        <v>0.916099</v>
       </c>
       <c r="C60" t="n">
-        <v>0.75843</v>
+        <v>0.758775</v>
       </c>
       <c r="D60" t="n">
-        <v>0.403744</v>
+        <v>0.40472</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.951985</v>
+        <v>0.953938</v>
       </c>
       <c r="C61" t="n">
-        <v>0.792585</v>
+        <v>0.792649</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412604</v>
+        <v>0.414012</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.990397</v>
+        <v>0.990905</v>
       </c>
       <c r="C62" t="n">
-        <v>0.830813</v>
+        <v>0.830629</v>
       </c>
       <c r="D62" t="n">
-        <v>0.425957</v>
+        <v>0.426513</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.03617</v>
+        <v>1.03711</v>
       </c>
       <c r="C63" t="n">
-        <v>0.865652</v>
+        <v>0.864883</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434231</v>
+        <v>0.435177</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.0802</v>
+        <v>1.0818</v>
       </c>
       <c r="C64" t="n">
-        <v>0.902601</v>
+        <v>0.905298</v>
       </c>
       <c r="D64" t="n">
-        <v>0.448305</v>
+        <v>0.450146</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.12293</v>
+        <v>1.12457</v>
       </c>
       <c r="C65" t="n">
-        <v>0.941964</v>
+        <v>0.9420230000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.462107</v>
+        <v>0.462606</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16641</v>
+        <v>1.16719</v>
       </c>
       <c r="C66" t="n">
-        <v>0.978203</v>
+        <v>0.980127</v>
       </c>
       <c r="D66" t="n">
-        <v>0.474343</v>
+        <v>0.475509</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.212</v>
+        <v>1.21658</v>
       </c>
       <c r="C67" t="n">
-        <v>1.01719</v>
+        <v>1.01942</v>
       </c>
       <c r="D67" t="n">
-        <v>0.487931</v>
+        <v>0.488334</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.25738</v>
+        <v>1.26956</v>
       </c>
       <c r="C68" t="n">
-        <v>0.601512</v>
+        <v>0.613142</v>
       </c>
       <c r="D68" t="n">
-        <v>0.35096</v>
+        <v>0.353987</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32689</v>
+        <v>1.3483</v>
       </c>
       <c r="C69" t="n">
-        <v>0.643718</v>
+        <v>0.65173</v>
       </c>
       <c r="D69" t="n">
-        <v>0.365026</v>
+        <v>0.369188</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.818952</v>
+        <v>0.833162</v>
       </c>
       <c r="C70" t="n">
-        <v>0.687322</v>
+        <v>0.69937</v>
       </c>
       <c r="D70" t="n">
-        <v>0.380649</v>
+        <v>0.383897</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.873679</v>
+        <v>0.90587</v>
       </c>
       <c r="C71" t="n">
-        <v>0.730257</v>
+        <v>0.748712</v>
       </c>
       <c r="D71" t="n">
-        <v>0.391241</v>
+        <v>0.396578</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.926193</v>
+        <v>0.966549</v>
       </c>
       <c r="C72" t="n">
-        <v>0.776767</v>
+        <v>0.810229</v>
       </c>
       <c r="D72" t="n">
-        <v>0.406833</v>
+        <v>0.412702</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.978275</v>
+        <v>1.03834</v>
       </c>
       <c r="C73" t="n">
-        <v>0.827484</v>
+        <v>0.878974</v>
       </c>
       <c r="D73" t="n">
-        <v>0.423695</v>
+        <v>0.435648</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.05174</v>
+        <v>1.10875</v>
       </c>
       <c r="C74" t="n">
-        <v>0.886761</v>
+        <v>0.939154</v>
       </c>
       <c r="D74" t="n">
-        <v>0.441236</v>
+        <v>0.456283</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.11995</v>
+        <v>1.20276</v>
       </c>
       <c r="C75" t="n">
-        <v>0.952411</v>
+        <v>1.0206</v>
       </c>
       <c r="D75" t="n">
-        <v>0.45772</v>
+        <v>0.471469</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.20724</v>
+        <v>1.28692</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03365</v>
+        <v>1.1079</v>
       </c>
       <c r="D76" t="n">
-        <v>0.476442</v>
+        <v>0.495845</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.29568</v>
+        <v>1.38935</v>
       </c>
       <c r="C77" t="n">
-        <v>1.11414</v>
+        <v>1.19788</v>
       </c>
       <c r="D77" t="n">
-        <v>0.494697</v>
+        <v>0.520659</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40709</v>
+        <v>1.49712</v>
       </c>
       <c r="C78" t="n">
-        <v>1.21681</v>
+        <v>1.29624</v>
       </c>
       <c r="D78" t="n">
-        <v>0.525737</v>
+        <v>0.551599</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.56297</v>
+        <v>1.61354</v>
       </c>
       <c r="C79" t="n">
-        <v>1.35586</v>
+        <v>1.39395</v>
       </c>
       <c r="D79" t="n">
-        <v>0.559271</v>
+        <v>0.576258</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.70322</v>
+        <v>1.7475</v>
       </c>
       <c r="C80" t="n">
-        <v>1.47631</v>
+        <v>1.52086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.594958</v>
+        <v>0.607842</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.87625</v>
+        <v>1.92405</v>
       </c>
       <c r="C81" t="n">
-        <v>1.63264</v>
+        <v>1.67903</v>
       </c>
       <c r="D81" t="n">
-        <v>0.633499</v>
+        <v>0.646889</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.07588</v>
+        <v>2.10791</v>
       </c>
       <c r="C82" t="n">
-        <v>1.81768</v>
+        <v>1.84895</v>
       </c>
       <c r="D82" t="n">
-        <v>0.65834</v>
+        <v>0.673529</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.2742</v>
+        <v>2.32188</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16883</v>
+        <v>1.1739</v>
       </c>
       <c r="D83" t="n">
-        <v>0.513943</v>
+        <v>0.521959</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.55276</v>
+        <v>2.58158</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28927</v>
+        <v>1.30867</v>
       </c>
       <c r="D84" t="n">
-        <v>0.555647</v>
+        <v>0.568308</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.69008</v>
+        <v>1.7025</v>
       </c>
       <c r="C85" t="n">
-        <v>1.45217</v>
+        <v>1.46293</v>
       </c>
       <c r="D85" t="n">
-        <v>0.605696</v>
+        <v>0.6152339999999999</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.88179</v>
+        <v>1.90596</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62951</v>
+        <v>1.64555</v>
       </c>
       <c r="D86" t="n">
-        <v>0.648821</v>
+        <v>0.66067</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.08549</v>
+        <v>2.10356</v>
       </c>
       <c r="C87" t="n">
-        <v>1.81792</v>
+        <v>1.82988</v>
       </c>
       <c r="D87" t="n">
-        <v>0.70669</v>
+        <v>0.719876</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.31598</v>
+        <v>2.3287</v>
       </c>
       <c r="C88" t="n">
-        <v>2.03082</v>
+        <v>2.03868</v>
       </c>
       <c r="D88" t="n">
-        <v>0.765469</v>
+        <v>0.769648</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.55807</v>
+        <v>2.57833</v>
       </c>
       <c r="C89" t="n">
-        <v>2.25288</v>
+        <v>2.2665</v>
       </c>
       <c r="D89" t="n">
-        <v>0.839521</v>
+        <v>0.844579</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.81016</v>
+        <v>2.83756</v>
       </c>
       <c r="C90" t="n">
-        <v>2.48981</v>
+        <v>2.5109</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9054990000000001</v>
+        <v>0.911808</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.09015</v>
+        <v>3.1176</v>
       </c>
       <c r="C91" t="n">
-        <v>2.74211</v>
+        <v>2.76836</v>
       </c>
       <c r="D91" t="n">
-        <v>0.964722</v>
+        <v>0.97555</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.3849</v>
+        <v>3.41705</v>
       </c>
       <c r="C92" t="n">
-        <v>3.01185</v>
+        <v>3.04648</v>
       </c>
       <c r="D92" t="n">
-        <v>1.05408</v>
+        <v>1.07102</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.69494</v>
+        <v>3.72442</v>
       </c>
       <c r="C93" t="n">
-        <v>3.29689</v>
+        <v>3.32367</v>
       </c>
       <c r="D93" t="n">
-        <v>1.14607</v>
+        <v>1.16086</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.00358</v>
+        <v>4.03312</v>
       </c>
       <c r="C94" t="n">
-        <v>3.58184</v>
+        <v>3.5998</v>
       </c>
       <c r="D94" t="n">
-        <v>1.23989</v>
+        <v>1.25637</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.31155</v>
+        <v>4.33195</v>
       </c>
       <c r="C95" t="n">
-        <v>3.85238</v>
+        <v>3.86802</v>
       </c>
       <c r="D95" t="n">
-        <v>1.32474</v>
+        <v>1.34297</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.60762</v>
+        <v>4.64015</v>
       </c>
       <c r="C96" t="n">
-        <v>4.14448</v>
+        <v>4.17373</v>
       </c>
       <c r="D96" t="n">
-        <v>1.4058</v>
+        <v>1.42148</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.9298</v>
+        <v>4.98043</v>
       </c>
       <c r="C97" t="n">
-        <v>2.41382</v>
+        <v>2.4328</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02502</v>
+        <v>1.03891</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.29231</v>
+        <v>5.34541</v>
       </c>
       <c r="C98" t="n">
-        <v>2.58376</v>
+        <v>2.61151</v>
       </c>
       <c r="D98" t="n">
-        <v>1.093</v>
+        <v>1.10528</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.13806</v>
+        <v>3.18032</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77356</v>
+        <v>2.79798</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15772</v>
+        <v>1.17102</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.35332</v>
+        <v>3.39722</v>
       </c>
       <c r="C100" t="n">
-        <v>2.97425</v>
+        <v>3.01428</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21202</v>
+        <v>1.22482</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.5778</v>
+        <v>3.62557</v>
       </c>
       <c r="C101" t="n">
-        <v>3.1886</v>
+        <v>3.22771</v>
       </c>
       <c r="D101" t="n">
-        <v>1.29182</v>
+        <v>1.30594</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.8127</v>
+        <v>3.86502</v>
       </c>
       <c r="C102" t="n">
-        <v>3.41646</v>
+        <v>3.45902</v>
       </c>
       <c r="D102" t="n">
-        <v>1.34685</v>
+        <v>1.35926</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.05457</v>
+        <v>4.11015</v>
       </c>
       <c r="C103" t="n">
-        <v>3.66015</v>
+        <v>3.70558</v>
       </c>
       <c r="D103" t="n">
-        <v>1.42712</v>
+        <v>1.44332</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.31369</v>
+        <v>4.38246</v>
       </c>
       <c r="C104" t="n">
-        <v>3.92069</v>
+        <v>3.96114</v>
       </c>
       <c r="D104" t="n">
-        <v>1.49216</v>
+        <v>1.50923</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.59227</v>
+        <v>4.65618</v>
       </c>
       <c r="C105" t="n">
-        <v>4.18729</v>
+        <v>4.24298</v>
       </c>
       <c r="D105" t="n">
-        <v>1.59317</v>
+        <v>1.61009</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.74769</v>
+        <v>4.96815</v>
       </c>
       <c r="C106" t="n">
-        <v>4.45567</v>
+        <v>4.53486</v>
       </c>
       <c r="D106" t="n">
-        <v>1.62508</v>
+        <v>1.666</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.07747</v>
+        <v>5.27786</v>
       </c>
       <c r="C107" t="n">
-        <v>4.64208</v>
+        <v>4.84292</v>
       </c>
       <c r="D107" t="n">
-        <v>1.7109</v>
+        <v>1.76215</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.37144</v>
+        <v>5.59267</v>
       </c>
       <c r="C108" t="n">
-        <v>4.93626</v>
+        <v>5.15325</v>
       </c>
       <c r="D108" t="n">
-        <v>1.79714</v>
+        <v>1.85381</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.70476</v>
+        <v>5.94791</v>
       </c>
       <c r="C109" t="n">
-        <v>5.24659</v>
+        <v>5.46429</v>
       </c>
       <c r="D109" t="n">
-        <v>1.87627</v>
+        <v>1.93388</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.04054</v>
+        <v>6.29643</v>
       </c>
       <c r="C110" t="n">
-        <v>5.5515</v>
+        <v>5.79779</v>
       </c>
       <c r="D110" t="n">
-        <v>1.98007</v>
+        <v>2.03544</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.38647</v>
+        <v>6.66098</v>
       </c>
       <c r="C111" t="n">
-        <v>3.04665</v>
+        <v>3.17474</v>
       </c>
       <c r="D111" t="n">
-        <v>1.42884</v>
+        <v>1.46932</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.76387</v>
+        <v>7.05695</v>
       </c>
       <c r="C112" t="n">
-        <v>3.24165</v>
+        <v>3.37625</v>
       </c>
       <c r="D112" t="n">
-        <v>1.49902</v>
+        <v>1.54096</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>7.14794</v>
+        <v>7.45506</v>
       </c>
       <c r="C113" t="n">
-        <v>3.43354</v>
+        <v>3.57765</v>
       </c>
       <c r="D113" t="n">
-        <v>1.534</v>
+        <v>1.58095</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.06503</v>
+        <v>4.22961</v>
       </c>
       <c r="C114" t="n">
-        <v>3.65361</v>
+        <v>3.80136</v>
       </c>
       <c r="D114" t="n">
-        <v>1.60747</v>
+        <v>1.66191</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.2851</v>
+        <v>4.46126</v>
       </c>
       <c r="C115" t="n">
-        <v>3.86444</v>
+        <v>4.03073</v>
       </c>
       <c r="D115" t="n">
-        <v>1.69395</v>
+        <v>1.74507</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.51749</v>
+        <v>4.70101</v>
       </c>
       <c r="C116" t="n">
-        <v>4.10927</v>
+        <v>4.28961</v>
       </c>
       <c r="D116" t="n">
-        <v>1.7383</v>
+        <v>1.79676</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.76778</v>
+        <v>4.96529</v>
       </c>
       <c r="C117" t="n">
-        <v>4.35469</v>
+        <v>4.53903</v>
       </c>
       <c r="D117" t="n">
-        <v>1.82689</v>
+        <v>1.8839</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.02005</v>
+        <v>5.23563</v>
       </c>
       <c r="C118" t="n">
-        <v>4.62437</v>
+        <v>4.82826</v>
       </c>
       <c r="D118" t="n">
-        <v>1.88937</v>
+        <v>1.9513</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.29882</v>
+        <v>5.5247</v>
       </c>
       <c r="C119" t="n">
-        <v>4.90874</v>
+        <v>5.12228</v>
       </c>
       <c r="D119" t="n">
-        <v>1.97215</v>
+        <v>2.02964</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered unsuccessful looukp.xlsx
+++ b/gcc/scattered unsuccessful looukp.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>35.4849</v>
+        <v>35.9475</v>
       </c>
       <c r="C2" t="n">
-        <v>23.0087</v>
+        <v>23.0393</v>
       </c>
       <c r="D2" t="n">
-        <v>22.4967</v>
+        <v>22.8281</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>26.2065</v>
+        <v>26.0791</v>
       </c>
       <c r="C3" t="n">
-        <v>23.1441</v>
+        <v>23.063</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8904</v>
+        <v>22.957</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>27.046</v>
+        <v>26.9555</v>
       </c>
       <c r="C4" t="n">
-        <v>23.6124</v>
+        <v>23.6639</v>
       </c>
       <c r="D4" t="n">
-        <v>23.4978</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8566</v>
+        <v>27.8511</v>
       </c>
       <c r="C5" t="n">
-        <v>24.1881</v>
+        <v>23.8726</v>
       </c>
       <c r="D5" t="n">
-        <v>24.1227</v>
+        <v>23.9422</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>28.9204</v>
+        <v>28.8352</v>
       </c>
       <c r="C6" t="n">
-        <v>24.7837</v>
+        <v>24.3255</v>
       </c>
       <c r="D6" t="n">
-        <v>24.6507</v>
+        <v>24.6022</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>29.8867</v>
+        <v>30.0137</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4244</v>
+        <v>20.2115</v>
       </c>
       <c r="D7" t="n">
-        <v>20.3984</v>
+        <v>20.363</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>30.7322</v>
+        <v>30.563</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0023</v>
+        <v>20.9256</v>
       </c>
       <c r="D8" t="n">
-        <v>21.0012</v>
+        <v>21.1175</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5639</v>
+        <v>31.4298</v>
       </c>
       <c r="C9" t="n">
-        <v>21.5443</v>
+        <v>21.3835</v>
       </c>
       <c r="D9" t="n">
-        <v>21.5859</v>
+        <v>21.5558</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>32.4764</v>
+        <v>32.4605</v>
       </c>
       <c r="C10" t="n">
-        <v>22.133</v>
+        <v>21.838</v>
       </c>
       <c r="D10" t="n">
-        <v>22.2326</v>
+        <v>22.2261</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5384</v>
+        <v>33.5103</v>
       </c>
       <c r="C11" t="n">
-        <v>22.612</v>
+        <v>22.3294</v>
       </c>
       <c r="D11" t="n">
-        <v>22.8312</v>
+        <v>22.7896</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>34.5716</v>
+        <v>34.5106</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3998</v>
+        <v>23.2189</v>
       </c>
       <c r="D12" t="n">
-        <v>23.6592</v>
+        <v>23.6586</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>35.3981</v>
+        <v>35.3063</v>
       </c>
       <c r="C13" t="n">
-        <v>23.8191</v>
+        <v>23.6322</v>
       </c>
       <c r="D13" t="n">
-        <v>24.3465</v>
+        <v>24.2589</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>36.27</v>
+        <v>36.2467</v>
       </c>
       <c r="C14" t="n">
-        <v>24.3948</v>
+        <v>24.1468</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8976</v>
+        <v>24.7864</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>37.363</v>
+        <v>37.3984</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9967</v>
+        <v>24.6902</v>
       </c>
       <c r="D15" t="n">
-        <v>25.4291</v>
+        <v>25.3595</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>38.3609</v>
+        <v>38.4284</v>
       </c>
       <c r="C16" t="n">
-        <v>25.4198</v>
+        <v>25.1466</v>
       </c>
       <c r="D16" t="n">
-        <v>26.0299</v>
+        <v>25.8633</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>39.5171</v>
+        <v>39.5524</v>
       </c>
       <c r="C17" t="n">
-        <v>25.974</v>
+        <v>25.7161</v>
       </c>
       <c r="D17" t="n">
-        <v>26.5574</v>
+        <v>26.471</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>29.4303</v>
+        <v>29.5225</v>
       </c>
       <c r="C18" t="n">
-        <v>26.2659</v>
+        <v>26.1141</v>
       </c>
       <c r="D18" t="n">
-        <v>26.9553</v>
+        <v>26.8889</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>30.2726</v>
+        <v>30.4584</v>
       </c>
       <c r="C19" t="n">
-        <v>26.7911</v>
+        <v>26.5851</v>
       </c>
       <c r="D19" t="n">
-        <v>27.6264</v>
+        <v>27.5726</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>31.2918</v>
+        <v>31.4408</v>
       </c>
       <c r="C20" t="n">
-        <v>27.5793</v>
+        <v>27.3279</v>
       </c>
       <c r="D20" t="n">
-        <v>28.3765</v>
+        <v>28.2851</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>32.2632</v>
+        <v>32.3925</v>
       </c>
       <c r="C21" t="n">
-        <v>22.1538</v>
+        <v>21.9284</v>
       </c>
       <c r="D21" t="n">
-        <v>22.3614</v>
+        <v>22.4317</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>33.2563</v>
+        <v>33.381</v>
       </c>
       <c r="C22" t="n">
-        <v>22.8702</v>
+        <v>22.452</v>
       </c>
       <c r="D22" t="n">
-        <v>23.1327</v>
+        <v>23.1712</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>34.2371</v>
+        <v>34.3538</v>
       </c>
       <c r="C23" t="n">
-        <v>23.4367</v>
+        <v>23.1466</v>
       </c>
       <c r="D23" t="n">
-        <v>23.7616</v>
+        <v>23.8712</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>35.0105</v>
+        <v>35.1227</v>
       </c>
       <c r="C24" t="n">
-        <v>23.8735</v>
+        <v>23.6422</v>
       </c>
       <c r="D24" t="n">
-        <v>24.3114</v>
+        <v>24.3937</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>35.9057</v>
+        <v>35.9839</v>
       </c>
       <c r="C25" t="n">
-        <v>24.4376</v>
+        <v>24.2152</v>
       </c>
       <c r="D25" t="n">
-        <v>24.9107</v>
+        <v>24.9872</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>36.8426</v>
+        <v>36.9881</v>
       </c>
       <c r="C26" t="n">
-        <v>25.0992</v>
+        <v>24.9432</v>
       </c>
       <c r="D26" t="n">
-        <v>25.6437</v>
+        <v>25.6428</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>37.7552</v>
+        <v>37.9774</v>
       </c>
       <c r="C27" t="n">
-        <v>25.6663</v>
+        <v>25.4427</v>
       </c>
       <c r="D27" t="n">
-        <v>26.1118</v>
+        <v>26.1475</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>38.7019</v>
+        <v>38.9703</v>
       </c>
       <c r="C28" t="n">
-        <v>26.2299</v>
+        <v>25.9969</v>
       </c>
       <c r="D28" t="n">
-        <v>26.7905</v>
+        <v>26.8081</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>39.7403</v>
+        <v>40.0362</v>
       </c>
       <c r="C29" t="n">
-        <v>26.7726</v>
+        <v>26.6109</v>
       </c>
       <c r="D29" t="n">
-        <v>27.4123</v>
+        <v>27.4691</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>40.677</v>
+        <v>40.9922</v>
       </c>
       <c r="C30" t="n">
-        <v>27.2744</v>
+        <v>27.1201</v>
       </c>
       <c r="D30" t="n">
-        <v>28.0608</v>
+        <v>28.1003</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>41.5358</v>
+        <v>41.8845</v>
       </c>
       <c r="C31" t="n">
-        <v>27.7969</v>
+        <v>27.6303</v>
       </c>
       <c r="D31" t="n">
-        <v>28.5693</v>
+        <v>28.6668</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>30.09</v>
+        <v>30.4282</v>
       </c>
       <c r="C32" t="n">
-        <v>28.3755</v>
+        <v>28.2713</v>
       </c>
       <c r="D32" t="n">
-        <v>29.1819</v>
+        <v>29.2729</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>31.048</v>
+        <v>31.3965</v>
       </c>
       <c r="C33" t="n">
-        <v>28.8787</v>
+        <v>28.7494</v>
       </c>
       <c r="D33" t="n">
-        <v>29.7566</v>
+        <v>29.9098</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>31.9331</v>
+        <v>32.1838</v>
       </c>
       <c r="C34" t="n">
-        <v>29.3784</v>
+        <v>29.3585</v>
       </c>
       <c r="D34" t="n">
-        <v>30.3258</v>
+        <v>30.4672</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>32.8762</v>
+        <v>33.2277</v>
       </c>
       <c r="C35" t="n">
-        <v>23.1571</v>
+        <v>22.9962</v>
       </c>
       <c r="D35" t="n">
-        <v>23.0396</v>
+        <v>23.1086</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>33.8478</v>
+        <v>34.0973</v>
       </c>
       <c r="C36" t="n">
-        <v>23.7798</v>
+        <v>23.6209</v>
       </c>
       <c r="D36" t="n">
-        <v>23.6488</v>
+        <v>23.7254</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>34.7686</v>
+        <v>35.0211</v>
       </c>
       <c r="C37" t="n">
-        <v>24.3159</v>
+        <v>24.0582</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2247</v>
+        <v>24.3178</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>35.6483</v>
+        <v>35.9052</v>
       </c>
       <c r="C38" t="n">
-        <v>24.8778</v>
+        <v>24.7156</v>
       </c>
       <c r="D38" t="n">
-        <v>24.8472</v>
+        <v>24.9331</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>36.623</v>
+        <v>36.8884</v>
       </c>
       <c r="C39" t="n">
-        <v>25.4855</v>
+        <v>25.2886</v>
       </c>
       <c r="D39" t="n">
-        <v>25.5445</v>
+        <v>25.6083</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>37.5334</v>
+        <v>37.8227</v>
       </c>
       <c r="C40" t="n">
-        <v>26.0619</v>
+        <v>25.9046</v>
       </c>
       <c r="D40" t="n">
-        <v>26.1139</v>
+        <v>26.1999</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>38.3592</v>
+        <v>38.5866</v>
       </c>
       <c r="C41" t="n">
-        <v>26.6275</v>
+        <v>26.4196</v>
       </c>
       <c r="D41" t="n">
-        <v>26.7299</v>
+        <v>26.8311</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>39.2802</v>
+        <v>39.6396</v>
       </c>
       <c r="C42" t="n">
-        <v>27.1761</v>
+        <v>27.0306</v>
       </c>
       <c r="D42" t="n">
-        <v>27.325</v>
+        <v>27.3935</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>40.2454</v>
+        <v>40.6403</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7099</v>
+        <v>27.6053</v>
       </c>
       <c r="D43" t="n">
-        <v>27.9704</v>
+        <v>28.0704</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>41.2168</v>
+        <v>41.6217</v>
       </c>
       <c r="C44" t="n">
-        <v>28.3101</v>
+        <v>28.1608</v>
       </c>
       <c r="D44" t="n">
-        <v>28.6017</v>
+        <v>28.734</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>42.093</v>
+        <v>42.4891</v>
       </c>
       <c r="C45" t="n">
-        <v>28.782</v>
+        <v>28.6329</v>
       </c>
       <c r="D45" t="n">
-        <v>29.1262</v>
+        <v>29.2449</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>43.2583</v>
+        <v>43.6678</v>
       </c>
       <c r="C46" t="n">
-        <v>29.2037</v>
+        <v>29.1104</v>
       </c>
       <c r="D46" t="n">
-        <v>29.6765</v>
+        <v>29.7602</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>30.9947</v>
+        <v>31.2333</v>
       </c>
       <c r="C47" t="n">
-        <v>29.7288</v>
+        <v>29.6235</v>
       </c>
       <c r="D47" t="n">
-        <v>30.2281</v>
+        <v>30.3222</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>31.8121</v>
+        <v>32.0621</v>
       </c>
       <c r="C48" t="n">
-        <v>30.2711</v>
+        <v>30.1722</v>
       </c>
       <c r="D48" t="n">
-        <v>30.8775</v>
+        <v>31.0072</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>32.8119</v>
+        <v>32.9725</v>
       </c>
       <c r="C49" t="n">
-        <v>30.7012</v>
+        <v>30.6612</v>
       </c>
       <c r="D49" t="n">
-        <v>31.7567</v>
+        <v>32.0016</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>33.7221</v>
+        <v>33.9324</v>
       </c>
       <c r="C50" t="n">
-        <v>24.0777</v>
+        <v>23.9304</v>
       </c>
       <c r="D50" t="n">
-        <v>23.7539</v>
+        <v>23.8511</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>34.6863</v>
+        <v>34.8442</v>
       </c>
       <c r="C51" t="n">
-        <v>24.7314</v>
+        <v>24.5314</v>
       </c>
       <c r="D51" t="n">
-        <v>24.3882</v>
+        <v>24.4681</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>35.5151</v>
+        <v>35.7808</v>
       </c>
       <c r="C52" t="n">
-        <v>25.3274</v>
+        <v>25.1545</v>
       </c>
       <c r="D52" t="n">
-        <v>25.0772</v>
+        <v>25.1922</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>36.4418</v>
+        <v>36.6865</v>
       </c>
       <c r="C53" t="n">
-        <v>25.9597</v>
+        <v>25.723</v>
       </c>
       <c r="D53" t="n">
-        <v>25.7485</v>
+        <v>25.8184</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>37.3856</v>
+        <v>37.6286</v>
       </c>
       <c r="C54" t="n">
-        <v>26.5293</v>
+        <v>26.341</v>
       </c>
       <c r="D54" t="n">
-        <v>26.3656</v>
+        <v>26.4603</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>38.2486</v>
+        <v>38.5924</v>
       </c>
       <c r="C55" t="n">
-        <v>27.1027</v>
+        <v>26.9389</v>
       </c>
       <c r="D55" t="n">
-        <v>26.9946</v>
+        <v>27.0952</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>39.213</v>
+        <v>39.6042</v>
       </c>
       <c r="C56" t="n">
-        <v>27.6859</v>
+        <v>27.4986</v>
       </c>
       <c r="D56" t="n">
-        <v>27.5786</v>
+        <v>27.7013</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>40.1268</v>
+        <v>40.5335</v>
       </c>
       <c r="C57" t="n">
-        <v>28.1914</v>
+        <v>28.0153</v>
       </c>
       <c r="D57" t="n">
-        <v>28.1586</v>
+        <v>28.2884</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>41.0835</v>
+        <v>41.4736</v>
       </c>
       <c r="C58" t="n">
-        <v>28.698</v>
+        <v>28.5521</v>
       </c>
       <c r="D58" t="n">
-        <v>28.7538</v>
+        <v>28.8868</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>42.0101</v>
+        <v>42.3998</v>
       </c>
       <c r="C59" t="n">
-        <v>29.1895</v>
+        <v>29.0423</v>
       </c>
       <c r="D59" t="n">
-        <v>29.3248</v>
+        <v>29.4585</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>43.077</v>
+        <v>43.4637</v>
       </c>
       <c r="C60" t="n">
-        <v>29.6765</v>
+        <v>29.5395</v>
       </c>
       <c r="D60" t="n">
-        <v>29.9382</v>
+        <v>30.0665</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>31.3224</v>
+        <v>31.6127</v>
       </c>
       <c r="C61" t="n">
-        <v>30.1621</v>
+        <v>30.0936</v>
       </c>
       <c r="D61" t="n">
-        <v>30.5451</v>
+        <v>30.7527</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>32.5074</v>
+        <v>32.75</v>
       </c>
       <c r="C62" t="n">
-        <v>30.6364</v>
+        <v>30.5778</v>
       </c>
       <c r="D62" t="n">
-        <v>31.1716</v>
+        <v>31.3316</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>33.5948</v>
+        <v>33.8626</v>
       </c>
       <c r="C63" t="n">
-        <v>31.2069</v>
+        <v>31.241</v>
       </c>
       <c r="D63" t="n">
-        <v>31.8861</v>
+        <v>32.1426</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>34.7811</v>
+        <v>35.1826</v>
       </c>
       <c r="C64" t="n">
-        <v>25.0272</v>
+        <v>25.026</v>
       </c>
       <c r="D64" t="n">
-        <v>25.0605</v>
+        <v>25.2915</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>35.5816</v>
+        <v>36.1081</v>
       </c>
       <c r="C65" t="n">
-        <v>25.7811</v>
+        <v>25.8135</v>
       </c>
       <c r="D65" t="n">
-        <v>25.8226</v>
+        <v>26.0907</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>36.8226</v>
+        <v>37.3223</v>
       </c>
       <c r="C66" t="n">
-        <v>26.8386</v>
+        <v>26.37</v>
       </c>
       <c r="D66" t="n">
-        <v>26.7534</v>
+        <v>26.9769</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>38.0863</v>
+        <v>38.5638</v>
       </c>
       <c r="C67" t="n">
-        <v>27.7842</v>
+        <v>27.1392</v>
       </c>
       <c r="D67" t="n">
-        <v>27.5753</v>
+        <v>27.8473</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>39.4625</v>
+        <v>40.071</v>
       </c>
       <c r="C68" t="n">
-        <v>28.6797</v>
+        <v>27.9737</v>
       </c>
       <c r="D68" t="n">
-        <v>28.5994</v>
+        <v>28.7957</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>41.1097</v>
+        <v>41.3853</v>
       </c>
       <c r="C69" t="n">
-        <v>29.3519</v>
+        <v>29.1112</v>
       </c>
       <c r="D69" t="n">
-        <v>29.7597</v>
+        <v>29.7683</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>43.0635</v>
+        <v>42.8673</v>
       </c>
       <c r="C70" t="n">
-        <v>30.7933</v>
+        <v>30.1876</v>
       </c>
       <c r="D70" t="n">
-        <v>30.9641</v>
+        <v>30.7631</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>44.9814</v>
+        <v>44.4951</v>
       </c>
       <c r="C71" t="n">
-        <v>32.1766</v>
+        <v>31.2094</v>
       </c>
       <c r="D71" t="n">
-        <v>32.5504</v>
+        <v>31.7482</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>47.7665</v>
+        <v>46.301</v>
       </c>
       <c r="C72" t="n">
-        <v>33.2689</v>
+        <v>32.2309</v>
       </c>
       <c r="D72" t="n">
-        <v>33.7314</v>
+        <v>32.8516</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>49.7931</v>
+        <v>48.2887</v>
       </c>
       <c r="C73" t="n">
-        <v>34.3924</v>
+        <v>33.7413</v>
       </c>
       <c r="D73" t="n">
-        <v>35.0537</v>
+        <v>34.3966</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>51.7073</v>
+        <v>50.9101</v>
       </c>
       <c r="C74" t="n">
-        <v>35.7528</v>
+        <v>35.4499</v>
       </c>
       <c r="D74" t="n">
-        <v>36.3683</v>
+        <v>36.0889</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>53.8875</v>
+        <v>53.7804</v>
       </c>
       <c r="C75" t="n">
-        <v>37.478</v>
+        <v>37.0703</v>
       </c>
       <c r="D75" t="n">
-        <v>37.8078</v>
+        <v>37.6368</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>49.561</v>
+        <v>48.7416</v>
       </c>
       <c r="C76" t="n">
-        <v>39.4099</v>
+        <v>39.0656</v>
       </c>
       <c r="D76" t="n">
-        <v>40.1165</v>
+        <v>39.7663</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>52.3095</v>
+        <v>51.5452</v>
       </c>
       <c r="C77" t="n">
-        <v>41.3394</v>
+        <v>41.1566</v>
       </c>
       <c r="D77" t="n">
-        <v>42.1138</v>
+        <v>41.9441</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>55.3169</v>
+        <v>54.8823</v>
       </c>
       <c r="C78" t="n">
-        <v>37.6031</v>
+        <v>37.6912</v>
       </c>
       <c r="D78" t="n">
-        <v>37.9516</v>
+        <v>37.9883</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>58.0127</v>
+        <v>57.8394</v>
       </c>
       <c r="C79" t="n">
-        <v>39.9167</v>
+        <v>40.0726</v>
       </c>
       <c r="D79" t="n">
-        <v>40.1731</v>
+        <v>40.5513</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>61.4403</v>
+        <v>61.1749</v>
       </c>
       <c r="C80" t="n">
-        <v>42.9922</v>
+        <v>43.2452</v>
       </c>
       <c r="D80" t="n">
-        <v>42.6944</v>
+        <v>42.5143</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>64.9579</v>
+        <v>64.5463</v>
       </c>
       <c r="C81" t="n">
-        <v>45.1905</v>
+        <v>45.0218</v>
       </c>
       <c r="D81" t="n">
-        <v>44.6459</v>
+        <v>44.8877</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>68.6619</v>
+        <v>68.30629999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>47.717</v>
+        <v>47.4094</v>
       </c>
       <c r="D82" t="n">
-        <v>47.2751</v>
+        <v>47.2024</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>72.6378</v>
+        <v>71.9883</v>
       </c>
       <c r="C83" t="n">
-        <v>50.2969</v>
+        <v>50.1255</v>
       </c>
       <c r="D83" t="n">
-        <v>49.6994</v>
+        <v>49.6871</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>75.9169</v>
+        <v>75.3351</v>
       </c>
       <c r="C84" t="n">
-        <v>53.2093</v>
+        <v>52.9982</v>
       </c>
       <c r="D84" t="n">
-        <v>52.4229</v>
+        <v>52.1506</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>80.0582</v>
+        <v>79.16759999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>56.3626</v>
+        <v>55.9968</v>
       </c>
       <c r="D85" t="n">
-        <v>54.9903</v>
+        <v>54.7595</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>84.0801</v>
+        <v>83.3176</v>
       </c>
       <c r="C86" t="n">
-        <v>59.4346</v>
+        <v>59.134</v>
       </c>
       <c r="D86" t="n">
-        <v>57.7016</v>
+        <v>57.4194</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>88.3541</v>
+        <v>87.51220000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>62.5724</v>
+        <v>62.0548</v>
       </c>
       <c r="D87" t="n">
-        <v>60.2687</v>
+        <v>59.9786</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>92.798</v>
+        <v>91.9205</v>
       </c>
       <c r="C88" t="n">
-        <v>65.69289999999999</v>
+        <v>65.16119999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>63.7319</v>
+        <v>63.4116</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>97.4097</v>
+        <v>96.4132</v>
       </c>
       <c r="C89" t="n">
-        <v>68.97410000000001</v>
+        <v>68.3507</v>
       </c>
       <c r="D89" t="n">
-        <v>66.6777</v>
+        <v>66.3408</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>87.5723</v>
+        <v>86.91930000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>72.2068</v>
+        <v>71.5325</v>
       </c>
       <c r="D90" t="n">
-        <v>68.70569999999999</v>
+        <v>68.21939999999999</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>90.3192</v>
+        <v>89.81399999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>75.5904</v>
+        <v>75.01860000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>71.61190000000001</v>
+        <v>71.1681</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>93.3417</v>
+        <v>92.7484</v>
       </c>
       <c r="C92" t="n">
-        <v>66.77460000000001</v>
+        <v>66.29259999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>64.05840000000001</v>
+        <v>63.7086</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>96.324</v>
+        <v>95.57380000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>68.9614</v>
+        <v>68.51390000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>66.489</v>
+        <v>66.2306</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>99.12560000000001</v>
+        <v>98.34439999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>71.2912</v>
+        <v>70.7364</v>
       </c>
       <c r="D94" t="n">
-        <v>67.84650000000001</v>
+        <v>67.5202</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>102.223</v>
+        <v>101.344</v>
       </c>
       <c r="C95" t="n">
-        <v>73.73690000000001</v>
+        <v>73.0557</v>
       </c>
       <c r="D95" t="n">
-        <v>71.471</v>
+        <v>71.20269999999999</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>105.15</v>
+        <v>104.294</v>
       </c>
       <c r="C96" t="n">
-        <v>76.283</v>
+        <v>75.529</v>
       </c>
       <c r="D96" t="n">
-        <v>73.8695</v>
+        <v>73.52630000000001</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>107.908</v>
+        <v>106.838</v>
       </c>
       <c r="C97" t="n">
-        <v>78.68129999999999</v>
+        <v>78.0634</v>
       </c>
       <c r="D97" t="n">
-        <v>76.3182</v>
+        <v>76.0416</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>111.141</v>
+        <v>110.062</v>
       </c>
       <c r="C98" t="n">
-        <v>81.2197</v>
+        <v>80.5985</v>
       </c>
       <c r="D98" t="n">
-        <v>79.1101</v>
+        <v>78.61499999999999</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>114.639</v>
+        <v>113.562</v>
       </c>
       <c r="C99" t="n">
-        <v>83.8724</v>
+        <v>83.2411</v>
       </c>
       <c r="D99" t="n">
-        <v>81.38500000000001</v>
+        <v>80.97239999999999</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>118.023</v>
+        <v>116.738</v>
       </c>
       <c r="C100" t="n">
-        <v>86.5608</v>
+        <v>85.85639999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>83.97280000000001</v>
+        <v>83.4871</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>120.466</v>
+        <v>119.427</v>
       </c>
       <c r="C101" t="n">
-        <v>89.3725</v>
+        <v>88.6022</v>
       </c>
       <c r="D101" t="n">
-        <v>86.5552</v>
+        <v>86.0232</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>124.037</v>
+        <v>122.98</v>
       </c>
       <c r="C102" t="n">
-        <v>92.2514</v>
+        <v>91.5676</v>
       </c>
       <c r="D102" t="n">
-        <v>89.49979999999999</v>
+        <v>88.8817</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>127.661</v>
+        <v>126.728</v>
       </c>
       <c r="C103" t="n">
-        <v>95.3314</v>
+        <v>94.5608</v>
       </c>
       <c r="D103" t="n">
-        <v>92.2362</v>
+        <v>91.5664</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>131.676</v>
+        <v>130.561</v>
       </c>
       <c r="C104" t="n">
-        <v>98.4081</v>
+        <v>97.661</v>
       </c>
       <c r="D104" t="n">
-        <v>95.0831</v>
+        <v>94.3947</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>110.035</v>
+        <v>108.608</v>
       </c>
       <c r="C105" t="n">
-        <v>102</v>
+        <v>100.799</v>
       </c>
       <c r="D105" t="n">
-        <v>98.13930000000001</v>
+        <v>97.2054</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>112.372</v>
+        <v>111.104</v>
       </c>
       <c r="C106" t="n">
-        <v>105.25</v>
+        <v>104.197</v>
       </c>
       <c r="D106" t="n">
-        <v>100.788</v>
+        <v>100.064</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>115.091</v>
+        <v>113.742</v>
       </c>
       <c r="C107" t="n">
-        <v>85.1373</v>
+        <v>85.51779999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>82.91119999999999</v>
+        <v>83.6271</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>116.819</v>
+        <v>115.502</v>
       </c>
       <c r="C108" t="n">
-        <v>88.5326</v>
+        <v>87.6322</v>
       </c>
       <c r="D108" t="n">
-        <v>86.59050000000001</v>
+        <v>85.8582</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>119.989</v>
+        <v>118.354</v>
       </c>
       <c r="C109" t="n">
-        <v>90.62139999999999</v>
+        <v>89.80710000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>89.2807</v>
+        <v>88.2206</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>122.494</v>
+        <v>120.842</v>
       </c>
       <c r="C110" t="n">
-        <v>92.8899</v>
+        <v>91.89660000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>91.3677</v>
+        <v>90.6153</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>125.513</v>
+        <v>123.59</v>
       </c>
       <c r="C111" t="n">
-        <v>95.1718</v>
+        <v>94.3108</v>
       </c>
       <c r="D111" t="n">
-        <v>93.9071</v>
+        <v>92.8929</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>128.971</v>
+        <v>127.072</v>
       </c>
       <c r="C112" t="n">
-        <v>97.744</v>
+        <v>96.63639999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>96.4823</v>
+        <v>95.4821</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>132.02</v>
+        <v>129.991</v>
       </c>
       <c r="C113" t="n">
-        <v>100.147</v>
+        <v>99.1177</v>
       </c>
       <c r="D113" t="n">
-        <v>98.81270000000001</v>
+        <v>97.8109</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>134.643</v>
+        <v>132.585</v>
       </c>
       <c r="C114" t="n">
-        <v>102.774</v>
+        <v>101.553</v>
       </c>
       <c r="D114" t="n">
-        <v>102.238</v>
+        <v>101.084</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>137.967</v>
+        <v>135.797</v>
       </c>
       <c r="C115" t="n">
-        <v>105.38</v>
+        <v>104.246</v>
       </c>
       <c r="D115" t="n">
-        <v>105.138</v>
+        <v>103.953</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>141.422</v>
+        <v>139.182</v>
       </c>
       <c r="C116" t="n">
-        <v>108.173</v>
+        <v>107.013</v>
       </c>
       <c r="D116" t="n">
-        <v>106.372</v>
+        <v>105.418</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>145.097</v>
+        <v>142.834</v>
       </c>
       <c r="C117" t="n">
-        <v>110.996</v>
+        <v>109.878</v>
       </c>
       <c r="D117" t="n">
-        <v>109.061</v>
+        <v>108.053</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>148.726</v>
+        <v>146.278</v>
       </c>
       <c r="C118" t="n">
-        <v>113.989</v>
+        <v>112.788</v>
       </c>
       <c r="D118" t="n">
-        <v>112.328</v>
+        <v>111.361</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>119.751</v>
+        <v>118.307</v>
       </c>
       <c r="C119" t="n">
-        <v>117.1</v>
+        <v>115.615</v>
       </c>
       <c r="D119" t="n">
-        <v>115.147</v>
+        <v>113.863</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>27.6891</v>
+        <v>27.5963</v>
       </c>
       <c r="C2" t="n">
-        <v>17.6333</v>
+        <v>17.8006</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0617</v>
+        <v>14.0132</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2391</v>
+        <v>19.8686</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1049</v>
+        <v>18.0034</v>
       </c>
       <c r="D3" t="n">
-        <v>14.1455</v>
+        <v>14.018</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>20.5279</v>
+        <v>20.4139</v>
       </c>
       <c r="C4" t="n">
-        <v>18.7452</v>
+        <v>18.7389</v>
       </c>
       <c r="D4" t="n">
-        <v>14.625</v>
+        <v>14.5367</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>21.5115</v>
+        <v>21.634</v>
       </c>
       <c r="C5" t="n">
-        <v>19.4926</v>
+        <v>19.3743</v>
       </c>
       <c r="D5" t="n">
-        <v>14.9184</v>
+        <v>14.8876</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>22.1794</v>
+        <v>22.0488</v>
       </c>
       <c r="C6" t="n">
-        <v>20.0694</v>
+        <v>19.8479</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2789</v>
+        <v>15.1919</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>23.1296</v>
+        <v>23.0306</v>
       </c>
       <c r="C7" t="n">
-        <v>16.1573</v>
+        <v>16.3936</v>
       </c>
       <c r="D7" t="n">
-        <v>13.6437</v>
+        <v>13.8263</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>23.7664</v>
+        <v>23.7732</v>
       </c>
       <c r="C8" t="n">
-        <v>16.45</v>
+        <v>16.6616</v>
       </c>
       <c r="D8" t="n">
-        <v>13.8546</v>
+        <v>14.0196</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>24.5141</v>
+        <v>24.5238</v>
       </c>
       <c r="C9" t="n">
-        <v>17.1293</v>
+        <v>17.4069</v>
       </c>
       <c r="D9" t="n">
-        <v>14.1278</v>
+        <v>14.1878</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3478</v>
+        <v>25.3822</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6239</v>
+        <v>17.7303</v>
       </c>
       <c r="D10" t="n">
-        <v>14.4192</v>
+        <v>14.5133</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>26.3745</v>
+        <v>26.1665</v>
       </c>
       <c r="C11" t="n">
-        <v>18.1578</v>
+        <v>18.404</v>
       </c>
       <c r="D11" t="n">
-        <v>14.7802</v>
+        <v>14.7722</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>27.4359</v>
+        <v>27.2817</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7878</v>
+        <v>18.9457</v>
       </c>
       <c r="D12" t="n">
-        <v>15.1591</v>
+        <v>15.1542</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>28.26</v>
+        <v>28.0897</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5182</v>
+        <v>19.6676</v>
       </c>
       <c r="D13" t="n">
-        <v>15.499</v>
+        <v>15.4091</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>29.4</v>
+        <v>29.2386</v>
       </c>
       <c r="C14" t="n">
-        <v>20.2338</v>
+        <v>20.22</v>
       </c>
       <c r="D14" t="n">
-        <v>15.846</v>
+        <v>15.8205</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>31.0104</v>
+        <v>30.7551</v>
       </c>
       <c r="C15" t="n">
-        <v>20.7349</v>
+        <v>20.9086</v>
       </c>
       <c r="D15" t="n">
-        <v>16.1261</v>
+        <v>16.3774</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>31.8382</v>
+        <v>31.7337</v>
       </c>
       <c r="C16" t="n">
-        <v>21.6853</v>
+        <v>21.9795</v>
       </c>
       <c r="D16" t="n">
-        <v>16.5067</v>
+        <v>16.541</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>33.0706</v>
+        <v>33.015</v>
       </c>
       <c r="C17" t="n">
-        <v>22.3481</v>
+        <v>22.5981</v>
       </c>
       <c r="D17" t="n">
-        <v>16.9027</v>
+        <v>16.9585</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>24.8672</v>
+        <v>24.8014</v>
       </c>
       <c r="C18" t="n">
-        <v>22.994</v>
+        <v>23.1999</v>
       </c>
       <c r="D18" t="n">
-        <v>17.2052</v>
+        <v>17.3565</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>25.7838</v>
+        <v>25.656</v>
       </c>
       <c r="C19" t="n">
-        <v>23.9184</v>
+        <v>24.046</v>
       </c>
       <c r="D19" t="n">
-        <v>17.7742</v>
+        <v>17.8357</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>26.3247</v>
+        <v>26.2067</v>
       </c>
       <c r="C20" t="n">
-        <v>25.1172</v>
+        <v>25.2546</v>
       </c>
       <c r="D20" t="n">
-        <v>18.2377</v>
+        <v>18.3527</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>26.9985</v>
+        <v>26.8607</v>
       </c>
       <c r="C21" t="n">
-        <v>20.1459</v>
+        <v>20.284</v>
       </c>
       <c r="D21" t="n">
-        <v>16.948</v>
+        <v>16.9291</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>27.608</v>
+        <v>27.4352</v>
       </c>
       <c r="C22" t="n">
-        <v>20.7565</v>
+        <v>20.874</v>
       </c>
       <c r="D22" t="n">
-        <v>17.1933</v>
+        <v>17.1875</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>28.5437</v>
+        <v>28.4241</v>
       </c>
       <c r="C23" t="n">
-        <v>21.1962</v>
+        <v>21.3964</v>
       </c>
       <c r="D23" t="n">
-        <v>17.4795</v>
+        <v>17.4697</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>29.3888</v>
+        <v>29.242</v>
       </c>
       <c r="C24" t="n">
-        <v>21.5703</v>
+        <v>21.7416</v>
       </c>
       <c r="D24" t="n">
-        <v>17.7846</v>
+        <v>17.7525</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>30.1742</v>
+        <v>30.0088</v>
       </c>
       <c r="C25" t="n">
-        <v>22.252</v>
+        <v>22.3369</v>
       </c>
       <c r="D25" t="n">
-        <v>17.9766</v>
+        <v>17.9963</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>31.1873</v>
+        <v>31.062</v>
       </c>
       <c r="C26" t="n">
-        <v>22.9358</v>
+        <v>23.0722</v>
       </c>
       <c r="D26" t="n">
-        <v>18.3361</v>
+        <v>18.3618</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>32.1725</v>
+        <v>32.051</v>
       </c>
       <c r="C27" t="n">
-        <v>23.3929</v>
+        <v>23.4205</v>
       </c>
       <c r="D27" t="n">
-        <v>18.6133</v>
+        <v>18.5783</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>33.2722</v>
+        <v>33.2005</v>
       </c>
       <c r="C28" t="n">
-        <v>23.7647</v>
+        <v>23.859</v>
       </c>
       <c r="D28" t="n">
-        <v>18.8859</v>
+        <v>18.9203</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>34.3645</v>
+        <v>34.2248</v>
       </c>
       <c r="C29" t="n">
-        <v>24.5288</v>
+        <v>24.5938</v>
       </c>
       <c r="D29" t="n">
-        <v>19.2366</v>
+        <v>19.2498</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>35.3821</v>
+        <v>35.2834</v>
       </c>
       <c r="C30" t="n">
-        <v>25.3525</v>
+        <v>25.3897</v>
       </c>
       <c r="D30" t="n">
-        <v>19.5831</v>
+        <v>19.6009</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>36.5282</v>
+        <v>36.5301</v>
       </c>
       <c r="C31" t="n">
-        <v>25.705</v>
+        <v>25.8519</v>
       </c>
       <c r="D31" t="n">
-        <v>19.9409</v>
+        <v>19.8961</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>26.6743</v>
+        <v>26.636</v>
       </c>
       <c r="C32" t="n">
-        <v>26.7749</v>
+        <v>26.8607</v>
       </c>
       <c r="D32" t="n">
-        <v>20.3315</v>
+        <v>20.2759</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>27.3963</v>
+        <v>27.3957</v>
       </c>
       <c r="C33" t="n">
-        <v>27.4974</v>
+        <v>27.5382</v>
       </c>
       <c r="D33" t="n">
-        <v>20.7186</v>
+        <v>20.6975</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>28.0454</v>
+        <v>28.0236</v>
       </c>
       <c r="C34" t="n">
-        <v>28.2525</v>
+        <v>28.3898</v>
       </c>
       <c r="D34" t="n">
-        <v>21.2267</v>
+        <v>21.1601</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>28.7431</v>
+        <v>28.7299</v>
       </c>
       <c r="C35" t="n">
-        <v>21.2941</v>
+        <v>21.3985</v>
       </c>
       <c r="D35" t="n">
-        <v>18.1672</v>
+        <v>18.1486</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>29.3523</v>
+        <v>29.3283</v>
       </c>
       <c r="C36" t="n">
-        <v>21.9561</v>
+        <v>22.0677</v>
       </c>
       <c r="D36" t="n">
-        <v>18.3888</v>
+        <v>18.3921</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>30.0511</v>
+        <v>30.057</v>
       </c>
       <c r="C37" t="n">
-        <v>22.3956</v>
+        <v>22.4614</v>
       </c>
       <c r="D37" t="n">
-        <v>18.6192</v>
+        <v>18.6245</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>30.8659</v>
+        <v>30.8298</v>
       </c>
       <c r="C38" t="n">
-        <v>22.8654</v>
+        <v>22.9479</v>
       </c>
       <c r="D38" t="n">
-        <v>18.9204</v>
+        <v>18.914</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>31.5464</v>
+        <v>31.5202</v>
       </c>
       <c r="C39" t="n">
-        <v>23.3893</v>
+        <v>23.4983</v>
       </c>
       <c r="D39" t="n">
-        <v>19.2223</v>
+        <v>19.2051</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>32.4409</v>
+        <v>32.4391</v>
       </c>
       <c r="C40" t="n">
-        <v>24.0432</v>
+        <v>24.1437</v>
       </c>
       <c r="D40" t="n">
-        <v>19.5607</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>33.4907</v>
+        <v>33.4211</v>
       </c>
       <c r="C41" t="n">
-        <v>24.5814</v>
+        <v>24.6374</v>
       </c>
       <c r="D41" t="n">
-        <v>19.8049</v>
+        <v>19.8064</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>34.5922</v>
+        <v>34.5593</v>
       </c>
       <c r="C42" t="n">
-        <v>24.959</v>
+        <v>25.0505</v>
       </c>
       <c r="D42" t="n">
-        <v>20.0979</v>
+        <v>20.1007</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>35.5939</v>
+        <v>35.5252</v>
       </c>
       <c r="C43" t="n">
-        <v>25.5941</v>
+        <v>25.6898</v>
       </c>
       <c r="D43" t="n">
-        <v>20.4264</v>
+        <v>20.4493</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>36.5383</v>
+        <v>36.4611</v>
       </c>
       <c r="C44" t="n">
-        <v>26.5024</v>
+        <v>26.5462</v>
       </c>
       <c r="D44" t="n">
-        <v>20.782</v>
+        <v>20.754</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>37.6809</v>
+        <v>37.6279</v>
       </c>
       <c r="C45" t="n">
-        <v>27.1131</v>
+        <v>27.1055</v>
       </c>
       <c r="D45" t="n">
-        <v>21.0614</v>
+        <v>21.0541</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>38.9348</v>
+        <v>38.826</v>
       </c>
       <c r="C46" t="n">
-        <v>27.7877</v>
+        <v>27.8325</v>
       </c>
       <c r="D46" t="n">
-        <v>21.47</v>
+        <v>21.4698</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>27.9855</v>
+        <v>27.9405</v>
       </c>
       <c r="C47" t="n">
-        <v>28.5566</v>
+        <v>28.5382</v>
       </c>
       <c r="D47" t="n">
-        <v>21.8387</v>
+        <v>21.8035</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>28.5806</v>
+        <v>28.54</v>
       </c>
       <c r="C48" t="n">
-        <v>29.3824</v>
+        <v>29.3317</v>
       </c>
       <c r="D48" t="n">
-        <v>22.242</v>
+        <v>22.2374</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>29.227</v>
+        <v>29.1621</v>
       </c>
       <c r="C49" t="n">
-        <v>30.1821</v>
+        <v>30.1989</v>
       </c>
       <c r="D49" t="n">
-        <v>22.5905</v>
+        <v>22.6175</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>29.9785</v>
+        <v>29.8823</v>
       </c>
       <c r="C50" t="n">
-        <v>22.3734</v>
+        <v>22.436</v>
       </c>
       <c r="D50" t="n">
-        <v>18.5769</v>
+        <v>18.5951</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>30.6159</v>
+        <v>30.5798</v>
       </c>
       <c r="C51" t="n">
-        <v>22.8491</v>
+        <v>22.9532</v>
       </c>
       <c r="D51" t="n">
-        <v>18.772</v>
+        <v>18.7699</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>31.3451</v>
+        <v>31.2672</v>
       </c>
       <c r="C52" t="n">
-        <v>23.35</v>
+        <v>23.461</v>
       </c>
       <c r="D52" t="n">
-        <v>19.0928</v>
+        <v>19.1219</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>32.2168</v>
+        <v>32.1827</v>
       </c>
       <c r="C53" t="n">
-        <v>24.0434</v>
+        <v>24.14</v>
       </c>
       <c r="D53" t="n">
-        <v>19.3903</v>
+        <v>19.4102</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>33.0469</v>
+        <v>33.0102</v>
       </c>
       <c r="C54" t="n">
-        <v>24.5848</v>
+        <v>24.6231</v>
       </c>
       <c r="D54" t="n">
-        <v>19.6228</v>
+        <v>19.636</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>33.9407</v>
+        <v>33.9233</v>
       </c>
       <c r="C55" t="n">
-        <v>25.2159</v>
+        <v>25.2197</v>
       </c>
       <c r="D55" t="n">
-        <v>19.9945</v>
+        <v>20.0624</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>35.0495</v>
+        <v>34.9645</v>
       </c>
       <c r="C56" t="n">
-        <v>25.69</v>
+        <v>25.7313</v>
       </c>
       <c r="D56" t="n">
-        <v>20.242</v>
+        <v>20.2555</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>35.9315</v>
+        <v>35.8915</v>
       </c>
       <c r="C57" t="n">
-        <v>26.3902</v>
+        <v>26.4658</v>
       </c>
       <c r="D57" t="n">
-        <v>20.6034</v>
+        <v>20.6279</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>36.9577</v>
+        <v>36.9112</v>
       </c>
       <c r="C58" t="n">
-        <v>27.1476</v>
+        <v>27.2266</v>
       </c>
       <c r="D58" t="n">
-        <v>20.9742</v>
+        <v>20.9643</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>38.0972</v>
+        <v>38.0236</v>
       </c>
       <c r="C59" t="n">
-        <v>27.7247</v>
+        <v>27.7635</v>
       </c>
       <c r="D59" t="n">
-        <v>21.2694</v>
+        <v>21.2748</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>39.1802</v>
+        <v>39.1418</v>
       </c>
       <c r="C60" t="n">
-        <v>28.4468</v>
+        <v>28.5066</v>
       </c>
       <c r="D60" t="n">
-        <v>21.7075</v>
+        <v>21.7286</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>28.8085</v>
+        <v>28.8977</v>
       </c>
       <c r="C61" t="n">
-        <v>29.299</v>
+        <v>29.3404</v>
       </c>
       <c r="D61" t="n">
-        <v>22.0584</v>
+        <v>22.0407</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>29.6535</v>
+        <v>29.6689</v>
       </c>
       <c r="C62" t="n">
-        <v>30.1729</v>
+        <v>30.1553</v>
       </c>
       <c r="D62" t="n">
-        <v>22.4921</v>
+        <v>22.5089</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>30.5914</v>
+        <v>30.6798</v>
       </c>
       <c r="C63" t="n">
-        <v>31.0368</v>
+        <v>31.0686</v>
       </c>
       <c r="D63" t="n">
-        <v>22.8682</v>
+        <v>22.8823</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>31.7638</v>
+        <v>32.1917</v>
       </c>
       <c r="C64" t="n">
-        <v>24.0522</v>
+        <v>24.387</v>
       </c>
       <c r="D64" t="n">
-        <v>19.9123</v>
+        <v>19.9886</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>32.5679</v>
+        <v>33.2092</v>
       </c>
       <c r="C65" t="n">
-        <v>24.7512</v>
+        <v>25.2335</v>
       </c>
       <c r="D65" t="n">
-        <v>20.014</v>
+        <v>20.1596</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>33.6255</v>
+        <v>34.3783</v>
       </c>
       <c r="C66" t="n">
-        <v>25.8464</v>
+        <v>26.1315</v>
       </c>
       <c r="D66" t="n">
-        <v>20.4506</v>
+        <v>20.5825</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>34.8756</v>
+        <v>35.9073</v>
       </c>
       <c r="C67" t="n">
-        <v>26.7474</v>
+        <v>26.9097</v>
       </c>
       <c r="D67" t="n">
-        <v>20.9272</v>
+        <v>21.0498</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>36.2066</v>
+        <v>37.7783</v>
       </c>
       <c r="C68" t="n">
-        <v>27.6304</v>
+        <v>27.6216</v>
       </c>
       <c r="D68" t="n">
-        <v>21.3548</v>
+        <v>21.643</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>37.6133</v>
+        <v>39.5918</v>
       </c>
       <c r="C69" t="n">
-        <v>28.7655</v>
+        <v>29.1346</v>
       </c>
       <c r="D69" t="n">
-        <v>21.843</v>
+        <v>22.0897</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>39.3812</v>
+        <v>41.2909</v>
       </c>
       <c r="C70" t="n">
-        <v>29.2973</v>
+        <v>31.0443</v>
       </c>
       <c r="D70" t="n">
-        <v>22.5303</v>
+        <v>22.9178</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>41.0236</v>
+        <v>43.4453</v>
       </c>
       <c r="C71" t="n">
-        <v>30.6652</v>
+        <v>32.5058</v>
       </c>
       <c r="D71" t="n">
-        <v>22.9141</v>
+        <v>23.4562</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>43.4842</v>
+        <v>46.0716</v>
       </c>
       <c r="C72" t="n">
-        <v>32.2896</v>
+        <v>33.7109</v>
       </c>
       <c r="D72" t="n">
-        <v>23.5865</v>
+        <v>23.9997</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>46.2903</v>
+        <v>47.8932</v>
       </c>
       <c r="C73" t="n">
-        <v>34.2103</v>
+        <v>35.8209</v>
       </c>
       <c r="D73" t="n">
-        <v>24.4243</v>
+        <v>25.2634</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>49.1418</v>
+        <v>51.1238</v>
       </c>
       <c r="C74" t="n">
-        <v>36.3661</v>
+        <v>37.4268</v>
       </c>
       <c r="D74" t="n">
-        <v>24.9806</v>
+        <v>25.6242</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>52.572</v>
+        <v>53.7932</v>
       </c>
       <c r="C75" t="n">
-        <v>38.6716</v>
+        <v>40.056</v>
       </c>
       <c r="D75" t="n">
-        <v>25.9794</v>
+        <v>26.6249</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>47.1249</v>
+        <v>46.4395</v>
       </c>
       <c r="C76" t="n">
-        <v>41.8592</v>
+        <v>42.6812</v>
       </c>
       <c r="D76" t="n">
-        <v>26.822</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>50.5778</v>
+        <v>49.8157</v>
       </c>
       <c r="C77" t="n">
-        <v>44.8453</v>
+        <v>46.0924</v>
       </c>
       <c r="D77" t="n">
-        <v>28.0935</v>
+        <v>28.6604</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>54.0236</v>
+        <v>53.9647</v>
       </c>
       <c r="C78" t="n">
-        <v>40.7052</v>
+        <v>41.0968</v>
       </c>
       <c r="D78" t="n">
-        <v>26.9966</v>
+        <v>26.8784</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>57.9169</v>
+        <v>58.0806</v>
       </c>
       <c r="C79" t="n">
-        <v>42.9894</v>
+        <v>43.7934</v>
       </c>
       <c r="D79" t="n">
-        <v>28.0696</v>
+        <v>28.0275</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>61.608</v>
+        <v>61.9091</v>
       </c>
       <c r="C80" t="n">
-        <v>46.6409</v>
+        <v>47.0383</v>
       </c>
       <c r="D80" t="n">
-        <v>29.6461</v>
+        <v>29.6564</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>66.6691</v>
+        <v>66.7963</v>
       </c>
       <c r="C81" t="n">
-        <v>49.7312</v>
+        <v>50.5816</v>
       </c>
       <c r="D81" t="n">
-        <v>31.4605</v>
+        <v>31.5979</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>71.474</v>
+        <v>71.9406</v>
       </c>
       <c r="C82" t="n">
-        <v>53.3383</v>
+        <v>53.8352</v>
       </c>
       <c r="D82" t="n">
-        <v>33.3002</v>
+        <v>33.6886</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>77.10890000000001</v>
+        <v>77.5303</v>
       </c>
       <c r="C83" t="n">
-        <v>57.568</v>
+        <v>57.6981</v>
       </c>
       <c r="D83" t="n">
-        <v>34.8993</v>
+        <v>35.193</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>83.34</v>
+        <v>83.5741</v>
       </c>
       <c r="C84" t="n">
-        <v>62.2706</v>
+        <v>62.001</v>
       </c>
       <c r="D84" t="n">
-        <v>37.4791</v>
+        <v>37.7567</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>89.44</v>
+        <v>89.4157</v>
       </c>
       <c r="C85" t="n">
-        <v>66.23480000000001</v>
+        <v>66.1862</v>
       </c>
       <c r="D85" t="n">
-        <v>39.8073</v>
+        <v>39.6634</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>96.3557</v>
+        <v>96.04940000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>70.652</v>
+        <v>70.77849999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>41.8947</v>
+        <v>42.1174</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>103.117</v>
+        <v>103.157</v>
       </c>
       <c r="C87" t="n">
-        <v>76.2088</v>
+        <v>76.2807</v>
       </c>
       <c r="D87" t="n">
-        <v>44.9313</v>
+        <v>45.1093</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>110.997</v>
+        <v>111.291</v>
       </c>
       <c r="C88" t="n">
-        <v>81.18680000000001</v>
+        <v>81.06019999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>47.4376</v>
+        <v>47.6253</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>118.586</v>
+        <v>118.759</v>
       </c>
       <c r="C89" t="n">
-        <v>86.831</v>
+        <v>86.7689</v>
       </c>
       <c r="D89" t="n">
-        <v>50.4319</v>
+        <v>50.4403</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>97.0902</v>
+        <v>97.592</v>
       </c>
       <c r="C90" t="n">
-        <v>92.2287</v>
+        <v>92.0703</v>
       </c>
       <c r="D90" t="n">
-        <v>53.2404</v>
+        <v>53.4118</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>100.609</v>
+        <v>100.875</v>
       </c>
       <c r="C91" t="n">
-        <v>98.583</v>
+        <v>98.2298</v>
       </c>
       <c r="D91" t="n">
-        <v>55.6901</v>
+        <v>55.8581</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>104.497</v>
+        <v>104.649</v>
       </c>
       <c r="C92" t="n">
-        <v>81.3879</v>
+        <v>81.6318</v>
       </c>
       <c r="D92" t="n">
-        <v>55.6231</v>
+        <v>55.6703</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>108.37</v>
+        <v>108.773</v>
       </c>
       <c r="C93" t="n">
-        <v>84.36920000000001</v>
+        <v>84.45010000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>57.596</v>
+        <v>57.5806</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>112.486</v>
+        <v>112.889</v>
       </c>
       <c r="C94" t="n">
-        <v>87.4281</v>
+        <v>87.7328</v>
       </c>
       <c r="D94" t="n">
-        <v>59.3718</v>
+        <v>59.3945</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>117.715</v>
+        <v>117.978</v>
       </c>
       <c r="C95" t="n">
-        <v>90.3008</v>
+        <v>90.7794</v>
       </c>
       <c r="D95" t="n">
-        <v>61.2901</v>
+        <v>61.3582</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>122.337</v>
+        <v>122.721</v>
       </c>
       <c r="C96" t="n">
-        <v>93.7043</v>
+        <v>93.9196</v>
       </c>
       <c r="D96" t="n">
-        <v>63.4228</v>
+        <v>63.4094</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>127.722</v>
+        <v>128.18</v>
       </c>
       <c r="C97" t="n">
-        <v>97.1234</v>
+        <v>97.1986</v>
       </c>
       <c r="D97" t="n">
-        <v>65.7865</v>
+        <v>65.9057</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>133.704</v>
+        <v>134.185</v>
       </c>
       <c r="C98" t="n">
-        <v>101.082</v>
+        <v>101.199</v>
       </c>
       <c r="D98" t="n">
-        <v>67.83280000000001</v>
+        <v>67.8961</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>139.666</v>
+        <v>140.136</v>
       </c>
       <c r="C99" t="n">
-        <v>105.131</v>
+        <v>105.372</v>
       </c>
       <c r="D99" t="n">
-        <v>70.4079</v>
+        <v>70.49420000000001</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>145.621</v>
+        <v>146.461</v>
       </c>
       <c r="C100" t="n">
-        <v>109.278</v>
+        <v>109.421</v>
       </c>
       <c r="D100" t="n">
-        <v>73.0046</v>
+        <v>73.06959999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>151.948</v>
+        <v>152.735</v>
       </c>
       <c r="C101" t="n">
-        <v>113.908</v>
+        <v>114.204</v>
       </c>
       <c r="D101" t="n">
-        <v>75.7576</v>
+        <v>75.83410000000001</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>158.705</v>
+        <v>159.453</v>
       </c>
       <c r="C102" t="n">
-        <v>118.775</v>
+        <v>118.989</v>
       </c>
       <c r="D102" t="n">
-        <v>78.5103</v>
+        <v>78.57080000000001</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>165.962</v>
+        <v>166.53</v>
       </c>
       <c r="C103" t="n">
-        <v>124.115</v>
+        <v>123.955</v>
       </c>
       <c r="D103" t="n">
-        <v>81.0865</v>
+        <v>81.1095</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>173.539</v>
+        <v>174.458</v>
       </c>
       <c r="C104" t="n">
-        <v>129.361</v>
+        <v>129.323</v>
       </c>
       <c r="D104" t="n">
-        <v>84.0605</v>
+        <v>84.28919999999999</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>123.003</v>
+        <v>124.418</v>
       </c>
       <c r="C105" t="n">
-        <v>134.937</v>
+        <v>134.615</v>
       </c>
       <c r="D105" t="n">
-        <v>86.9821</v>
+        <v>87.0573</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>128.261</v>
+        <v>128.572</v>
       </c>
       <c r="C106" t="n">
-        <v>140.05</v>
+        <v>140.417</v>
       </c>
       <c r="D106" t="n">
-        <v>89.5916</v>
+        <v>90.179</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>132.213</v>
+        <v>132.776</v>
       </c>
       <c r="C107" t="n">
-        <v>102.015</v>
+        <v>103.318</v>
       </c>
       <c r="D107" t="n">
-        <v>79.5628</v>
+        <v>80.74850000000001</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>136.76</v>
+        <v>137.227</v>
       </c>
       <c r="C108" t="n">
-        <v>106.445</v>
+        <v>106.535</v>
       </c>
       <c r="D108" t="n">
-        <v>82.6953</v>
+        <v>82.58240000000001</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>141.38</v>
+        <v>141.979</v>
       </c>
       <c r="C109" t="n">
-        <v>109.621</v>
+        <v>109.809</v>
       </c>
       <c r="D109" t="n">
-        <v>84.7316</v>
+        <v>84.36320000000001</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>146.668</v>
+        <v>147.265</v>
       </c>
       <c r="C110" t="n">
-        <v>113.094</v>
+        <v>113.171</v>
       </c>
       <c r="D110" t="n">
-        <v>86.67659999999999</v>
+        <v>86.7234</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>151.937</v>
+        <v>152.53</v>
       </c>
       <c r="C111" t="n">
-        <v>115.618</v>
+        <v>117.004</v>
       </c>
       <c r="D111" t="n">
-        <v>88.6061</v>
+        <v>88.41970000000001</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>157.322</v>
+        <v>157.963</v>
       </c>
       <c r="C112" t="n">
-        <v>120.788</v>
+        <v>120.817</v>
       </c>
       <c r="D112" t="n">
-        <v>90.38330000000001</v>
+        <v>90.3736</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>163.657</v>
+        <v>164.213</v>
       </c>
       <c r="C113" t="n">
-        <v>124.898</v>
+        <v>125.006</v>
       </c>
       <c r="D113" t="n">
-        <v>91.7861</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>168.842</v>
+        <v>170.124</v>
       </c>
       <c r="C114" t="n">
-        <v>127.758</v>
+        <v>128.889</v>
       </c>
       <c r="D114" t="n">
-        <v>94.45999999999999</v>
+        <v>94.58150000000001</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>175.887</v>
+        <v>176.648</v>
       </c>
       <c r="C115" t="n">
-        <v>133.645</v>
+        <v>133.524</v>
       </c>
       <c r="D115" t="n">
-        <v>96.703</v>
+        <v>96.6028</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>182.514</v>
+        <v>183.364</v>
       </c>
       <c r="C116" t="n">
-        <v>138.086</v>
+        <v>138.122</v>
       </c>
       <c r="D116" t="n">
-        <v>99.0534</v>
+        <v>98.7814</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>189.891</v>
+        <v>190.815</v>
       </c>
       <c r="C117" t="n">
-        <v>143.133</v>
+        <v>143.181</v>
       </c>
       <c r="D117" t="n">
-        <v>101.625</v>
+        <v>101.711</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>197.517</v>
+        <v>198.357</v>
       </c>
       <c r="C118" t="n">
-        <v>148.848</v>
+        <v>149.076</v>
       </c>
       <c r="D118" t="n">
-        <v>104.176</v>
+        <v>104.192</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>134.617</v>
+        <v>135.401</v>
       </c>
       <c r="C119" t="n">
-        <v>154.356</v>
+        <v>154.661</v>
       </c>
       <c r="D119" t="n">
-        <v>106.667</v>
+        <v>106.597</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>59.9825</v>
+        <v>59.8987</v>
       </c>
       <c r="C2" t="n">
-        <v>37.6778</v>
+        <v>39.0147</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9307</v>
+        <v>24.8155</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>62.9939</v>
+        <v>62.2677</v>
       </c>
       <c r="C3" t="n">
-        <v>39.663</v>
+        <v>39.8057</v>
       </c>
       <c r="D3" t="n">
-        <v>25.4988</v>
+        <v>25.4686</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>65.578</v>
+        <v>65.48820000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>42.3922</v>
+        <v>41.596</v>
       </c>
       <c r="D4" t="n">
-        <v>26.19</v>
+        <v>26.1268</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>68.86969999999999</v>
+        <v>68.0591</v>
       </c>
       <c r="C5" t="n">
-        <v>44.4557</v>
+        <v>44.0468</v>
       </c>
       <c r="D5" t="n">
-        <v>26.938</v>
+        <v>26.9811</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>70.9268</v>
+        <v>70.17959999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>45.8623</v>
+        <v>45.4995</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0871</v>
+        <v>27.9771</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>73.8815</v>
+        <v>73.10599999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>48.7258</v>
+        <v>47.5715</v>
       </c>
       <c r="D7" t="n">
-        <v>28.5075</v>
+        <v>28.2353</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>76.65049999999999</v>
+        <v>75.4739</v>
       </c>
       <c r="C8" t="n">
-        <v>50.3796</v>
+        <v>48.609</v>
       </c>
       <c r="D8" t="n">
-        <v>29.0195</v>
+        <v>28.9207</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>79.2102</v>
+        <v>78.2144</v>
       </c>
       <c r="C9" t="n">
-        <v>53.3651</v>
+        <v>51.5311</v>
       </c>
       <c r="D9" t="n">
-        <v>29.8319</v>
+        <v>29.5326</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>82.0235</v>
+        <v>81.5583</v>
       </c>
       <c r="C10" t="n">
-        <v>56.0616</v>
+        <v>53.9572</v>
       </c>
       <c r="D10" t="n">
-        <v>30.9844</v>
+        <v>30.8466</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>85.6768</v>
+        <v>84.6664</v>
       </c>
       <c r="C11" t="n">
-        <v>37.7551</v>
+        <v>37.0997</v>
       </c>
       <c r="D11" t="n">
-        <v>23.4196</v>
+        <v>23.2015</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>54.2209</v>
+        <v>53.5038</v>
       </c>
       <c r="C12" t="n">
-        <v>39.4515</v>
+        <v>39.3678</v>
       </c>
       <c r="D12" t="n">
-        <v>24.6158</v>
+        <v>24.4881</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>56.5534</v>
+        <v>56.1454</v>
       </c>
       <c r="C13" t="n">
-        <v>41.3331</v>
+        <v>41.1305</v>
       </c>
       <c r="D13" t="n">
-        <v>24.9664</v>
+        <v>24.9776</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>58.9614</v>
+        <v>58.9235</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3116</v>
+        <v>43.2693</v>
       </c>
       <c r="D14" t="n">
-        <v>25.6223</v>
+        <v>25.5573</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>61.8878</v>
+        <v>61.7346</v>
       </c>
       <c r="C15" t="n">
-        <v>46.2054</v>
+        <v>46.1982</v>
       </c>
       <c r="D15" t="n">
-        <v>26.3821</v>
+        <v>26.5597</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>64.7474</v>
+        <v>64.4914</v>
       </c>
       <c r="C16" t="n">
-        <v>48.3437</v>
+        <v>47.92</v>
       </c>
       <c r="D16" t="n">
-        <v>27.424</v>
+        <v>27.3187</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>68.44889999999999</v>
+        <v>68.1987</v>
       </c>
       <c r="C17" t="n">
-        <v>51.8827</v>
+        <v>51.4228</v>
       </c>
       <c r="D17" t="n">
-        <v>28.5097</v>
+        <v>28.687</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>71.8596</v>
+        <v>71.012</v>
       </c>
       <c r="C18" t="n">
-        <v>54.9395</v>
+        <v>54.5962</v>
       </c>
       <c r="D18" t="n">
-        <v>29.4283</v>
+        <v>29.528</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>75.9014</v>
+        <v>75.1767</v>
       </c>
       <c r="C19" t="n">
-        <v>57.5713</v>
+        <v>57.5856</v>
       </c>
       <c r="D19" t="n">
-        <v>30.4459</v>
+        <v>30.5116</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>78.9023</v>
+        <v>78.83759999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>60.2915</v>
+        <v>60.3555</v>
       </c>
       <c r="D20" t="n">
-        <v>31.5267</v>
+        <v>31.4754</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>83.2367</v>
+        <v>83.193</v>
       </c>
       <c r="C21" t="n">
-        <v>64.54089999999999</v>
+        <v>63.8478</v>
       </c>
       <c r="D21" t="n">
-        <v>32.5898</v>
+        <v>33.1571</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>87.45140000000001</v>
+        <v>86.8565</v>
       </c>
       <c r="C22" t="n">
-        <v>67.51779999999999</v>
+        <v>67.0659</v>
       </c>
       <c r="D22" t="n">
-        <v>34.2004</v>
+        <v>34.1432</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>91.7646</v>
+        <v>91.6887</v>
       </c>
       <c r="C23" t="n">
-        <v>71.49769999999999</v>
+        <v>70.7414</v>
       </c>
       <c r="D23" t="n">
-        <v>35.2768</v>
+        <v>34.961</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>96.43510000000001</v>
+        <v>95.8682</v>
       </c>
       <c r="C24" t="n">
-        <v>74.428</v>
+        <v>73.86</v>
       </c>
       <c r="D24" t="n">
-        <v>36.3831</v>
+        <v>36.5294</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>100.691</v>
+        <v>100.131</v>
       </c>
       <c r="C25" t="n">
-        <v>78.12179999999999</v>
+        <v>77.4323</v>
       </c>
       <c r="D25" t="n">
-        <v>37.4535</v>
+        <v>37.8183</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>105.841</v>
+        <v>105.378</v>
       </c>
       <c r="C26" t="n">
-        <v>50.2662</v>
+        <v>50.2892</v>
       </c>
       <c r="D26" t="n">
-        <v>27.815</v>
+        <v>27.8888</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>67.5127</v>
+        <v>67.31100000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>52.4003</v>
+        <v>52.3889</v>
       </c>
       <c r="D27" t="n">
-        <v>28.6785</v>
+        <v>28.8668</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>70.56529999999999</v>
+        <v>70.1662</v>
       </c>
       <c r="C28" t="n">
-        <v>55.5423</v>
+        <v>55.4414</v>
       </c>
       <c r="D28" t="n">
-        <v>29.6241</v>
+        <v>29.6184</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>73.9396</v>
+        <v>73.7504</v>
       </c>
       <c r="C29" t="n">
-        <v>58.3362</v>
+        <v>58.0704</v>
       </c>
       <c r="D29" t="n">
-        <v>30.5617</v>
+        <v>30.8542</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>77.5295</v>
+        <v>77.33450000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>61.4755</v>
+        <v>60.7474</v>
       </c>
       <c r="D30" t="n">
-        <v>31.8414</v>
+        <v>31.9252</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>81.1726</v>
+        <v>81.03230000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>64.4832</v>
+        <v>63.8123</v>
       </c>
       <c r="D31" t="n">
-        <v>32.4957</v>
+        <v>32.5402</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>84.9709</v>
+        <v>84.7735</v>
       </c>
       <c r="C32" t="n">
-        <v>67.8389</v>
+        <v>67.047</v>
       </c>
       <c r="D32" t="n">
-        <v>33.5081</v>
+        <v>34.0125</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>88.7786</v>
+        <v>88.5346</v>
       </c>
       <c r="C33" t="n">
-        <v>70.7323</v>
+        <v>69.9097</v>
       </c>
       <c r="D33" t="n">
-        <v>34.9289</v>
+        <v>35.1157</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>92.80029999999999</v>
+        <v>92.354</v>
       </c>
       <c r="C34" t="n">
-        <v>74.36490000000001</v>
+        <v>73.30719999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>35.601</v>
+        <v>35.828</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>96.9374</v>
+        <v>96.5741</v>
       </c>
       <c r="C35" t="n">
-        <v>77.59610000000001</v>
+        <v>76.6262</v>
       </c>
       <c r="D35" t="n">
-        <v>36.8136</v>
+        <v>36.6203</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>100.95</v>
+        <v>100.431</v>
       </c>
       <c r="C36" t="n">
-        <v>81.0517</v>
+        <v>79.77460000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>38.2949</v>
+        <v>38.2974</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>105.49</v>
+        <v>104.958</v>
       </c>
       <c r="C37" t="n">
-        <v>84.7363</v>
+        <v>83.42829999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>39.3345</v>
+        <v>39.688</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>109.272</v>
+        <v>109.078</v>
       </c>
       <c r="C38" t="n">
-        <v>88.36799999999999</v>
+        <v>86.6969</v>
       </c>
       <c r="D38" t="n">
-        <v>40.3145</v>
+        <v>40.4393</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>114.534</v>
+        <v>114.075</v>
       </c>
       <c r="C39" t="n">
-        <v>91.7868</v>
+        <v>90.00700000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>41.6029</v>
+        <v>42.081</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>118.294</v>
+        <v>118.14</v>
       </c>
       <c r="C40" t="n">
-        <v>55.7268</v>
+        <v>55.7162</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6043</v>
+        <v>31.7588</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>73.149</v>
+        <v>72.6906</v>
       </c>
       <c r="C41" t="n">
-        <v>58.1631</v>
+        <v>57.8521</v>
       </c>
       <c r="D41" t="n">
-        <v>32.3121</v>
+        <v>32.718</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>75.9811</v>
+        <v>75.7439</v>
       </c>
       <c r="C42" t="n">
-        <v>60.6358</v>
+        <v>60.2493</v>
       </c>
       <c r="D42" t="n">
-        <v>33.4905</v>
+        <v>33.6758</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>79.4336</v>
+        <v>79.2381</v>
       </c>
       <c r="C43" t="n">
-        <v>63.3582</v>
+        <v>62.9848</v>
       </c>
       <c r="D43" t="n">
-        <v>34.5526</v>
+        <v>34.6856</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>82.8493</v>
+        <v>82.56229999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>66.444</v>
+        <v>65.9697</v>
       </c>
       <c r="D44" t="n">
-        <v>35.8969</v>
+        <v>36.0324</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>86.3871</v>
+        <v>86.1767</v>
       </c>
       <c r="C45" t="n">
-        <v>69.72029999999999</v>
+        <v>69.22150000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>36.7725</v>
+        <v>36.8343</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>90.29649999999999</v>
+        <v>90.17919999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>72.9577</v>
+        <v>72.28740000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>37.6355</v>
+        <v>37.6857</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>94.247</v>
+        <v>93.937</v>
       </c>
       <c r="C47" t="n">
-        <v>76.4332</v>
+        <v>75.5558</v>
       </c>
       <c r="D47" t="n">
-        <v>38.9431</v>
+        <v>38.9691</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>98.2022</v>
+        <v>97.7547</v>
       </c>
       <c r="C48" t="n">
-        <v>79.7332</v>
+        <v>78.6391</v>
       </c>
       <c r="D48" t="n">
-        <v>40.0594</v>
+        <v>40.1146</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>102.202</v>
+        <v>101.835</v>
       </c>
       <c r="C49" t="n">
-        <v>83.51560000000001</v>
+        <v>82.4432</v>
       </c>
       <c r="D49" t="n">
-        <v>41.2084</v>
+        <v>41.3146</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>106.07</v>
+        <v>105.571</v>
       </c>
       <c r="C50" t="n">
-        <v>87.4306</v>
+        <v>86.1811</v>
       </c>
       <c r="D50" t="n">
-        <v>42.6321</v>
+        <v>42.4893</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>110.729</v>
+        <v>110.195</v>
       </c>
       <c r="C51" t="n">
-        <v>90.9678</v>
+        <v>89.0009</v>
       </c>
       <c r="D51" t="n">
-        <v>43.717</v>
+        <v>43.6626</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>114.993</v>
+        <v>114.436</v>
       </c>
       <c r="C52" t="n">
-        <v>94.7885</v>
+        <v>92.91119999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>44.9505</v>
+        <v>45.0731</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>119.07</v>
+        <v>118.968</v>
       </c>
       <c r="C53" t="n">
-        <v>98.3199</v>
+        <v>96.739</v>
       </c>
       <c r="D53" t="n">
-        <v>46.1293</v>
+        <v>46.0763</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>123.722</v>
+        <v>123.255</v>
       </c>
       <c r="C54" t="n">
-        <v>58.5444</v>
+        <v>58.3565</v>
       </c>
       <c r="D54" t="n">
-        <v>34.3202</v>
+        <v>34.3776</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>128.135</v>
+        <v>127.828</v>
       </c>
       <c r="C55" t="n">
-        <v>60.8856</v>
+        <v>60.5736</v>
       </c>
       <c r="D55" t="n">
-        <v>35.1203</v>
+        <v>35.1336</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>77.24509999999999</v>
+        <v>77.0866</v>
       </c>
       <c r="C56" t="n">
-        <v>63.5149</v>
+        <v>63.2143</v>
       </c>
       <c r="D56" t="n">
-        <v>36.1038</v>
+        <v>36.1056</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>80.5505</v>
+        <v>80.27290000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>66.1806</v>
+        <v>65.758</v>
       </c>
       <c r="D57" t="n">
-        <v>37.1726</v>
+        <v>37.2015</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>83.8849</v>
+        <v>83.5864</v>
       </c>
       <c r="C58" t="n">
-        <v>69.27509999999999</v>
+        <v>68.7606</v>
       </c>
       <c r="D58" t="n">
-        <v>37.9439</v>
+        <v>37.9432</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>87.2015</v>
+        <v>86.99509999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>72.542</v>
+        <v>72.0316</v>
       </c>
       <c r="D59" t="n">
-        <v>39.3808</v>
+        <v>39.3681</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>91.2777</v>
+        <v>90.9508</v>
       </c>
       <c r="C60" t="n">
-        <v>75.9191</v>
+        <v>75.2016</v>
       </c>
       <c r="D60" t="n">
-        <v>40.4237</v>
+        <v>40.4749</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>95.0996</v>
+        <v>94.7978</v>
       </c>
       <c r="C61" t="n">
-        <v>79.3069</v>
+        <v>78.2501</v>
       </c>
       <c r="D61" t="n">
-        <v>41.2242</v>
+        <v>41.3587</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>98.8587</v>
+        <v>98.4736</v>
       </c>
       <c r="C62" t="n">
-        <v>83.1071</v>
+        <v>82.012</v>
       </c>
       <c r="D62" t="n">
-        <v>42.5069</v>
+        <v>42.5111</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>103.35</v>
+        <v>102.892</v>
       </c>
       <c r="C63" t="n">
-        <v>86.5899</v>
+        <v>85.4794</v>
       </c>
       <c r="D63" t="n">
-        <v>43.4834</v>
+        <v>43.4619</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>108.068</v>
+        <v>107.532</v>
       </c>
       <c r="C64" t="n">
-        <v>90.4679</v>
+        <v>88.83450000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>44.8585</v>
+        <v>44.9424</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>112.226</v>
+        <v>111.729</v>
       </c>
       <c r="C65" t="n">
-        <v>94.3638</v>
+        <v>92.7251</v>
       </c>
       <c r="D65" t="n">
-        <v>46.1445</v>
+        <v>46.1798</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>116.628</v>
+        <v>116.4</v>
       </c>
       <c r="C66" t="n">
-        <v>97.994</v>
+        <v>96.4935</v>
       </c>
       <c r="D66" t="n">
-        <v>47.4326</v>
+        <v>47.4706</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>121.071</v>
+        <v>120.57</v>
       </c>
       <c r="C67" t="n">
-        <v>101.797</v>
+        <v>100.114</v>
       </c>
       <c r="D67" t="n">
-        <v>48.6695</v>
+        <v>48.6768</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>125.732</v>
+        <v>125.806</v>
       </c>
       <c r="C68" t="n">
-        <v>60.307</v>
+        <v>60.4778</v>
       </c>
       <c r="D68" t="n">
-        <v>35.2215</v>
+        <v>35.2478</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>133.037</v>
+        <v>133.381</v>
       </c>
       <c r="C69" t="n">
-        <v>64.2092</v>
+        <v>64.67359999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>36.5649</v>
+        <v>36.7464</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>82.1934</v>
+        <v>83.893</v>
       </c>
       <c r="C70" t="n">
-        <v>68.8177</v>
+        <v>69.70099999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>38.136</v>
+        <v>38.3977</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>86.8339</v>
+        <v>89.4546</v>
       </c>
       <c r="C71" t="n">
-        <v>73.3593</v>
+        <v>74.5226</v>
       </c>
       <c r="D71" t="n">
-        <v>39.3256</v>
+        <v>39.7055</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>92.3597</v>
+        <v>96.0442</v>
       </c>
       <c r="C72" t="n">
-        <v>77.681</v>
+        <v>79.76600000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>40.6984</v>
+        <v>41.3378</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>97.627</v>
+        <v>102.539</v>
       </c>
       <c r="C73" t="n">
-        <v>82.6237</v>
+        <v>85.9211</v>
       </c>
       <c r="D73" t="n">
-        <v>42.3637</v>
+        <v>43.2228</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>104.664</v>
+        <v>109.634</v>
       </c>
       <c r="C74" t="n">
-        <v>88.60509999999999</v>
+        <v>91.99679999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>43.9527</v>
+        <v>45.1618</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>111.004</v>
+        <v>117.692</v>
       </c>
       <c r="C75" t="n">
-        <v>95.0398</v>
+        <v>99.3877</v>
       </c>
       <c r="D75" t="n">
-        <v>45.5823</v>
+        <v>47.0278</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>119.95</v>
+        <v>126.663</v>
       </c>
       <c r="C76" t="n">
-        <v>102.877</v>
+        <v>107.641</v>
       </c>
       <c r="D76" t="n">
-        <v>47.6297</v>
+        <v>49.5098</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>131.463</v>
+        <v>136.555</v>
       </c>
       <c r="C77" t="n">
-        <v>113.549</v>
+        <v>115.307</v>
       </c>
       <c r="D77" t="n">
-        <v>49.7388</v>
+        <v>51.1923</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>142.491</v>
+        <v>147.195</v>
       </c>
       <c r="C78" t="n">
-        <v>123.569</v>
+        <v>125.249</v>
       </c>
       <c r="D78" t="n">
-        <v>52.7834</v>
+        <v>54.5828</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>156.066</v>
+        <v>161.018</v>
       </c>
       <c r="C79" t="n">
-        <v>135.551</v>
+        <v>136.951</v>
       </c>
       <c r="D79" t="n">
-        <v>56.0772</v>
+        <v>57.1205</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>171.555</v>
+        <v>175.291</v>
       </c>
       <c r="C80" t="n">
-        <v>149.508</v>
+        <v>149.685</v>
       </c>
       <c r="D80" t="n">
-        <v>59.5398</v>
+        <v>60.8933</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>188.697</v>
+        <v>193.71</v>
       </c>
       <c r="C81" t="n">
-        <v>165.465</v>
+        <v>165.812</v>
       </c>
       <c r="D81" t="n">
-        <v>63.3903</v>
+        <v>65.8308</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>210.42</v>
+        <v>215.135</v>
       </c>
       <c r="C82" t="n">
-        <v>183.86</v>
+        <v>184.3</v>
       </c>
       <c r="D82" t="n">
-        <v>66.8511</v>
+        <v>68.11369999999999</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>232.171</v>
+        <v>236.6</v>
       </c>
       <c r="C83" t="n">
-        <v>118.276</v>
+        <v>118.598</v>
       </c>
       <c r="D83" t="n">
-        <v>52.6919</v>
+        <v>52.7563</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>259.025</v>
+        <v>262.293</v>
       </c>
       <c r="C84" t="n">
-        <v>131.259</v>
+        <v>131.312</v>
       </c>
       <c r="D84" t="n">
-        <v>56.1071</v>
+        <v>57.0312</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>171.253</v>
+        <v>171.116</v>
       </c>
       <c r="C85" t="n">
-        <v>146.145</v>
+        <v>145.567</v>
       </c>
       <c r="D85" t="n">
-        <v>61.5315</v>
+        <v>61.7596</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>189.325</v>
+        <v>191.162</v>
       </c>
       <c r="C86" t="n">
-        <v>163.708</v>
+        <v>162.611</v>
       </c>
       <c r="D86" t="n">
-        <v>65.4072</v>
+        <v>65.6914</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>208.597</v>
+        <v>211.485</v>
       </c>
       <c r="C87" t="n">
-        <v>181.714</v>
+        <v>181.299</v>
       </c>
       <c r="D87" t="n">
-        <v>71.9029</v>
+        <v>72.69889999999999</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>231.245</v>
+        <v>233.11</v>
       </c>
       <c r="C88" t="n">
-        <v>202.651</v>
+        <v>201.38</v>
       </c>
       <c r="D88" t="n">
-        <v>77.2179</v>
+        <v>77.7312</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>254.797</v>
+        <v>256.295</v>
       </c>
       <c r="C89" t="n">
-        <v>224.772</v>
+        <v>222.055</v>
       </c>
       <c r="D89" t="n">
-        <v>83.72880000000001</v>
+        <v>84.0491</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>279.746</v>
+        <v>281.154</v>
       </c>
       <c r="C90" t="n">
-        <v>247.529</v>
+        <v>244.481</v>
       </c>
       <c r="D90" t="n">
-        <v>90.4372</v>
+        <v>90.8338</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>306.327</v>
+        <v>309.091</v>
       </c>
       <c r="C91" t="n">
-        <v>272.618</v>
+        <v>269.696</v>
       </c>
       <c r="D91" t="n">
-        <v>96.0324</v>
+        <v>96.49639999999999</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>334.194</v>
+        <v>338.043</v>
       </c>
       <c r="C92" t="n">
-        <v>298.196</v>
+        <v>296.043</v>
       </c>
       <c r="D92" t="n">
-        <v>104.149</v>
+        <v>105.912</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>363.894</v>
+        <v>367.467</v>
       </c>
       <c r="C93" t="n">
-        <v>325.221</v>
+        <v>322.639</v>
       </c>
       <c r="D93" t="n">
-        <v>112.419</v>
+        <v>114.645</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>394.029</v>
+        <v>398.146</v>
       </c>
       <c r="C94" t="n">
-        <v>354.009</v>
+        <v>349.581</v>
       </c>
       <c r="D94" t="n">
-        <v>122.446</v>
+        <v>124.274</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>425.926</v>
+        <v>426.861</v>
       </c>
       <c r="C95" t="n">
-        <v>380.076</v>
+        <v>375.938</v>
       </c>
       <c r="D95" t="n">
-        <v>130.936</v>
+        <v>132.282</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>456.253</v>
+        <v>455.947</v>
       </c>
       <c r="C96" t="n">
-        <v>409.229</v>
+        <v>402.525</v>
       </c>
       <c r="D96" t="n">
-        <v>139.465</v>
+        <v>139.873</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>488.192</v>
+        <v>490.088</v>
       </c>
       <c r="C97" t="n">
-        <v>238.094</v>
+        <v>237.202</v>
       </c>
       <c r="D97" t="n">
-        <v>101.478</v>
+        <v>102.19</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>523.734</v>
+        <v>525.744</v>
       </c>
       <c r="C98" t="n">
-        <v>255.38</v>
+        <v>253.489</v>
       </c>
       <c r="D98" t="n">
-        <v>107.937</v>
+        <v>108.607</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>310.502</v>
+        <v>312.191</v>
       </c>
       <c r="C99" t="n">
-        <v>273.881</v>
+        <v>271.482</v>
       </c>
       <c r="D99" t="n">
-        <v>114.685</v>
+        <v>114.972</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>331.466</v>
+        <v>333.841</v>
       </c>
       <c r="C100" t="n">
-        <v>294.999</v>
+        <v>291.255</v>
       </c>
       <c r="D100" t="n">
-        <v>118.959</v>
+        <v>120.478</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>353.874</v>
+        <v>355.946</v>
       </c>
       <c r="C101" t="n">
-        <v>315.951</v>
+        <v>312.887</v>
       </c>
       <c r="D101" t="n">
-        <v>127.793</v>
+        <v>128.335</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>378.191</v>
+        <v>379.5</v>
       </c>
       <c r="C102" t="n">
-        <v>338.911</v>
+        <v>334.187</v>
       </c>
       <c r="D102" t="n">
-        <v>132.59</v>
+        <v>133.565</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>401.703</v>
+        <v>403.371</v>
       </c>
       <c r="C103" t="n">
-        <v>362.853</v>
+        <v>358.014</v>
       </c>
       <c r="D103" t="n">
-        <v>141.281</v>
+        <v>141.733</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>427.528</v>
+        <v>429.824</v>
       </c>
       <c r="C104" t="n">
-        <v>388.741</v>
+        <v>382.23</v>
       </c>
       <c r="D104" t="n">
-        <v>147.825</v>
+        <v>147.705</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>455.32</v>
+        <v>456.947</v>
       </c>
       <c r="C105" t="n">
-        <v>416.322</v>
+        <v>408.226</v>
       </c>
       <c r="D105" t="n">
-        <v>157.756</v>
+        <v>158.244</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>484.984</v>
+        <v>487.432</v>
       </c>
       <c r="C106" t="n">
-        <v>443.987</v>
+        <v>436.172</v>
       </c>
       <c r="D106" t="n">
-        <v>161.674</v>
+        <v>163.705</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>516.444</v>
+        <v>518.532</v>
       </c>
       <c r="C107" t="n">
-        <v>474.455</v>
+        <v>464.424</v>
       </c>
       <c r="D107" t="n">
-        <v>172.52</v>
+        <v>172.757</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>546.754</v>
+        <v>550.528</v>
       </c>
       <c r="C108" t="n">
-        <v>503.955</v>
+        <v>493.866</v>
       </c>
       <c r="D108" t="n">
-        <v>181.443</v>
+        <v>181.541</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>582.018</v>
+        <v>582.4109999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>536.021</v>
+        <v>524.562</v>
       </c>
       <c r="D109" t="n">
-        <v>189.48</v>
+        <v>189.937</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>616.599</v>
+        <v>620.173</v>
       </c>
       <c r="C110" t="n">
-        <v>568.381</v>
+        <v>556.349</v>
       </c>
       <c r="D110" t="n">
-        <v>197.764</v>
+        <v>199.866</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>652.3869999999999</v>
+        <v>655.42</v>
       </c>
       <c r="C111" t="n">
-        <v>311.341</v>
+        <v>308.068</v>
       </c>
       <c r="D111" t="n">
-        <v>145.091</v>
+        <v>145.561</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>689.323</v>
+        <v>695.099</v>
       </c>
       <c r="C112" t="n">
-        <v>331.138</v>
+        <v>327.001</v>
       </c>
       <c r="D112" t="n">
-        <v>151.76</v>
+        <v>152.152</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>727.697</v>
+        <v>732.857</v>
       </c>
       <c r="C113" t="n">
-        <v>350.928</v>
+        <v>347.923</v>
       </c>
       <c r="D113" t="n">
-        <v>155.726</v>
+        <v>156.1</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>413.319</v>
+        <v>416.016</v>
       </c>
       <c r="C114" t="n">
-        <v>371.794</v>
+        <v>368.336</v>
       </c>
       <c r="D114" t="n">
-        <v>162.823</v>
+        <v>162.928</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>436.694</v>
+        <v>438.758</v>
       </c>
       <c r="C115" t="n">
-        <v>394.467</v>
+        <v>389.761</v>
       </c>
       <c r="D115" t="n">
-        <v>171.602</v>
+        <v>172.237</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>460.096</v>
+        <v>462.687</v>
       </c>
       <c r="C116" t="n">
-        <v>419.099</v>
+        <v>413.85</v>
       </c>
       <c r="D116" t="n">
-        <v>176.209</v>
+        <v>176.806</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>485.873</v>
+        <v>488.619</v>
       </c>
       <c r="C117" t="n">
-        <v>445.348</v>
+        <v>437.935</v>
       </c>
       <c r="D117" t="n">
-        <v>186.139</v>
+        <v>185.265</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>511.674</v>
+        <v>514.2569999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>473.077</v>
+        <v>464.475</v>
       </c>
       <c r="D118" t="n">
-        <v>191.844</v>
+        <v>192.322</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>540.802</v>
+        <v>542.838</v>
       </c>
       <c r="C119" t="n">
-        <v>500.833</v>
+        <v>492.819</v>
       </c>
       <c r="D119" t="n">
-        <v>199.45</v>
+        <v>200.264</v>
       </c>
     </row>
   </sheetData>
